--- a/website/src/documents/Privat/Apollon_Aufwandserfassung.xlsx
+++ b/website/src/documents/Privat/Apollon_Aufwandserfassung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg.sharepoint.com/sites/o365grpSWE-Projekt/Freigegebene Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="942" documentId="13_ncr:1_{CF72DE10-053D-F84A-BF2F-97DB33227B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C93DE715-7169-F447-966C-01F991724BF8}"/>
+  <xr:revisionPtr revIDLastSave="1153" documentId="13_ncr:1_{CF72DE10-053D-F84A-BF2F-97DB33227B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EE9C14F0-CFFC-4455-949E-49305DAD0940}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{5DFA726E-B0C4-4500-AF96-5BC0FDCBA0B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="2" xr2:uid="{5DFA726E-B0C4-4500-AF96-5BC0FDCBA0B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -36,146 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="95">
-  <si>
-    <r>
-      <t xml:space="preserve">Zeiterfassung 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Castellar"/>
-      </rPr>
-      <t>Apollon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zeitraum 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Castellar"/>
-      </rPr>
-      <t>Apollon</t>
-    </r>
-  </si>
-  <si>
-    <t>Florian Albert</t>
-  </si>
-  <si>
-    <t>Zeitraum der Zeiterfassung</t>
-  </si>
-  <si>
-    <t>Aufgabe</t>
-  </si>
-  <si>
-    <t>Aufwand</t>
-  </si>
-  <si>
-    <t>Schwierigkeit</t>
-  </si>
-  <si>
-    <t>Geleistete Stunden</t>
-  </si>
-  <si>
-    <t>Anmerkung</t>
-  </si>
-  <si>
-    <t>Stunden kumuliert</t>
-  </si>
-  <si>
-    <t>Von</t>
-  </si>
-  <si>
-    <t>Besprechung 12.03.2021</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Teambesprechung</t>
-  </si>
-  <si>
-    <t>Bis</t>
-  </si>
-  <si>
-    <t>Besprechung 13.03.2021</t>
-  </si>
-  <si>
-    <t>Daily und Teambesprechung</t>
-  </si>
-  <si>
-    <t>Pflegen des Kanban Boards</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Zsm. mit Paul</t>
-  </si>
-  <si>
-    <t>Repository einrichten</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Legende</t>
-  </si>
-  <si>
-    <t>CI/CD-Workflow aufsetzen</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>Überblick über bestehende Web-Technologien verschaffen</t>
-  </si>
-  <si>
-    <t>Aufwand/Schwierigkeit Skala</t>
-  </si>
-  <si>
-    <t>Richtlinien-Dokumente aufsetzen</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>viel zu hoch</t>
-  </si>
-  <si>
-    <t>Besprechung 14.03.2021</t>
-  </si>
-  <si>
-    <t>zu hoch</t>
-  </si>
-  <si>
-    <t>Paul-Benedict Burkard</t>
-  </si>
-  <si>
-    <t>angemessen</t>
-  </si>
-  <si>
-    <t>zu niedrig</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>viel zu niedrig</t>
-  </si>
-  <si>
-    <t>Einrichten und Ausfüllen des Projektplans</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="106">
   <si>
     <r>
       <rPr>
@@ -197,6 +58,163 @@
     </r>
   </si>
   <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Gesamtzeit</t>
+  </si>
+  <si>
+    <t>Florian Albert</t>
+  </si>
+  <si>
+    <t>Paul-Benedict Burkard</t>
+  </si>
+  <si>
+    <t>Leon Jerke</t>
+  </si>
+  <si>
+    <t>Daniel Kröker</t>
+  </si>
+  <si>
+    <t>Alfred Rustemi</t>
+  </si>
+  <si>
+    <t>Etienne Zink</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zeiterfassung 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Castellar"/>
+      </rPr>
+      <t>Apollon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zeitraum 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Castellar"/>
+      </rPr>
+      <t>Apollon</t>
+    </r>
+  </si>
+  <si>
+    <t>Zeitraum der Zeiterfassung</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>Aufwand</t>
+  </si>
+  <si>
+    <t>Schwierigkeit</t>
+  </si>
+  <si>
+    <t>Geleistete Stunden</t>
+  </si>
+  <si>
+    <t>Anmerkung</t>
+  </si>
+  <si>
+    <t>Stunden kumuliert</t>
+  </si>
+  <si>
+    <t>Von</t>
+  </si>
+  <si>
+    <t>Besprechung 12.03.2021</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Teambesprechung</t>
+  </si>
+  <si>
+    <t>Bis</t>
+  </si>
+  <si>
+    <t>Besprechung 13.03.2021</t>
+  </si>
+  <si>
+    <t>Daily und Teambesprechung</t>
+  </si>
+  <si>
+    <t>Pflegen des Kanban Boards</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Zsm. mit Paul</t>
+  </si>
+  <si>
+    <t>Repository einrichten</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Legende</t>
+  </si>
+  <si>
+    <t>CI/CD-Workflow aufsetzen</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Überblick über bestehende Web-Technologien verschaffen</t>
+  </si>
+  <si>
+    <t>Aufwand/Schwierigkeit Skala</t>
+  </si>
+  <si>
+    <t>Richtlinien-Dokumente aufsetzen</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>viel zu hoch</t>
+  </si>
+  <si>
+    <t>Besprechung 14.03.2021</t>
+  </si>
+  <si>
+    <t>zu hoch</t>
+  </si>
+  <si>
+    <t>angemessen</t>
+  </si>
+  <si>
+    <t>zu niedrig</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>viel zu niedrig</t>
+  </si>
+  <si>
+    <t>Einrichten und Ausfüllen des Projektplans</t>
+  </si>
+  <si>
     <t>Vor-/Nachbereiten der Protokolle</t>
   </si>
   <si>
@@ -215,9 +233,6 @@
     <t>Durchschnitt pro Mitglied</t>
   </si>
   <si>
-    <t>Leon Jerke</t>
-  </si>
-  <si>
     <t>Website erstellen</t>
   </si>
   <si>
@@ -227,9 +242,6 @@
     <t>Logo entwerfen</t>
   </si>
   <si>
-    <t>Daniel Kröker</t>
-  </si>
-  <si>
     <t>Risikoanalyse erstellen</t>
   </si>
   <si>
@@ -239,16 +251,10 @@
     <t>In Absprache mit Team</t>
   </si>
   <si>
-    <t>Alfred Rustemi</t>
-  </si>
-  <si>
     <t>Risikoanalyse bearbeiten</t>
   </si>
   <si>
     <t>Vorarbeit des Aufgabenblattes 2</t>
-  </si>
-  <si>
-    <t>Etienne Zink</t>
   </si>
   <si>
     <t>Server mieten und Aufsetzen</t>
@@ -287,10 +293,89 @@
     <t>Zsm. Mit Paul</t>
   </si>
   <si>
+    <t xml:space="preserve">Projektleiter-Meeting und Auswertung </t>
+  </si>
+  <si>
+    <t>Weekly-Review</t>
+  </si>
+  <si>
+    <t>Weekly-Retro</t>
+  </si>
+  <si>
+    <t>Weekly-Planning</t>
+  </si>
+  <si>
+    <t>Recherche zu Werkzeuge für Prototyp</t>
+  </si>
+  <si>
+    <t>Planungs- und Lastenheftbesprechung</t>
+  </si>
+  <si>
+    <t>Website-Authentifizierung hinzufügen</t>
+  </si>
+  <si>
+    <t>Zsm. Mit Leon</t>
+  </si>
+  <si>
+    <t>Prototyp Projekt aufsetzen</t>
+  </si>
+  <si>
     <t>Zsm. Mit Florian</t>
   </si>
   <si>
     <t>Erstellen einer ersten Glossar-Grundlage</t>
+  </si>
+  <si>
+    <t>Erstellen des Rechercheberichts Teil 1</t>
+  </si>
+  <si>
+    <t>Vorbereiten der Besprechungen</t>
+  </si>
+  <si>
+    <t>Erstellen des Rechercheberichts Teil 3</t>
+  </si>
+  <si>
+    <t>Überarbeitung des Projektplans</t>
+  </si>
+  <si>
+    <t>Auf Kritik des Betreuers die Struktur überarbeitet</t>
+  </si>
+  <si>
+    <t>Einarbeitung in Blazor</t>
+  </si>
+  <si>
+    <t>Aufsetzen eines Lastenhefts</t>
+  </si>
+  <si>
+    <t>Einarbeitung in Adobe XD</t>
+  </si>
+  <si>
+    <t>Spielen des MUDs Morgengrauen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hinzufügen einer 
+Website-Authentifizierung</t>
+  </si>
+  <si>
+    <t>Website Verbesserungen +
+Aktualisierung</t>
+  </si>
+  <si>
+    <t>Marktanalyse zu MUDs</t>
+  </si>
+  <si>
+    <t>Zusammenfassung des 
+allgemeinen Aufbaus eines MUDs</t>
+  </si>
+  <si>
+    <t>In Rücksprache mit 
+Etienne Zink und Alfred Rustemi</t>
+  </si>
+  <si>
+    <t>Recherche zu Aufgabenblatt 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spielen des MUDs Morgengrauen </t>
   </si>
   <si>
     <t>CI/CD eigener Runner 
@@ -301,74 +386,23 @@
 Florian Albert und Leon Jerke</t>
   </si>
   <si>
-    <t>Recherche zu Aufgabenblatt 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spielen des MUDs Morgengrauen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektleiter-Meeting und Auswertung </t>
-  </si>
-  <si>
-    <t>Vorbereiten der Besprechungen</t>
-  </si>
-  <si>
-    <t>Zusammenfassung des 
-allgemeinen Aufbaus eines MUDs</t>
-  </si>
-  <si>
     <t>In Rücksprache mit 
 Daniel Kröker und Alfred Rustemi</t>
   </si>
   <si>
-    <t>Weekly-Review</t>
-  </si>
-  <si>
-    <t>Weekly-Retro</t>
-  </si>
-  <si>
-    <t>Spielen des MUDs Morgengrauen</t>
-  </si>
-  <si>
-    <t>Einarbeitung in Adobe XD</t>
-  </si>
-  <si>
-    <t>Überarbeitung der Zusammenfassung des 
-allgemeinen Aufbaus eines MUDs</t>
-  </si>
-  <si>
-    <t>In Rücksprache mit 
-Etienne Zink und Alfred Rustemi</t>
-  </si>
-  <si>
-    <t>Marktanalyse zu MUDs</t>
-  </si>
-  <si>
-    <t>Gesamtzeit</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>Zeiterfassung anpassen</t>
   </si>
   <si>
-    <t>Weekly-Planning</t>
-  </si>
-  <si>
-    <t>Erstellen des Rechercheberichts Teil 1</t>
-  </si>
-  <si>
-    <t>Erstellen des Rechercheberichts Teil 3</t>
-  </si>
-  <si>
-    <t>Einarbeitung in Blazor</t>
-  </si>
-  <si>
-    <t>Überarbeitung des Projektplans</t>
-  </si>
-  <si>
-    <t>Auf Kritik des Betreuers die Struktur überarbeitet</t>
+    <t>Erstellung UseCases</t>
+  </si>
+  <si>
+    <t>Kommunikation mit Morgengrauen-Mitarbeitern</t>
+  </si>
+  <si>
+    <t>Erstellen des Rechercheberichts</t>
+  </si>
+  <si>
+    <t>Planung und Verteilung der Aufgaben</t>
   </si>
 </sst>
 </file>
@@ -488,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1314,19 +1348,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -1335,13 +1356,71 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1597,7 +1676,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1608,9 +1686,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1633,7 +1724,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1932,164 +2023,164 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="81"/>
+    <col min="1" max="1" width="10.85546875" style="81"/>
     <col min="2" max="2" width="21" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="81"/>
+    <col min="3" max="3" width="12.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
     </row>
-    <row r="2" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82"/>
       <c r="B2" s="85" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="71"/>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="82"/>
       <c r="B3" s="86" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="C3" s="88"/>
       <c r="D3" s="71"/>
     </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82"/>
       <c r="B4" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="96">
-        <f>'Zeiterfassung KW 10'!J19+'Zeiterfassung KW 11'!J19</f>
-        <v>121.5</v>
-      </c>
-      <c r="D4" s="94"/>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="95">
+        <f>'Zeiterfassung KW 10'!J19+'Zeiterfassung KW 11'!J18</f>
+        <v>142.75</v>
+      </c>
+      <c r="D4" s="97"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82"/>
       <c r="B5" s="86" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="93"/>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="82"/>
       <c r="B6" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="96">
+        <v>2</v>
+      </c>
+      <c r="C6" s="95">
         <f>'Zeiterfassung KW 10'!G12+'Zeiterfassung KW 11'!G12</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" s="71"/>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
       <c r="B7" s="92" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="71"/>
       <c r="E7" s="91"/>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
       <c r="B8" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="96">
-        <f>'Zeiterfassung KW 10'!G20+'Zeiterfassung KW 11'!G22</f>
-        <v>20.5</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="95">
+        <f>'Zeiterfassung KW 10'!G20+'Zeiterfassung KW 11'!G29</f>
+        <v>25.75</v>
       </c>
       <c r="D8" s="71"/>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
       <c r="B9" s="92" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C9" s="87"/>
       <c r="D9" s="71"/>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82"/>
       <c r="B10" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="96">
-        <f>'Zeiterfassung KW 10'!G28+'Zeiterfassung KW 11'!G34</f>
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="C10" s="95">
+        <f>'Zeiterfassung KW 10'!G28+'Zeiterfassung KW 11'!G41</f>
+        <v>27</v>
       </c>
       <c r="D10" s="71"/>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
       <c r="B11" s="92" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C11" s="87"/>
       <c r="D11" s="71"/>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
       <c r="B12" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="96">
-        <f>'Zeiterfassung KW 10'!G35+'Zeiterfassung KW 11'!G42</f>
-        <v>13.25</v>
+        <v>2</v>
+      </c>
+      <c r="C12" s="95">
+        <f>'Zeiterfassung KW 10'!G35+'Zeiterfassung KW 11'!G51</f>
+        <v>21</v>
       </c>
       <c r="D12" s="71"/>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
       <c r="B13" s="92" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C13" s="87"/>
       <c r="D13" s="71"/>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
       <c r="B14" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="96">
-        <f>'Zeiterfassung KW 10'!G42+'Zeiterfassung KW 11'!G50</f>
-        <v>16.25</v>
+        <v>2</v>
+      </c>
+      <c r="C14" s="95">
+        <f>'Zeiterfassung KW 10'!G42+'Zeiterfassung KW 11'!G60</f>
+        <v>19</v>
       </c>
       <c r="D14" s="71"/>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
       <c r="B15" s="92" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C15" s="87"/>
       <c r="D15" s="71"/>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="82"/>
       <c r="B16" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="97">
-        <f>'Zeiterfassung KW 10'!G54+'Zeiterfassung KW 11'!G63</f>
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C16" s="96">
+        <f>'Zeiterfassung KW 10'!G54+'Zeiterfassung KW 11'!G75</f>
+        <v>27</v>
       </c>
       <c r="D16" s="71"/>
     </row>
-    <row r="17" spans="2:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
     </row>
@@ -2102,28 +2193,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA6D3C2-36A8-4C9E-84DA-E9F34B41C748}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="3"/>
-    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="30.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="3"/>
-    <col min="9" max="9" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="3"/>
-    <col min="12" max="13" width="11.5" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="3"/>
+    <col min="8" max="8" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="3"/>
+    <col min="12" max="13" width="11.42578125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55"/>
       <c r="B1" s="56"/>
       <c r="C1" s="1"/>
@@ -2135,10 +2226,10 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="57" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="6"/>
@@ -2147,15 +2238,15 @@
       <c r="G2" s="20"/>
       <c r="H2" s="44"/>
       <c r="I2" s="58" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="8"/>
@@ -2164,55 +2255,55 @@
       <c r="G3" s="17"/>
       <c r="H3" s="50"/>
       <c r="I3" s="47" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="51" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="65" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J4" s="67">
         <v>44266</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E5" s="35">
         <v>2.5</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G5" s="37">
         <f>E5</f>
@@ -2220,50 +2311,50 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="66" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J5" s="68">
         <v>44269</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E6" s="35">
         <v>1</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G6" s="37">
         <f t="shared" ref="G6:G12" si="0">G5+E6</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="33" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E7" s="35">
         <v>2</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G7" s="37">
         <f t="shared" si="0"/>
@@ -2271,22 +2362,22 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="33" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E8" s="35">
         <v>0.5</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G8" s="37">
         <f t="shared" si="0"/>
@@ -2294,27 +2385,27 @@
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="60" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="33" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E9" s="35">
         <v>5</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G9" s="37">
         <f t="shared" si="0"/>
@@ -2322,27 +2413,27 @@
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="59" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J9" s="53"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="33" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10" s="35">
         <v>2</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G10" s="37">
         <f t="shared" si="0"/>
@@ -2350,27 +2441,27 @@
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="47" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J10" s="48"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="33" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G11" s="37">
         <f t="shared" si="0"/>
@@ -2378,29 +2469,29 @@
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="65" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E12" s="35">
         <v>1</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G12" s="37">
         <f t="shared" si="0"/>
@@ -2408,17 +2499,17 @@
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="65" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="26" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C13" s="70"/>
       <c r="D13" s="69"/>
@@ -2427,58 +2518,58 @@
       <c r="G13" s="30"/>
       <c r="H13" s="45"/>
       <c r="I13" s="65" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="65" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E15" s="35">
         <v>2.5</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="37">
         <f>E15</f>
@@ -2486,29 +2577,29 @@
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="66" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J15" s="64" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E16" s="35">
         <v>1</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G16" s="37">
         <f>G15+E16</f>
@@ -2519,22 +2610,22 @@
       <c r="J16" s="46"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="33" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E17" s="35">
         <v>4</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G17" s="37">
         <f>G16+E17</f>
@@ -2542,27 +2633,27 @@
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="72" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J17" s="73"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="33" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E18" s="35">
         <v>2.5</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G18" s="37">
         <f>G17+E18</f>
@@ -2570,29 +2661,29 @@
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="74" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J18" s="75" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="33" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E19" s="35">
         <v>2</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G19" s="37">
         <f>G18+E19</f>
@@ -2600,30 +2691,30 @@
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="95">
+        <v>50</v>
+      </c>
+      <c r="J19" s="94">
         <f>SUM(G12,G20,G28,G35,G42,G54)</f>
         <v>70.5</v>
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E20" s="35">
         <v>1</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G20" s="37">
         <f>G19+E20</f>
@@ -2631,7 +2722,7 @@
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="77" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J20" s="78">
         <f>J19/6</f>
@@ -2639,10 +2730,10 @@
       </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="26" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
@@ -2651,46 +2742,46 @@
       <c r="G21" s="31"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="43"/>
       <c r="J22" s="43"/>
     </row>
-    <row r="23" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E23" s="35">
         <v>2.5</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G23" s="37">
         <f>E23</f>
@@ -2698,22 +2789,22 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E24" s="35">
         <v>1</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G24" s="37">
         <f>G23+E24</f>
@@ -2721,22 +2812,22 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E25" s="35">
         <v>9</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G25" s="37">
         <f>G24+E25</f>
@@ -2744,22 +2835,22 @@
       </c>
       <c r="H25" s="71"/>
     </row>
-    <row r="26" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E26" s="35">
         <v>1.5</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G26" s="37">
         <f>G25+E26</f>
@@ -2767,22 +2858,22 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E27" s="35">
         <v>1</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G27" s="37">
         <f>G26+E27</f>
@@ -2790,22 +2881,22 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E28" s="35">
         <v>1</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G28" s="37">
         <f>G27+E28</f>
@@ -2813,10 +2904,10 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="26" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
@@ -2825,44 +2916,44 @@
       <c r="G29" s="31"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E31" s="35">
         <v>2.5</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G31" s="37">
         <f>E31</f>
@@ -2870,22 +2961,22 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E32" s="35">
         <v>1</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G32" s="37">
         <f>G31+E32</f>
@@ -2893,22 +2984,22 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E33" s="35">
         <v>1.5</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G33" s="37">
         <f>G32+E33</f>
@@ -2916,22 +3007,22 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E34" s="35">
         <v>0.5</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G34" s="37">
         <f>G33+E34</f>
@@ -2939,22 +3030,22 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E35" s="35">
         <v>1</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G35" s="37">
         <f>G34+E35</f>
@@ -2962,10 +3053,10 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="26" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="28"/>
@@ -2974,44 +3065,44 @@
       <c r="G36" s="31"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E38" s="35">
         <v>2.5</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G38" s="37">
         <f>E38</f>
@@ -3019,22 +3110,22 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E39" s="35">
         <v>1</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G39" s="37">
         <f>G38+E39</f>
@@ -3042,73 +3133,73 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E40" s="35">
         <v>0.5</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G40" s="37">
         <f>E40+G39</f>
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E41" s="35">
         <v>3</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G41" s="37">
         <f>G40+E41</f>
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E42" s="35">
         <v>1</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G42" s="37">
         <f>G41+E42</f>
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="24" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -3116,167 +3207,167 @@
       <c r="F43" s="13"/>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E45" s="35">
         <v>2</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G45" s="39">
         <f>E45</f>
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E46" s="35">
         <v>0.5</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G46" s="39">
         <f t="shared" ref="G46:G51" si="1">G45+E46</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E47" s="35">
         <v>2</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G47" s="39">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E48" s="35">
         <v>2.5</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G48" s="37">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E49" s="35">
         <v>1</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G49" s="37">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E50" s="35">
         <v>1</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G50" s="37">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E51" s="35">
         <v>1</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G51" s="37">
         <f t="shared" si="1"/>
@@ -3284,21 +3375,21 @@
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E52" s="35">
         <v>1</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G52" s="37">
         <f t="shared" ref="G52" si="2">G51+E52</f>
@@ -3306,21 +3397,21 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E53" s="35">
         <v>0.5</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G53" s="37">
         <f t="shared" ref="G53" si="3">G52+E53</f>
@@ -3328,21 +3419,21 @@
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="2:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D54" s="41" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E54" s="41">
         <v>0.5</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G54" s="79">
         <f>G53+E54</f>
@@ -3350,7 +3441,7 @@
       </c>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="54"/>
       <c r="G55" s="43"/>
     </row>
@@ -3362,28 +3453,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B848FEB0-4874-6243-88B3-9661B8B22D34}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="3"/>
-    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="3"/>
-    <col min="9" max="9" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="3"/>
+    <col min="8" max="8" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55"/>
       <c r="B1" s="56"/>
       <c r="C1" s="1"/>
@@ -3395,10 +3486,10 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="57" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="6"/>
@@ -3407,15 +3498,15 @@
       <c r="G2" s="20"/>
       <c r="H2" s="44"/>
       <c r="I2" s="58" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="8"/>
@@ -3424,55 +3515,55 @@
       <c r="G3" s="17"/>
       <c r="H3" s="50"/>
       <c r="I3" s="47" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="51" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="65" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J4" s="67">
         <v>44270</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E5" s="35">
         <v>0.5</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G5" s="37">
         <f>E5</f>
@@ -3480,1334 +3571,1596 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="66" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J5" s="68">
         <v>44276</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E6" s="35">
         <v>0.25</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6" s="37">
-        <f t="shared" ref="G6:G12" si="0">G5+E6</f>
+        <f t="shared" ref="G6:G11" si="0">G5+E6</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E7" s="35">
         <v>0.75</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G7" s="37">
         <f>G6+E7</f>
         <v>1.5</v>
       </c>
+      <c r="I7" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="52"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E8" s="35">
         <v>0.75</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G8" s="37">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="H8" s="45"/>
-      <c r="I8" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="52"/>
+      <c r="I8" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="53"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E9" s="35">
         <v>1</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G9" s="37">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
       <c r="H9" s="45"/>
-      <c r="I9" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="53"/>
+      <c r="I9" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="9" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10" s="35">
         <v>0.75</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G10" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H10" s="45"/>
-      <c r="I10" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="48"/>
+      <c r="I10" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>38</v>
+      </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G11" s="37">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>40</v>
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>22</v>
+      <c r="B12" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G12" s="37">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>G11+E12</f>
+        <v>8</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>41</v>
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="98">
+        <v>1</v>
+      </c>
+      <c r="F13" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="99">
+        <f>G12+E13</f>
+        <v>9</v>
+      </c>
       <c r="H13" s="45"/>
       <c r="I13" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="98">
+        <v>2</v>
+      </c>
+      <c r="F14" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="101">
+        <f>G13+E14</f>
+        <v>11</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="37">
-        <f>E15</f>
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="37">
-        <f t="shared" ref="G16" si="1">G15+E16</f>
-        <v>0.75</v>
+      <c r="C16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
+      <c r="I16" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="73"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="37">
+        <f>E17</f>
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="37">
+        <f t="shared" ref="G18" si="1">G17+E18</f>
         <v>0.75</v>
       </c>
-      <c r="F17" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="37">
-        <f t="shared" ref="G17:G21" si="2">G16+E17</f>
+      <c r="H18" s="45"/>
+      <c r="I18" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="94">
+        <f>SUM(G12,G29,G41,G51,G60,G75)</f>
+        <v>72.25</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="37">
+        <f t="shared" ref="G19:G23" si="2">G18+E19</f>
         <v>1.5</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="73"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="35">
+      <c r="H19" s="45"/>
+      <c r="I19" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="78">
+        <f>J18/6</f>
+        <v>12.041666666666666</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="35">
         <v>3</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="37">
+      <c r="F20" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="37">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="35">
+      <c r="H20" s="45"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="35">
         <v>0.75</v>
       </c>
-      <c r="F19" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="37">
+      <c r="F21" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="37">
         <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="95">
-        <f>SUM(G12,G26,G34,G43,G51,G63)</f>
-        <v>51</v>
-      </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="35">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="35">
         <v>0.5</v>
       </c>
-      <c r="F20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="37">
+      <c r="F22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="37">
         <f t="shared" si="2"/>
         <v>5.75</v>
-      </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="78">
-        <f>J19/6</f>
-        <v>8.5</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="35">
-        <v>0.75</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="37">
-        <f t="shared" si="2"/>
-        <v>6.5</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="35">
-        <v>1</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="37">
-        <f>G21+E22</f>
-        <v>7.5</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="43"/>
       <c r="J22" s="43"/>
     </row>
-    <row r="23" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="9" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E23" s="35">
         <v>0.75</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G23" s="37">
-        <f>G22+E23</f>
-        <v>8.25</v>
+        <f t="shared" si="2"/>
+        <v>6.5</v>
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
-      <c r="B24" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>12</v>
+      <c r="B24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" s="35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G24" s="37">
-        <f t="shared" ref="G24" si="3">G23+E24</f>
-        <v>8.75</v>
+        <f>G23+E24</f>
+        <v>7.5</v>
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>12</v>
+      <c r="B25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E25" s="35">
-        <v>1.75</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>94</v>
+        <v>0.75</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="G25" s="37">
         <f>G24+E25</f>
-        <v>10.5</v>
+        <v>8.25</v>
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="33" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E26" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="37">
+        <f t="shared" ref="G26" si="3">G25+E26</f>
+        <v>9</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="35">
+        <v>1.75</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="37">
+        <f>G26+E27</f>
+        <v>10.75</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="35">
         <v>1</v>
       </c>
-      <c r="F26" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="37">
-        <f>G25+E26</f>
-        <v>11.5</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="71"/>
-    </row>
-    <row r="29" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="37">
+        <f>G27+E28</f>
+        <v>11.75</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="33" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E29" s="35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G29" s="37">
-        <f>E29</f>
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>G28+E29</f>
+        <v>12.75</v>
+      </c>
+      <c r="H29" s="71"/>
+    </row>
+    <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>12</v>
+      <c r="B30" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E30" s="35">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G30" s="37">
         <f>G29+E30</f>
-        <v>1.25</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>13.75</v>
+      </c>
+      <c r="H30" s="71"/>
+    </row>
+    <row r="31" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="38" t="s">
+      <c r="B31" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="35">
-        <v>1</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="37">
-        <f>G30+E31</f>
-        <v>2.25</v>
-      </c>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="35">
-        <v>3</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="37">
-        <f>G31+E32</f>
-        <v>5.25</v>
+      <c r="C32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>12</v>
+      <c r="B33" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E33" s="35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G33" s="37">
-        <f>G32+E33</f>
-        <v>6.25</v>
+        <f>E33</f>
+        <v>0.5</v>
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="9" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E34" s="35">
         <v>0.75</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G34" s="37">
-        <f>G33+E34</f>
-        <v>7</v>
+        <f t="shared" ref="G34:G38" si="4">G33+E34</f>
+        <v>1.25</v>
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="31"/>
+      <c r="B35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="37">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>9</v>
+      <c r="B36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="35">
+        <v>3</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="37">
+        <f t="shared" si="4"/>
+        <v>5.25</v>
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>12</v>
+    <row r="37" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E37" s="35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G37" s="37">
-        <f>E37</f>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>6.25</v>
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
       <c r="B38" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E38" s="35">
         <v>0.75</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G38" s="37">
-        <f t="shared" ref="G38:G43" si="4">G37+E38</f>
-        <v>1.25</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="9" t="s">
-        <v>80</v>
+    <row r="39" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E39" s="35">
         <v>1</v>
       </c>
-      <c r="F39" s="36" t="s">
-        <v>22</v>
-      </c>
+      <c r="F39" s="36"/>
       <c r="G39" s="37">
-        <f t="shared" si="4"/>
+        <f>G38+E39</f>
+        <v>8</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="35">
+        <v>2</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="37">
+        <f>G39+E40</f>
+        <v>10</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="35">
+        <v>1</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="37">
+        <f>G40+E41</f>
+        <v>11</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="37">
+        <f>E44</f>
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="37">
+        <f>G44+E45</f>
+        <v>1.25</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="35">
+        <v>1</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="37">
+        <f t="shared" ref="G46:G49" si="5">G45+E46</f>
         <v>2.25</v>
       </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="35">
-        <v>1</v>
-      </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37">
-        <f t="shared" si="4"/>
-        <v>3.25</v>
-      </c>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="35">
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="F47" s="36"/>
+      <c r="G47" s="37">
+        <f t="shared" si="5"/>
+        <v>5.75</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="35">
         <v>3</v>
       </c>
-      <c r="F41" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="37">
-        <f t="shared" si="4"/>
-        <v>6.25</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="37">
-        <f t="shared" si="4"/>
-        <v>6.75</v>
-      </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="35">
+      <c r="F48" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="37">
+        <f t="shared" si="5"/>
+        <v>8.75</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="35">
+        <v>4</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="37">
+        <f t="shared" si="5"/>
+        <v>12.75</v>
+      </c>
+      <c r="H49" s="71"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="35">
         <v>0.75</v>
       </c>
-      <c r="F43" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="37">
-        <f t="shared" si="4"/>
-        <v>7.5</v>
-      </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="31"/>
-    </row>
-    <row r="45" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="37">
-        <f>E46</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="35">
-        <v>4</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="37">
-        <f>G46+E47</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="35">
-        <v>2</v>
-      </c>
-      <c r="F48" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="37">
-        <f>G47+E48</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B49" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="35">
-        <v>0.75</v>
-      </c>
-      <c r="F49" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="37">
-        <f>G48+E49</f>
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="35">
-        <v>1</v>
-      </c>
       <c r="F50" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G50" s="37">
         <f>G49+E50</f>
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>12</v>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E51" s="35">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G51" s="37">
         <f>G50+E51</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="31"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C53" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="37">
+        <f>E54</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="35">
         <v>5</v>
       </c>
-      <c r="D53" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B54" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="35">
-        <v>3</v>
-      </c>
-      <c r="F54" s="35" t="s">
+      <c r="F55" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="37">
+        <f t="shared" ref="G55:G59" si="6">G54+E55</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="35">
+        <v>2</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="37">
+        <f t="shared" si="6"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G54" s="39">
-        <f>E54</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B55" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="37">
-        <f>E55+G54</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B56" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="35">
-        <v>2.5</v>
-      </c>
-      <c r="F56" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="39">
-        <f t="shared" ref="G56:G63" si="5">G55+E56</f>
-        <v>6</v>
-      </c>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="2:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="B57" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>12</v>
+      <c r="C57" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E57" s="35">
-        <v>3.25</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>78</v>
+        <v>0.75</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="G57" s="37">
-        <f t="shared" si="5"/>
-        <v>9.25</v>
-      </c>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E58" s="35">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G58" s="37">
         <f>G57+E58</f>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="37">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B59" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="35">
+    </row>
+    <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="35">
         <v>1</v>
       </c>
-      <c r="F59" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="37">
-        <f>G58+E59</f>
+      <c r="F60" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="37">
+        <f>G59+E60</f>
         <v>11</v>
       </c>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="F60" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="37">
-        <f t="shared" si="5"/>
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B61" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>12</v>
+    </row>
+    <row r="61" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E61" s="35">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G61" s="37">
         <f>G60+E61</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="37">
+        <f>G61+E62</f>
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B62" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="35">
-        <v>0</v>
-      </c>
-      <c r="F62" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="37">
-        <f t="shared" si="5"/>
+    <row r="63" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="35">
+        <v>3</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="37">
+        <f>G62+E63</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="22"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="41">
-        <v>0</v>
-      </c>
-      <c r="F63" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="79">
-        <f t="shared" si="5"/>
+      <c r="C65" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="35">
+        <v>3</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" s="39">
+        <f>E66</f>
+        <v>3</v>
+      </c>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="37">
+        <f>E67+G66</f>
+        <v>3.5</v>
+      </c>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="35">
+        <v>2</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="39">
+        <f t="shared" ref="G68:G74" si="7">G67+E68</f>
+        <v>5.5</v>
+      </c>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="2:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="B69" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="F69" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G69" s="37">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F70" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="37">
+        <f>G69+E70</f>
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="35">
+        <v>1</v>
+      </c>
+      <c r="F71" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="37">
+        <f>G70+E71</f>
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="37">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="54"/>
-      <c r="G64" s="43"/>
+    <row r="73" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F73" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" s="37">
+        <f>G72+E73</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="35">
+        <v>1.25</v>
+      </c>
+      <c r="F74" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" s="37">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="35">
+        <v>1</v>
+      </c>
+      <c r="F75" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" s="37">
+        <f>G74+E75</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="54"/>
+      <c r="G76" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4815,8 +5168,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010004611FF326026746BE7BA6B533563D7A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ddde083fade87a81319b386c6f8d132">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9261f3b7-eb37-44bc-ab49-41e0f5c5a530" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ea75941d7d06d8a9872c14092430a1f" ns2:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010004611FF326026746BE7BA6B533563D7A" ma:contentTypeVersion="7" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="68768b3a56787066a869a81186633cca">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9261f3b7-eb37-44bc-ab49-41e0f5c5a530" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ce60f8ec90a8895216d4d1414fc8ef8" ns2:_="">
     <xsd:import namespace="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -4888,8 +5250,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -4978,45 +5340,50 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32520FAE-0E29-4D1A-8EAB-8B2026F49E68}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCF450D-C3EB-4368-8E96-CCC92F1AC82B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F9D30A-50A2-408B-B3F0-EDB4CF8C0B75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B309BE4A-223A-4E57-BEB2-7B03E18DE29A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCF450D-C3EB-4368-8E96-CCC92F1AC82B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F9D30A-50A2-408B-B3F0-EDB4CF8C0B75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/website/src/documents/Privat/Apollon_Aufwandserfassung.xlsx
+++ b/website/src/documents/Privat/Apollon_Aufwandserfassung.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg.sharepoint.com/sites/o365grpSWE-Projekt/Freigegebene Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1153" documentId="13_ncr:1_{CF72DE10-053D-F84A-BF2F-97DB33227B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EE9C14F0-CFFC-4455-949E-49305DAD0940}"/>
+  <xr:revisionPtr revIDLastSave="1451" documentId="13_ncr:1_{CF72DE10-053D-F84A-BF2F-97DB33227B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{73BDBAAA-0D5C-4F0E-B3FB-38F55E3FA79D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="2" xr2:uid="{5DFA726E-B0C4-4500-AF96-5BC0FDCBA0B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5DFA726E-B0C4-4500-AF96-5BC0FDCBA0B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
     <sheet name="Zeiterfassung KW 10" sheetId="1" r:id="rId2"/>
     <sheet name="Zeiterfassung KW 11" sheetId="2" r:id="rId3"/>
+    <sheet name="Zeiterfassung KW 12" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -58,6 +59,9 @@
     </r>
   </si>
   <si>
+    <t>3. Woche</t>
+  </si>
+  <si>
     <t>Team</t>
   </si>
   <si>
@@ -378,6 +382,15 @@
     <t xml:space="preserve">Spielen des MUDs Morgengrauen </t>
   </si>
   <si>
+    <t>Kommunikation mit Morgengrauen-Mitarbeitern</t>
+  </si>
+  <si>
+    <t>Erstellen des Rechercheberichts</t>
+  </si>
+  <si>
+    <t>Planung und Verteilung der Aufgaben</t>
+  </si>
+  <si>
     <t>CI/CD eigener Runner 
 erstellen und Server Wartung hierfür</t>
   </si>
@@ -396,13 +409,68 @@
     <t>Erstellung UseCases</t>
   </si>
   <si>
-    <t>Kommunikation mit Morgengrauen-Mitarbeitern</t>
-  </si>
-  <si>
-    <t>Erstellen des Rechercheberichts</t>
-  </si>
-  <si>
-    <t>Planung und Verteilung der Aufgaben</t>
+    <t>Besprechung der ersten Lastenheftversion</t>
+  </si>
+  <si>
+    <t>Besprechung mit Kunde</t>
+  </si>
+  <si>
+    <t>Weekly Besprechung mit Kunde</t>
+  </si>
+  <si>
+    <t>Weekly Projektlieter Meeting</t>
+  </si>
+  <si>
+    <t>Allgemeines Organisatorisches</t>
+  </si>
+  <si>
+    <t>Verbessern des Rechercheberichts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Übernommen von Daniel </t>
+  </si>
+  <si>
+    <t>Verbessern des Lastenhefts</t>
+  </si>
+  <si>
+    <t>Arbeit am Prototyp</t>
+  </si>
+  <si>
+    <t>Anpassungen + Überarbeitungen an Dokumenten</t>
+  </si>
+  <si>
+    <t>Ergänzungen + Überprüfung des Lastenhefts</t>
+  </si>
+  <si>
+    <t>Erstellen der Designbeschreibung</t>
+  </si>
+  <si>
+    <t>Lastenheft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korrekturen/Verbesserungen </t>
+  </si>
+  <si>
+    <t>Erster Ansatz Prototyp Core</t>
+  </si>
+  <si>
+    <t>Programmierung Prototyp</t>
+  </si>
+  <si>
+    <t>Rücksprache zwecke Prototyp</t>
+  </si>
+  <si>
+    <t>Einrichten des Prototyps auf Server</t>
+  </si>
+  <si>
+    <t>Designbeschreibung</t>
+  </si>
+  <si>
+    <t>Server einrichten</t>
+  </si>
+  <si>
+    <t>In Zusammenarbeit mit 
+Florian Albert</t>
   </si>
 </sst>
 </file>
@@ -522,7 +590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -1375,7 +1443,288 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3FB3DA"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3FB3DA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3FB3DA"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3FB3DA"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBDBDBD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBDBDBD"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBDBDBD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBDBDBD"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBDBDBD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBDBDBD"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBDBDBD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1389,11 +1738,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1408,7 +1757,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1416,11 +1765,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1646,9 +2010,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
@@ -1693,10 +2054,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2023,166 +2472,168 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="81"/>
-    <col min="2" max="2" width="21" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="81"/>
+    <col min="1" max="1" width="10.85546875" style="80"/>
+    <col min="2" max="2" width="21" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
     </row>
     <row r="2" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="85" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="49" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="71"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="88"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="87"/>
       <c r="D3" s="71"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="95">
-        <f>'Zeiterfassung KW 10'!J19+'Zeiterfassung KW 11'!J18</f>
-        <v>142.75</v>
-      </c>
-      <c r="D4" s="97"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="94">
+        <f>'Zeiterfassung KW 10'!J19+'Zeiterfassung KW 11'!J18+'Zeiterfassung KW 12'!J18</f>
+        <v>292</v>
+      </c>
+      <c r="D4" s="96"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="86" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="92"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="81"/>
+      <c r="B6" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="93"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="95">
-        <f>'Zeiterfassung KW 10'!G12+'Zeiterfassung KW 11'!G12</f>
-        <v>23</v>
+      <c r="C6" s="94">
+        <f>'Zeiterfassung KW 10'!G12+'Zeiterfassung KW 11'!G14+'Zeiterfassung KW 12'!G11</f>
+        <v>55</v>
       </c>
       <c r="D6" s="71"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="87"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="86"/>
       <c r="D7" s="71"/>
-      <c r="E7" s="91"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="95">
-        <f>'Zeiterfassung KW 10'!G20+'Zeiterfassung KW 11'!G29</f>
-        <v>25.75</v>
+      <c r="A8" s="81"/>
+      <c r="B8" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="94">
+        <f>'Zeiterfassung KW 10'!G20+'Zeiterfassung KW 11'!G30+'Zeiterfassung KW 12'!G23</f>
+        <v>54.5</v>
       </c>
       <c r="D8" s="71"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="87"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="86"/>
       <c r="D9" s="71"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="95">
-        <f>'Zeiterfassung KW 10'!G28+'Zeiterfassung KW 11'!G41</f>
-        <v>27</v>
+      <c r="A10" s="81"/>
+      <c r="B10" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="94">
+        <f>'Zeiterfassung KW 10'!G28+'Zeiterfassung KW 11'!G41+'Zeiterfassung KW 12'!G30</f>
+        <v>50.5</v>
       </c>
       <c r="D10" s="71"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="87"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="86"/>
       <c r="D11" s="71"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="95">
-        <f>'Zeiterfassung KW 10'!G35+'Zeiterfassung KW 11'!G51</f>
-        <v>21</v>
+      <c r="A12" s="81"/>
+      <c r="B12" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="94">
+        <f>'Zeiterfassung KW 10'!G35+'Zeiterfassung KW 11'!G51+'Zeiterfassung KW 12'!G39</f>
+        <v>34.5</v>
       </c>
       <c r="D12" s="71"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="87"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="86"/>
       <c r="D13" s="71"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="95">
-        <f>'Zeiterfassung KW 10'!G42+'Zeiterfassung KW 11'!G60</f>
-        <v>19</v>
+      <c r="A14" s="81"/>
+      <c r="B14" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="94">
+        <f>'Zeiterfassung KW 10'!G42+'Zeiterfassung KW 11'!G63+'Zeiterfassung KW 12'!G48</f>
+        <v>36.5</v>
       </c>
       <c r="D14" s="71"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="87"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="86"/>
       <c r="D15" s="71"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="96">
-        <f>'Zeiterfassung KW 10'!G54+'Zeiterfassung KW 11'!G75</f>
-        <v>27</v>
+      <c r="A16" s="81"/>
+      <c r="B16" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="95">
+        <f>'Zeiterfassung KW 10'!G54+'Zeiterfassung KW 11'!G75+'Zeiterfassung KW 12'!G60</f>
+        <v>61</v>
       </c>
       <c r="D16" s="71"/>
     </row>
     <row r="17" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2194,7 +2645,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2229,7 +2680,7 @@
     <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="6"/>
@@ -2238,7 +2689,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="44"/>
       <c r="I2" s="58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="2"/>
@@ -2246,7 +2697,7 @@
     <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="8"/>
@@ -2255,7 +2706,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="50"/>
       <c r="I3" s="47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
@@ -2263,26 +2714,26 @@
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="67">
         <v>44266</v>
@@ -2291,19 +2742,19 @@
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="35">
         <v>2.5</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="37">
         <f>E5</f>
@@ -2311,7 +2762,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="68">
         <v>44269</v>
@@ -2320,19 +2771,19 @@
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="35">
         <v>1</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="37">
         <f t="shared" ref="G6:G12" si="0">G5+E6</f>
@@ -2342,19 +2793,19 @@
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="35">
         <v>2</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="37">
         <f t="shared" si="0"/>
@@ -2365,19 +2816,19 @@
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="35">
         <v>0.5</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="37">
         <f t="shared" si="0"/>
@@ -2385,7 +2836,7 @@
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
@@ -2393,19 +2844,19 @@
     <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="35">
         <v>5</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" s="37">
         <f t="shared" si="0"/>
@@ -2413,7 +2864,7 @@
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9" s="53"/>
       <c r="K9" s="2"/>
@@ -2421,19 +2872,19 @@
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="35">
         <v>2</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="37">
         <f t="shared" si="0"/>
@@ -2441,7 +2892,7 @@
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J10" s="48"/>
       <c r="K10" s="2"/>
@@ -2449,19 +2900,19 @@
     <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="37">
         <f t="shared" si="0"/>
@@ -2469,29 +2920,29 @@
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="35">
         <v>1</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" s="37">
         <f t="shared" si="0"/>
@@ -2499,17 +2950,17 @@
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="70"/>
       <c r="D13" s="69"/>
@@ -2518,58 +2969,58 @@
       <c r="G13" s="30"/>
       <c r="H13" s="45"/>
       <c r="I13" s="65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="35">
         <v>2.5</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="37">
         <f>E15</f>
@@ -2577,29 +3028,29 @@
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J15" s="64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="35">
         <v>1</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16" s="37">
         <f>G15+E16</f>
@@ -2613,19 +3064,19 @@
     <row r="17" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="35">
         <v>4</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" s="37">
         <f>G16+E17</f>
@@ -2641,19 +3092,19 @@
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="35">
         <v>2.5</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" s="37">
         <f>G17+E18</f>
@@ -2661,29 +3112,29 @@
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18" s="75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="35">
         <v>2</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" s="37">
         <f>G18+E19</f>
@@ -2691,9 +3142,9 @@
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="94">
+        <v>51</v>
+      </c>
+      <c r="J19" s="93">
         <f>SUM(G12,G20,G28,G35,G42,G54)</f>
         <v>70.5</v>
       </c>
@@ -2702,19 +3153,19 @@
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="35">
         <v>1</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" s="37">
         <f>G19+E20</f>
@@ -2722,7 +3173,7 @@
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J20" s="78">
         <f>J19/6</f>
@@ -2733,7 +3184,7 @@
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
@@ -2745,22 +3196,22 @@
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="43"/>
@@ -2769,19 +3220,19 @@
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="35">
         <v>2.5</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" s="37">
         <f>E23</f>
@@ -2792,19 +3243,19 @@
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="35">
         <v>1</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24" s="37">
         <f>G23+E24</f>
@@ -2815,19 +3266,19 @@
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="35">
         <v>9</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25" s="37">
         <f>G24+E25</f>
@@ -2838,19 +3289,19 @@
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="35">
         <v>1.5</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" s="37">
         <f>G25+E26</f>
@@ -2861,19 +3312,19 @@
     <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="35">
         <v>1</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G27" s="37">
         <f>G26+E27</f>
@@ -2884,19 +3335,19 @@
     <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" s="35">
         <v>1</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G28" s="37">
         <f>G27+E28</f>
@@ -2907,7 +3358,7 @@
     <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
@@ -2919,41 +3370,41 @@
     <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" s="35">
         <v>2.5</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G31" s="37">
         <f>E31</f>
@@ -2964,19 +3415,19 @@
     <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" s="35">
         <v>1</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G32" s="37">
         <f>G31+E32</f>
@@ -2987,19 +3438,19 @@
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" s="35">
         <v>1.5</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" s="37">
         <f>G32+E33</f>
@@ -3010,19 +3461,19 @@
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E34" s="35">
         <v>0.5</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G34" s="37">
         <f>G33+E34</f>
@@ -3033,19 +3484,19 @@
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" s="35">
         <v>1</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G35" s="37">
         <f>G34+E35</f>
@@ -3056,7 +3507,7 @@
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="28"/>
@@ -3068,41 +3519,41 @@
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E38" s="35">
         <v>2.5</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G38" s="37">
         <f>E38</f>
@@ -3113,19 +3564,19 @@
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" s="35">
         <v>1</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G39" s="37">
         <f>G38+E39</f>
@@ -3136,19 +3587,19 @@
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E40" s="35">
         <v>0.5</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G40" s="37">
         <f>E40+G39</f>
@@ -3157,19 +3608,19 @@
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E41" s="35">
         <v>3</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" s="37">
         <f>G40+E41</f>
@@ -3178,19 +3629,19 @@
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E42" s="35">
         <v>1</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G42" s="37">
         <f>G41+E42</f>
@@ -3199,7 +3650,7 @@
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -3209,39 +3660,39 @@
     </row>
     <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E45" s="35">
         <v>2</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" s="39">
         <f>E45</f>
@@ -3250,19 +3701,19 @@
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E46" s="35">
         <v>0.5</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" s="39">
         <f t="shared" ref="G46:G51" si="1">G45+E46</f>
@@ -3271,19 +3722,19 @@
     </row>
     <row r="47" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E47" s="35">
         <v>2</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G47" s="39">
         <f t="shared" si="1"/>
@@ -3292,19 +3743,19 @@
     </row>
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E48" s="35">
         <v>2.5</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G48" s="37">
         <f t="shared" si="1"/>
@@ -3313,19 +3764,19 @@
     </row>
     <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E49" s="35">
         <v>1</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G49" s="37">
         <f t="shared" si="1"/>
@@ -3334,19 +3785,19 @@
     </row>
     <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50" s="35">
         <v>1</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" s="37">
         <f t="shared" si="1"/>
@@ -3355,19 +3806,19 @@
     </row>
     <row r="51" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E51" s="35">
         <v>1</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G51" s="37">
         <f t="shared" si="1"/>
@@ -3377,19 +3828,19 @@
     </row>
     <row r="52" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E52" s="35">
         <v>1</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G52" s="37">
         <f t="shared" ref="G52" si="2">G51+E52</f>
@@ -3399,19 +3850,19 @@
     </row>
     <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E53" s="35">
         <v>0.5</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G53" s="37">
         <f t="shared" ref="G53" si="3">G52+E53</f>
@@ -3421,19 +3872,19 @@
     </row>
     <row r="54" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D54" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E54" s="41">
         <v>0.5</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G54" s="79">
         <f>G53+E54</f>
@@ -3455,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B848FEB0-4874-6243-88B3-9661B8B22D34}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3476,73 +3927,73 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
       <c r="H1" s="2"/>
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="44"/>
       <c r="I2" s="58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="23" t="s">
-        <v>3</v>
+      <c r="B3" s="107" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="50"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="51" t="s">
-        <v>12</v>
+      <c r="B4" s="109" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="21" t="s">
         <v>17</v>
+      </c>
+      <c r="G4" s="110" t="s">
+        <v>18</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="67">
         <v>44270</v>
@@ -3550,322 +4001,324 @@
     </row>
     <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="33" t="s">
-        <v>68</v>
+      <c r="B5" s="111" t="s">
+        <v>69</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="35">
         <v>0.5</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="37">
+        <v>31</v>
+      </c>
+      <c r="G5" s="112">
         <f>E5</f>
         <v>0.5</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="68">
         <v>44276</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="9" t="s">
-        <v>69</v>
+      <c r="B6" s="113" t="s">
+        <v>70</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="35">
         <v>0.25</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="37">
+        <v>71</v>
+      </c>
+      <c r="G6" s="112">
         <f t="shared" ref="G6:G11" si="0">G5+E6</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="33" t="s">
-        <v>71</v>
+      <c r="B7" s="111" t="s">
+        <v>72</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="35">
         <v>0.75</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="37">
+        <v>31</v>
+      </c>
+      <c r="G7" s="112">
         <f>G6+E7</f>
         <v>1.5</v>
       </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" s="52"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="9" t="s">
-        <v>72</v>
+      <c r="B8" s="113" t="s">
+        <v>73</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="35">
         <v>0.75</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="37">
+        <v>31</v>
+      </c>
+      <c r="G8" s="112">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="9" t="s">
-        <v>73</v>
+      <c r="B9" s="113" t="s">
+        <v>74</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="35">
         <v>1</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="37">
+        <v>31</v>
+      </c>
+      <c r="G9" s="112">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="9" t="s">
-        <v>74</v>
+      <c r="B10" s="113" t="s">
+        <v>75</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="35">
         <v>0.75</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="37">
+        <v>31</v>
+      </c>
+      <c r="G10" s="112">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" s="61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="9" t="s">
-        <v>75</v>
+      <c r="B11" s="113" t="s">
+        <v>76</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="35">
         <v>3</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="37">
+        <v>31</v>
+      </c>
+      <c r="G11" s="112">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="33" t="s">
-        <v>76</v>
+      <c r="B12" s="111" t="s">
+        <v>77</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="35">
         <v>1</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="37">
+        <v>31</v>
+      </c>
+      <c r="G12" s="112">
         <f>G11+E12</f>
         <v>8</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="98">
+      <c r="B13" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="97">
         <v>1</v>
       </c>
-      <c r="F13" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="99">
+      <c r="F13" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="128">
         <f>G12+E13</f>
         <v>9</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J13" s="61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="98">
+      <c r="B14" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="97">
         <v>2</v>
       </c>
-      <c r="F14" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="101">
+      <c r="F14" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="129">
         <f>G13+E14</f>
         <v>11</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="26" t="s">
-        <v>4</v>
+      <c r="B15" s="114" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="70"/>
       <c r="D15" s="69"/>
       <c r="E15" s="69"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="G15" s="115"/>
       <c r="H15" s="45"/>
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="15" t="s">
-        <v>12</v>
+      <c r="B16" s="116" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="21" t="s">
         <v>17</v>
+      </c>
+      <c r="G16" s="110" t="s">
+        <v>18</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="72" t="s">
@@ -3874,163 +4327,163 @@
       <c r="J16" s="73"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="33" t="s">
-        <v>68</v>
+      <c r="B17" s="111" t="s">
+        <v>69</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="35">
         <v>0.5</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="37">
+        <v>31</v>
+      </c>
+      <c r="G17" s="112">
         <f>E17</f>
         <v>0.5</v>
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J17" s="75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
-        <v>69</v>
+      <c r="B18" s="113" t="s">
+        <v>70</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="35">
         <v>0.25</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="37">
+        <v>81</v>
+      </c>
+      <c r="G18" s="112">
         <f t="shared" ref="G18" si="1">G17+E18</f>
         <v>0.75</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="94">
-        <f>SUM(G12,G29,G41,G51,G60,G75)</f>
-        <v>72.25</v>
+        <v>51</v>
+      </c>
+      <c r="J18" s="93">
+        <f>SUM(G14,G30,G41,G51,G63,G75)</f>
+        <v>80.25</v>
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="33" t="s">
-        <v>81</v>
+      <c r="B19" s="111" t="s">
+        <v>82</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="35">
         <v>0.75</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="37">
+        <v>31</v>
+      </c>
+      <c r="G19" s="112">
         <f t="shared" ref="G19:G23" si="2">G18+E19</f>
         <v>1.5</v>
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J19" s="78">
         <f>J18/6</f>
-        <v>12.041666666666666</v>
+        <v>13.375</v>
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="33" t="s">
-        <v>82</v>
+      <c r="B20" s="111" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="35">
         <v>3</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="37">
+        <v>31</v>
+      </c>
+      <c r="G20" s="112">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="H20" s="45"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="33" t="s">
-        <v>71</v>
+      <c r="B21" s="111" t="s">
+        <v>72</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="35">
         <v>0.75</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="37">
+        <v>31</v>
+      </c>
+      <c r="G21" s="112">
         <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
-      <c r="B22" s="9" t="s">
-        <v>83</v>
+      <c r="B22" s="113" t="s">
+        <v>84</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="35">
         <v>0.5</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="37">
+        <v>31</v>
+      </c>
+      <c r="G22" s="112">
         <f t="shared" si="2"/>
         <v>5.75</v>
       </c>
@@ -4040,22 +4493,22 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="9" t="s">
-        <v>72</v>
+      <c r="B23" s="113" t="s">
+        <v>73</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="35">
         <v>0.75</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="37">
+        <v>31</v>
+      </c>
+      <c r="G23" s="112">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
@@ -4063,22 +4516,22 @@
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
-      <c r="B24" s="9" t="s">
-        <v>73</v>
+      <c r="B24" s="113" t="s">
+        <v>74</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="35">
         <v>1</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37">
+        <v>31</v>
+      </c>
+      <c r="G24" s="112">
         <f>G23+E24</f>
         <v>7.5</v>
       </c>
@@ -4086,45 +4539,45 @@
     </row>
     <row r="25" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="9" t="s">
-        <v>74</v>
+      <c r="B25" s="113" t="s">
+        <v>75</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="35">
         <v>0.75</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="37">
+        <v>31</v>
+      </c>
+      <c r="G25" s="112">
         <f>G24+E25</f>
         <v>8.25</v>
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="33" t="s">
-        <v>84</v>
+      <c r="B26" s="111" t="s">
+        <v>85</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" s="35">
         <v>0.75</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="37">
+        <v>31</v>
+      </c>
+      <c r="G26" s="112">
         <f t="shared" ref="G26" si="3">G25+E26</f>
         <v>9</v>
       </c>
@@ -4132,22 +4585,22 @@
     </row>
     <row r="27" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="33" t="s">
-        <v>85</v>
+      <c r="B27" s="111" t="s">
+        <v>86</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="35">
         <v>1.75</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="37">
+        <v>87</v>
+      </c>
+      <c r="G27" s="112">
         <f>G26+E27</f>
         <v>10.75</v>
       </c>
@@ -4155,22 +4608,22 @@
     </row>
     <row r="28" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="33" t="s">
-        <v>87</v>
+      <c r="B28" s="111" t="s">
+        <v>88</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" s="35">
         <v>1</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="37">
+        <v>31</v>
+      </c>
+      <c r="G28" s="112">
         <f>G27+E28</f>
         <v>11.75</v>
       </c>
@@ -4178,45 +4631,45 @@
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="33" t="s">
-        <v>76</v>
+      <c r="B29" s="111" t="s">
+        <v>77</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29" s="35">
         <v>1</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="37">
+        <v>31</v>
+      </c>
+      <c r="G29" s="112">
         <f>G28+E29</f>
         <v>12.75</v>
       </c>
       <c r="H29" s="71"/>
     </row>
-    <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="33" t="s">
-        <v>88</v>
+      <c r="B30" s="111" t="s">
+        <v>89</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" s="35">
         <v>1</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="37">
+        <v>31</v>
+      </c>
+      <c r="G30" s="112">
         <f>G29+E30</f>
         <v>13.75</v>
       </c>
@@ -4224,56 +4677,56 @@
     </row>
     <row r="31" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="26" t="s">
-        <v>5</v>
+      <c r="B31" s="114" t="s">
+        <v>6</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="31"/>
+      <c r="G31" s="117"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="15" t="s">
-        <v>12</v>
+      <c r="B32" s="116" t="s">
+        <v>13</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="21" t="s">
         <v>17</v>
+      </c>
+      <c r="G32" s="110" t="s">
+        <v>18</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="33" t="s">
-        <v>68</v>
+      <c r="B33" s="111" t="s">
+        <v>69</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" s="35">
         <v>0.5</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="37">
+        <v>31</v>
+      </c>
+      <c r="G33" s="112">
         <f>E33</f>
         <v>0.5</v>
       </c>
@@ -4281,22 +4734,22 @@
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
-      <c r="B34" s="9" t="s">
-        <v>72</v>
+      <c r="B34" s="113" t="s">
+        <v>73</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E34" s="35">
         <v>0.75</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="37">
+        <v>31</v>
+      </c>
+      <c r="G34" s="112">
         <f t="shared" ref="G34:G38" si="4">G33+E34</f>
         <v>1.25</v>
       </c>
@@ -4304,22 +4757,22 @@
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="9" t="s">
-        <v>73</v>
+      <c r="B35" s="113" t="s">
+        <v>74</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" s="35">
         <v>1</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="37">
+        <v>31</v>
+      </c>
+      <c r="G35" s="112">
         <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
@@ -4327,22 +4780,22 @@
     </row>
     <row r="36" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="9" t="s">
-        <v>89</v>
+      <c r="B36" s="113" t="s">
+        <v>90</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36" s="35">
         <v>3</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="37">
+        <v>31</v>
+      </c>
+      <c r="G36" s="112">
         <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
@@ -4350,22 +4803,22 @@
     </row>
     <row r="37" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
-      <c r="B37" s="9" t="s">
-        <v>90</v>
+      <c r="B37" s="113" t="s">
+        <v>91</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" s="35">
         <v>1</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="37">
+        <v>31</v>
+      </c>
+      <c r="G37" s="112">
         <f t="shared" si="4"/>
         <v>6.25</v>
       </c>
@@ -4373,22 +4826,22 @@
     </row>
     <row r="38" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="9" t="s">
-        <v>74</v>
+      <c r="B38" s="113" t="s">
+        <v>75</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E38" s="35">
         <v>0.75</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="37">
+        <v>31</v>
+      </c>
+      <c r="G38" s="112">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -4396,20 +4849,20 @@
     </row>
     <row r="39" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
-      <c r="B39" s="33" t="s">
-        <v>91</v>
+      <c r="B39" s="111" t="s">
+        <v>92</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" s="35">
         <v>1</v>
       </c>
       <c r="F39" s="36"/>
-      <c r="G39" s="37">
+      <c r="G39" s="112">
         <f>G38+E39</f>
         <v>8</v>
       </c>
@@ -4417,22 +4870,22 @@
     </row>
     <row r="40" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="33" t="s">
-        <v>92</v>
+      <c r="B40" s="111" t="s">
+        <v>93</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E40" s="35">
         <v>2</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="37">
+        <v>31</v>
+      </c>
+      <c r="G40" s="112">
         <f>G39+E40</f>
         <v>10</v>
       </c>
@@ -4440,22 +4893,22 @@
     </row>
     <row r="41" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="33" t="s">
-        <v>76</v>
+      <c r="B41" s="111" t="s">
+        <v>77</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E41" s="35">
         <v>1</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="37">
+        <v>31</v>
+      </c>
+      <c r="G41" s="112">
         <f>G40+E41</f>
         <v>11</v>
       </c>
@@ -4463,56 +4916,56 @@
     </row>
     <row r="42" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
-      <c r="B42" s="26" t="s">
-        <v>6</v>
+      <c r="B42" s="114" t="s">
+        <v>7</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="F42" s="25"/>
-      <c r="G42" s="31"/>
+      <c r="G42" s="117"/>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="15" t="s">
-        <v>12</v>
+      <c r="B43" s="116" t="s">
+        <v>13</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="21" t="s">
         <v>17</v>
+      </c>
+      <c r="G43" s="110" t="s">
+        <v>18</v>
       </c>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="33" t="s">
-        <v>68</v>
+      <c r="B44" s="111" t="s">
+        <v>69</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E44" s="35">
         <v>0.5</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="37">
+        <v>31</v>
+      </c>
+      <c r="G44" s="112">
         <f>E44</f>
         <v>0.5</v>
       </c>
@@ -4520,22 +4973,22 @@
     </row>
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
-      <c r="B45" s="9" t="s">
-        <v>72</v>
+      <c r="B45" s="113" t="s">
+        <v>73</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E45" s="35">
         <v>0.75</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" s="37">
+        <v>31</v>
+      </c>
+      <c r="G45" s="112">
         <f>G44+E45</f>
         <v>1.25</v>
       </c>
@@ -4543,22 +4996,22 @@
     </row>
     <row r="46" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="9" t="s">
-        <v>73</v>
+      <c r="B46" s="113" t="s">
+        <v>74</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E46" s="35">
         <v>1</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" s="37">
+        <v>31</v>
+      </c>
+      <c r="G46" s="112">
         <f t="shared" ref="G46:G49" si="5">G45+E46</f>
         <v>2.25</v>
       </c>
@@ -4566,20 +5019,20 @@
     </row>
     <row r="47" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
-      <c r="B47" s="9" t="s">
-        <v>93</v>
+      <c r="B47" s="113" t="s">
+        <v>94</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E47" s="35">
         <v>3.5</v>
       </c>
       <c r="F47" s="36"/>
-      <c r="G47" s="37">
+      <c r="G47" s="112">
         <f t="shared" si="5"/>
         <v>5.75</v>
       </c>
@@ -4587,22 +5040,22 @@
     </row>
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="9" t="s">
-        <v>90</v>
+      <c r="B48" s="113" t="s">
+        <v>91</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E48" s="35">
         <v>3</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" s="37">
+        <v>31</v>
+      </c>
+      <c r="G48" s="112">
         <f t="shared" si="5"/>
         <v>8.75</v>
       </c>
@@ -4610,558 +5063,2107 @@
     </row>
     <row r="49" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
-      <c r="B49" s="80" t="s">
-        <v>94</v>
+      <c r="B49" s="121" t="s">
+        <v>95</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E49" s="35">
         <v>4</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="37">
+        <v>96</v>
+      </c>
+      <c r="G49" s="112">
         <f t="shared" si="5"/>
         <v>12.75</v>
       </c>
       <c r="H49" s="71"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="9" t="s">
-        <v>74</v>
+      <c r="A50" s="98"/>
+      <c r="B50" s="113" t="s">
+        <v>75</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50" s="35">
         <v>0.75</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="37">
+        <v>31</v>
+      </c>
+      <c r="G50" s="112">
         <f>G49+E50</f>
         <v>13.5</v>
       </c>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="33" t="s">
-        <v>76</v>
+      <c r="A51" s="99"/>
+      <c r="B51" s="111" t="s">
+        <v>77</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E51" s="35">
         <v>1</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" s="37">
+        <v>31</v>
+      </c>
+      <c r="G51" s="112">
         <f>G50+E51</f>
         <v>14.5</v>
       </c>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="26" t="s">
-        <v>7</v>
+      <c r="A52" s="99"/>
+      <c r="B52" s="114" t="s">
+        <v>8</v>
       </c>
       <c r="C52" s="27"/>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
       <c r="F52" s="25"/>
-      <c r="G52" s="31"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
-        <v>12</v>
+      <c r="A53" s="99"/>
+      <c r="B53" s="116" t="s">
+        <v>13</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="21" t="s">
         <v>17</v>
       </c>
+      <c r="G53" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="33" t="s">
-        <v>68</v>
+      <c r="A54" s="99"/>
+      <c r="B54" s="111" t="s">
+        <v>69</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E54" s="35">
         <v>0.5</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" s="37">
+        <v>31</v>
+      </c>
+      <c r="G54" s="112">
         <f>E54</f>
         <v>0.5</v>
       </c>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
-        <v>96</v>
+      <c r="A55" s="99"/>
+      <c r="B55" s="113" t="s">
+        <v>97</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E55" s="35">
         <v>5</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" s="37">
+        <v>31</v>
+      </c>
+      <c r="G55" s="112">
         <f t="shared" ref="G55:G59" si="6">G54+E55</f>
         <v>5.5</v>
       </c>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
-        <v>97</v>
+      <c r="A56" s="99"/>
+      <c r="B56" s="113" t="s">
+        <v>98</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E56" s="35">
         <v>2</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" s="37">
+        <v>31</v>
+      </c>
+      <c r="G56" s="112">
         <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
-        <v>72</v>
+      <c r="A57" s="99"/>
+      <c r="B57" s="113" t="s">
+        <v>73</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E57" s="35">
         <v>0.75</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" s="37">
+        <v>31</v>
+      </c>
+      <c r="G57" s="112">
         <f t="shared" si="6"/>
         <v>8.25</v>
       </c>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
-        <v>73</v>
+      <c r="A58" s="99"/>
+      <c r="B58" s="113" t="s">
+        <v>74</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E58" s="35">
         <v>1</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" s="37">
+        <v>31</v>
+      </c>
+      <c r="G58" s="112">
         <f>G57+E58</f>
         <v>9.25</v>
       </c>
+      <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="9" t="s">
-        <v>74</v>
+      <c r="A59" s="99"/>
+      <c r="B59" s="113" t="s">
+        <v>75</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E59" s="35">
         <v>0.75</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" s="37">
+        <v>31</v>
+      </c>
+      <c r="G59" s="112">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="33" t="s">
-        <v>76</v>
+      <c r="A60" s="99"/>
+      <c r="B60" s="111" t="s">
+        <v>77</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E60" s="35">
         <v>1</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="37">
+        <v>31</v>
+      </c>
+      <c r="G60" s="112">
         <f>G59+E60</f>
         <v>11</v>
       </c>
+      <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="33" t="s">
-        <v>103</v>
+      <c r="A61" s="99"/>
+      <c r="B61" s="111" t="s">
+        <v>99</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E61" s="35">
         <v>0.5</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" s="37">
+        <v>31</v>
+      </c>
+      <c r="G61" s="112">
         <f>G60+E61</f>
         <v>11.5</v>
       </c>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="33" t="s">
-        <v>104</v>
+      <c r="A62" s="99"/>
+      <c r="B62" s="111" t="s">
+        <v>100</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E62" s="35">
         <v>0.5</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G62" s="37">
+        <v>31</v>
+      </c>
+      <c r="G62" s="112">
         <f>G61+E62</f>
         <v>12</v>
       </c>
+      <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="33" t="s">
-        <v>105</v>
+      <c r="A63" s="99"/>
+      <c r="B63" s="111" t="s">
+        <v>101</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E63" s="35">
         <v>3</v>
       </c>
       <c r="F63" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" s="37">
+        <v>31</v>
+      </c>
+      <c r="G63" s="112">
         <f>G62+E63</f>
         <v>15</v>
       </c>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="24" t="s">
-        <v>8</v>
+      <c r="A64" s="99"/>
+      <c r="B64" s="118" t="s">
+        <v>9</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="13"/>
-      <c r="G64" s="22"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="15" t="s">
-        <v>12</v>
+      <c r="G64" s="119"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="99"/>
+      <c r="B65" s="116" t="s">
+        <v>13</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="33" t="s">
-        <v>98</v>
+      <c r="G65" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="99"/>
+      <c r="B66" s="111" t="s">
+        <v>102</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E66" s="35">
         <v>3</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" s="39">
+        <v>103</v>
+      </c>
+      <c r="G66" s="120">
         <f>E66</f>
         <v>3</v>
       </c>
-      <c r="H66" s="5"/>
-    </row>
-    <row r="67" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="33" t="s">
-        <v>68</v>
+      <c r="H66" s="100"/>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="99"/>
+      <c r="B67" s="111" t="s">
+        <v>69</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E67" s="35">
         <v>0.5</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" s="37">
+        <v>31</v>
+      </c>
+      <c r="G67" s="112">
         <f>E67+G66</f>
         <v>3.5</v>
       </c>
-      <c r="H67" s="5"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="33" t="s">
-        <v>90</v>
+      <c r="H67" s="100"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="99"/>
+      <c r="B68" s="111" t="s">
+        <v>91</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E68" s="35">
         <v>2</v>
       </c>
       <c r="F68" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G68" s="39">
+        <v>31</v>
+      </c>
+      <c r="G68" s="120">
         <f t="shared" ref="G68:G74" si="7">G67+E68</f>
         <v>5.5</v>
       </c>
-      <c r="H68" s="5"/>
-    </row>
-    <row r="69" spans="2:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="B69" s="80" t="s">
-        <v>94</v>
+      <c r="H68" s="100"/>
+    </row>
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A69" s="99"/>
+      <c r="B69" s="121" t="s">
+        <v>95</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E69" s="35">
         <v>4.5</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G69" s="37">
+        <v>104</v>
+      </c>
+      <c r="G69" s="112">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="9" t="s">
-        <v>72</v>
+      <c r="H69" s="100"/>
+    </row>
+    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="99"/>
+      <c r="B70" s="113" t="s">
+        <v>73</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E70" s="35">
         <v>0.75</v>
       </c>
       <c r="F70" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" s="37">
+        <v>31</v>
+      </c>
+      <c r="G70" s="112">
         <f>G69+E70</f>
         <v>10.75</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="9" t="s">
-        <v>73</v>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="99"/>
+      <c r="B71" s="113" t="s">
+        <v>74</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E71" s="35">
         <v>1</v>
       </c>
       <c r="F71" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71" s="37">
+        <v>31</v>
+      </c>
+      <c r="G71" s="112">
         <f>G70+E71</f>
         <v>11.75</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="9" t="s">
-        <v>101</v>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="99"/>
+      <c r="B72" s="113" t="s">
+        <v>105</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E72" s="35">
         <v>0.25</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="37">
+        <v>31</v>
+      </c>
+      <c r="G72" s="112">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="9" t="s">
-        <v>74</v>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="99"/>
+      <c r="B73" s="113" t="s">
+        <v>75</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E73" s="35">
         <v>0.75</v>
       </c>
       <c r="F73" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73" s="37">
+        <v>31</v>
+      </c>
+      <c r="G73" s="112">
         <f>G72+E73</f>
         <v>12.75</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="33" t="s">
-        <v>102</v>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="99"/>
+      <c r="B74" s="111" t="s">
+        <v>106</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E74" s="35">
         <v>1.25</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G74" s="37">
+        <v>31</v>
+      </c>
+      <c r="G74" s="112">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" s="35">
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="99"/>
+      <c r="B75" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="130" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="124">
         <v>1</v>
       </c>
-      <c r="F75" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" s="37">
+      <c r="F75" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="126">
         <f>G74+E75</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="54"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
       <c r="G76" s="43"/>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F425C3-0FA8-4A17-B5C2-5175FFEED97F}">
+  <dimension ref="A1:K79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="67">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="112">
+        <f>E5</f>
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="68">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="112">
+        <f t="shared" ref="G6" si="0">G5+E6</f>
+        <v>1.25</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="112">
+        <f>G6+E7</f>
+        <v>1.75</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="52"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1.75</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="112">
+        <f>G7+E8</f>
+        <v>3.5</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="112">
+        <f>G8+E9</f>
+        <v>4</v>
+      </c>
+      <c r="H9" s="45"/>
+      <c r="I9" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="35">
+        <v>20</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="112">
+        <f t="shared" ref="G10:G11" si="1">G9+E10</f>
+        <v>24</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="35">
+        <v>5</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="112">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="H11" s="45"/>
+      <c r="I11" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="112">
+        <f>E14</f>
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="112">
+        <f>E15+G14</f>
+        <v>3.25</v>
+      </c>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="112">
+        <f>G15+E16</f>
+        <v>4</v>
+      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="73"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="112">
+        <f>G16+E17</f>
+        <v>4.5</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="35">
+        <v>2</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="112">
+        <f>G17+E18</f>
+        <v>6.5</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="93">
+        <f>SUM(G11,G23,G30,G39,G48,G60)</f>
+        <v>141.25</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="35">
+        <v>18</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="112">
+        <f t="shared" ref="G19:G20" si="2">G18+E19</f>
+        <v>24.5</v>
+      </c>
+      <c r="H19" s="45"/>
+      <c r="I19" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="78">
+        <f>J18/6</f>
+        <v>23.541666666666668</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="112">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="112">
+        <f>G20+E21</f>
+        <v>25.5</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="35">
+        <v>1.75</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="112">
+        <f>G21+E22</f>
+        <v>27.25</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="112">
+        <f>G22+E23</f>
+        <v>27.75</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="112">
+        <f>E26</f>
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="112">
+        <f t="shared" ref="G27" si="3">G26+E27</f>
+        <v>1.25</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="112">
+        <f>G27+E28</f>
+        <v>1.75</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="35">
+        <v>20</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="112">
+        <f t="shared" ref="G29" si="4">G28+E29</f>
+        <v>21.75</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="35">
+        <v>1.75</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="112">
+        <f>G29+E30</f>
+        <v>23.5</v>
+      </c>
+      <c r="H30" s="71"/>
+    </row>
+    <row r="31" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="71"/>
+    </row>
+    <row r="32" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="112">
+        <f>E33</f>
+        <v>0.75</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="35">
+        <v>3</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="112">
+        <f>G33+E34</f>
+        <v>3.75</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="112">
+        <f t="shared" ref="G35:G36" si="5">G34+E35</f>
+        <v>7.25</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="112">
+        <f t="shared" si="5"/>
+        <v>7.75</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="112">
+        <f>G36+E37</f>
+        <v>8.25</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="35">
+        <v>1.75</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="112">
+        <f>G37+E38</f>
+        <v>10</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="F39" s="36"/>
+      <c r="G39" s="112">
+        <f t="shared" ref="G39" si="6">G38+E39</f>
+        <v>13.5</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="112">
+        <f>E42</f>
+        <v>0.75</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="112">
+        <f t="shared" ref="G43" si="7">G42+E43</f>
+        <v>1.25</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="112">
+        <f>G43+E44</f>
+        <v>1.75</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="35">
+        <v>1.75</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="112">
+        <f>G44+E45</f>
+        <v>3.5</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="35">
+        <v>5</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="112">
+        <f>G45+E46</f>
+        <v>8.5</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="35">
+        <v>3</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="112">
+        <f t="shared" ref="G47" si="8">G46+E47</f>
+        <v>11.5</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="35">
+        <v>2</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="112">
+        <f>G47+E48</f>
+        <v>13.5</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="71"/>
+    </row>
+    <row r="51" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="120">
+        <f>E51</f>
+        <v>0.75</v>
+      </c>
+      <c r="H51" s="71"/>
+    </row>
+    <row r="52" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="112">
+        <f>E52+G51</f>
+        <v>2.25</v>
+      </c>
+      <c r="H52" s="71"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="98"/>
+      <c r="B53" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="35">
+        <v>5</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="120">
+        <f t="shared" ref="G53:G59" si="9">G52+E53</f>
+        <v>7.25</v>
+      </c>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="99"/>
+      <c r="B54" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="35">
+        <v>2</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="112">
+        <f t="shared" si="9"/>
+        <v>9.25</v>
+      </c>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="99"/>
+      <c r="B55" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="112">
+        <f t="shared" si="9"/>
+        <v>9.75</v>
+      </c>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="99"/>
+      <c r="B56" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="112">
+        <f>G55+E56</f>
+        <v>10.25</v>
+      </c>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="99"/>
+      <c r="B57" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="35">
+        <v>1.75</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="112">
+        <f>G56+E57</f>
+        <v>12</v>
+      </c>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="99"/>
+      <c r="B58" s="113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="35">
+        <v>12</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="112">
+        <f>G57+E58</f>
+        <v>24</v>
+      </c>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="99"/>
+      <c r="B59" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="35">
+        <v>9</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G59" s="112">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="99"/>
+      <c r="B60" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="124">
+        <v>1</v>
+      </c>
+      <c r="F60" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="126">
+        <f t="shared" ref="G60" si="10">G59+E60</f>
+        <v>34</v>
+      </c>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="99"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="99"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="99"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="99"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="99"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="99"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="99"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="99"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="99"/>
+      <c r="H69" s="100"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="99"/>
+      <c r="H70" s="100"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="99"/>
+      <c r="H71" s="100"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="99"/>
+      <c r="H72" s="100"/>
+    </row>
+    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="99"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="99"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="99"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="99"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="99"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="99"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5177,6 +7179,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010004611FF326026746BE7BA6B533563D7A" ma:contentTypeVersion="7" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="68768b3a56787066a869a81186633cca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9261f3b7-eb37-44bc-ab49-41e0f5c5a530" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ce60f8ec90a8895216d4d1414fc8ef8" ns2:_="">
     <xsd:import namespace="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
@@ -5340,12 +7348,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCF450D-C3EB-4368-8E96-CCC92F1AC82B}">
   <ds:schemaRefs>
@@ -5355,7 +7357,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B309BE4A-223A-4E57-BEB2-7B03E18DE29A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F9D30A-50A2-408B-B3F0-EDB4CF8C0B75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF543F68-0634-48D3-9512-78B815FCAD16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -5370,20 +7388,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F9D30A-50A2-408B-B3F0-EDB4CF8C0B75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/website/src/documents/Privat/Apollon_Aufwandserfassung.xlsx
+++ b/website/src/documents/Privat/Apollon_Aufwandserfassung.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg.sharepoint.com/sites/o365grpSWE-Projekt/Freigegebene Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1451" documentId="13_ncr:1_{CF72DE10-053D-F84A-BF2F-97DB33227B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{73BDBAAA-0D5C-4F0E-B3FB-38F55E3FA79D}"/>
+  <xr:revisionPtr revIDLastSave="1630" documentId="13_ncr:1_{CF72DE10-053D-F84A-BF2F-97DB33227B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{08968B7F-B212-4BCE-A5EB-2674DDBCBCF1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5DFA726E-B0C4-4500-AF96-5BC0FDCBA0B9}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{5DFA726E-B0C4-4500-AF96-5BC0FDCBA0B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
     <sheet name="Zeiterfassung KW 10" sheetId="1" r:id="rId2"/>
     <sheet name="Zeiterfassung KW 11" sheetId="2" r:id="rId3"/>
     <sheet name="Zeiterfassung KW 12" sheetId="4" r:id="rId4"/>
+    <sheet name="Zeiterfassung KW 13" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="140">
   <si>
     <r>
       <rPr>
@@ -59,9 +60,6 @@
     </r>
   </si>
   <si>
-    <t>3. Woche</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -471,6 +469,47 @@
   <si>
     <t>In Zusammenarbeit mit 
 Florian Albert</t>
+  </si>
+  <si>
+    <t>Vorbereiten des Reviews</t>
+  </si>
+  <si>
+    <t>Kunden-Review</t>
+  </si>
+  <si>
+    <t>4. Woche</t>
+  </si>
+  <si>
+    <t>Arbeit am Lastenheft</t>
+  </si>
+  <si>
+    <t>Pflichtenheft Qualitätskriterien</t>
+  </si>
+  <si>
+    <t>Pflichtenheft Benutzeroberfläche</t>
+  </si>
+  <si>
+    <t>Arbeit am Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Pflichtenheft überarbeiten</t>
+  </si>
+  <si>
+    <t>Letzte Arbeiten an Prototyp
+ und Server für Review</t>
+  </si>
+  <si>
+    <t>Implementierung Prototyp</t>
+  </si>
+  <si>
+    <t>Serverarbeiten</t>
+  </si>
+  <si>
+    <t>Pflichtenheft Produktübersicht 
+und Überarbeitung</t>
+  </si>
+  <si>
+    <t>Überarbeitung Dokumente</t>
   </si>
 </sst>
 </file>
@@ -2472,7 +2511,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2493,14 +2532,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="D2" s="71"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="81"/>
       <c r="B3" s="85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="71"/>
@@ -2508,18 +2547,18 @@
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81"/>
       <c r="B4" s="88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="94">
-        <f>'Zeiterfassung KW 10'!J19+'Zeiterfassung KW 11'!J18+'Zeiterfassung KW 12'!J18</f>
-        <v>292</v>
+        <f>'Zeiterfassung KW 10'!J19+'Zeiterfassung KW 11'!J18+'Zeiterfassung KW 12'!J18+'Zeiterfassung KW 13'!J18</f>
+        <v>345.25</v>
       </c>
       <c r="D4" s="96"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="81"/>
       <c r="B5" s="85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="92"/>
@@ -2527,18 +2566,18 @@
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="81"/>
       <c r="B6" s="88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="94">
-        <f>'Zeiterfassung KW 10'!G12+'Zeiterfassung KW 11'!G14+'Zeiterfassung KW 12'!G11</f>
-        <v>55</v>
+        <f>'Zeiterfassung KW 10'!G12+'Zeiterfassung KW 11'!G14+'Zeiterfassung KW 12'!G11+'Zeiterfassung KW 13'!G10</f>
+        <v>64.25</v>
       </c>
       <c r="D6" s="71"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81"/>
       <c r="B7" s="91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="86"/>
       <c r="D7" s="71"/>
@@ -2547,18 +2586,18 @@
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="81"/>
       <c r="B8" s="88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="94">
-        <f>'Zeiterfassung KW 10'!G20+'Zeiterfassung KW 11'!G30+'Zeiterfassung KW 12'!G23</f>
-        <v>54.5</v>
+        <f>'Zeiterfassung KW 10'!G20+'Zeiterfassung KW 11'!G30+'Zeiterfassung KW 12'!G23+'Zeiterfassung KW 13'!G18</f>
+        <v>63</v>
       </c>
       <c r="D8" s="71"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81"/>
       <c r="B9" s="91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="71"/>
@@ -2566,18 +2605,18 @@
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81"/>
       <c r="B10" s="88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="94">
-        <f>'Zeiterfassung KW 10'!G28+'Zeiterfassung KW 11'!G41+'Zeiterfassung KW 12'!G30</f>
-        <v>50.5</v>
+        <f>'Zeiterfassung KW 10'!G28+'Zeiterfassung KW 11'!G41+'Zeiterfassung KW 12'!G30+'Zeiterfassung KW 13'!G25</f>
+        <v>59.25</v>
       </c>
       <c r="D10" s="71"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="81"/>
       <c r="B11" s="91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="86"/>
       <c r="D11" s="71"/>
@@ -2585,18 +2624,18 @@
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="81"/>
       <c r="B12" s="88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="94">
-        <f>'Zeiterfassung KW 10'!G35+'Zeiterfassung KW 11'!G51+'Zeiterfassung KW 12'!G39</f>
-        <v>34.5</v>
+        <f>'Zeiterfassung KW 10'!G35+'Zeiterfassung KW 11'!G51+'Zeiterfassung KW 12'!G39+'Zeiterfassung KW 13'!G33</f>
+        <v>44.75</v>
       </c>
       <c r="D12" s="71"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="81"/>
       <c r="B13" s="91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="86"/>
       <c r="D13" s="71"/>
@@ -2604,18 +2643,18 @@
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="81"/>
       <c r="B14" s="88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="94">
-        <f>'Zeiterfassung KW 10'!G42+'Zeiterfassung KW 11'!G63+'Zeiterfassung KW 12'!G48</f>
-        <v>36.5</v>
+        <f>'Zeiterfassung KW 10'!G42+'Zeiterfassung KW 11'!G63+'Zeiterfassung KW 12'!G48+'Zeiterfassung KW 13'!G40</f>
+        <v>43.25</v>
       </c>
       <c r="D14" s="71"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="81"/>
       <c r="B15" s="91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="86"/>
       <c r="D15" s="71"/>
@@ -2623,11 +2662,11 @@
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="81"/>
       <c r="B16" s="89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="95">
-        <f>'Zeiterfassung KW 10'!G54+'Zeiterfassung KW 11'!G75+'Zeiterfassung KW 12'!G60</f>
-        <v>61</v>
+        <f>'Zeiterfassung KW 10'!G54+'Zeiterfassung KW 11'!G75+'Zeiterfassung KW 12'!G60+'Zeiterfassung KW 13'!G50</f>
+        <v>70.75</v>
       </c>
       <c r="D16" s="71"/>
     </row>
@@ -2645,7 +2684,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A33" sqref="A33:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2680,7 +2719,7 @@
     <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="6"/>
@@ -2689,7 +2728,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="44"/>
       <c r="I2" s="58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="2"/>
@@ -2697,7 +2736,7 @@
     <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="8"/>
@@ -2706,7 +2745,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="50"/>
       <c r="I3" s="47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
@@ -2714,26 +2753,26 @@
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>18</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="67">
         <v>44266</v>
@@ -2742,19 +2781,19 @@
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="35">
         <v>2.5</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="37">
         <f>E5</f>
@@ -2762,7 +2801,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="68">
         <v>44269</v>
@@ -2771,19 +2810,19 @@
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="35">
         <v>1</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="37">
         <f t="shared" ref="G6:G12" si="0">G5+E6</f>
@@ -2793,19 +2832,19 @@
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="35">
         <v>2</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="37">
         <f t="shared" si="0"/>
@@ -2816,19 +2855,19 @@
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="35">
         <v>0.5</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="37">
         <f t="shared" si="0"/>
@@ -2836,7 +2875,7 @@
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
@@ -2844,19 +2883,19 @@
     <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="35">
         <v>5</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="37">
         <f t="shared" si="0"/>
@@ -2864,7 +2903,7 @@
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="53"/>
       <c r="K9" s="2"/>
@@ -2872,19 +2911,19 @@
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="35">
         <v>2</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="37">
         <f t="shared" si="0"/>
@@ -2892,7 +2931,7 @@
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="48"/>
       <c r="K10" s="2"/>
@@ -2900,19 +2939,19 @@
     <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="37">
         <f t="shared" si="0"/>
@@ -2920,29 +2959,29 @@
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="61" t="s">
         <v>38</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>39</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="35">
         <v>1</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="37">
         <f t="shared" si="0"/>
@@ -2950,17 +2989,17 @@
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="70"/>
       <c r="D13" s="69"/>
@@ -2969,58 +3008,58 @@
       <c r="G13" s="30"/>
       <c r="H13" s="45"/>
       <c r="I13" s="65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="E14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="G14" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>18</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="35">
         <v>2.5</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="37">
         <f>E15</f>
@@ -3028,29 +3067,29 @@
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="64" t="s">
         <v>44</v>
-      </c>
-      <c r="J15" s="64" t="s">
-        <v>45</v>
       </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="35">
         <v>1</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="37">
         <f>G15+E16</f>
@@ -3064,19 +3103,19 @@
     <row r="17" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="35">
         <v>4</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="37">
         <f>G16+E17</f>
@@ -3092,19 +3131,19 @@
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="35">
         <v>2.5</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="37">
         <f>G17+E18</f>
@@ -3112,29 +3151,29 @@
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="75" t="s">
         <v>48</v>
-      </c>
-      <c r="J18" s="75" t="s">
-        <v>49</v>
       </c>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="35">
         <v>2</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="37">
         <f>G18+E19</f>
@@ -3142,7 +3181,7 @@
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J19" s="93">
         <f>SUM(G12,G20,G28,G35,G42,G54)</f>
@@ -3153,19 +3192,19 @@
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="35">
         <v>1</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="37">
         <f>G19+E20</f>
@@ -3173,7 +3212,7 @@
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20" s="78">
         <f>J19/6</f>
@@ -3184,7 +3223,7 @@
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
@@ -3196,22 +3235,22 @@
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="D22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="E22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="F22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="G22" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>18</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="43"/>
@@ -3220,19 +3259,19 @@
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="35">
         <v>2.5</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="37">
         <f>E23</f>
@@ -3243,19 +3282,19 @@
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="35">
         <v>1</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" s="37">
         <f>G23+E24</f>
@@ -3266,19 +3305,19 @@
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="35">
         <v>9</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="37">
         <f>G24+E25</f>
@@ -3289,19 +3328,19 @@
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="35">
         <v>1.5</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="37">
         <f>G25+E26</f>
@@ -3312,19 +3351,19 @@
     <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="35">
         <v>1</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" s="37">
         <f>G26+E27</f>
@@ -3335,19 +3374,19 @@
     <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="35">
         <v>1</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" s="37">
         <f>G27+E28</f>
@@ -3358,7 +3397,7 @@
     <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
@@ -3370,41 +3409,41 @@
     <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="D30" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="E30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="F30" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="G30" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>18</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="35">
         <v>2.5</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="37">
         <f>E31</f>
@@ -3415,19 +3454,19 @@
     <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="35">
         <v>1</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G32" s="37">
         <f>G31+E32</f>
@@ -3438,19 +3477,19 @@
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="35">
         <v>1.5</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" s="37">
         <f>G32+E33</f>
@@ -3461,19 +3500,19 @@
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="35">
         <v>0.5</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="37">
         <f>G33+E34</f>
@@ -3484,19 +3523,19 @@
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="35">
         <v>1</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35" s="37">
         <f>G34+E35</f>
@@ -3507,7 +3546,7 @@
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="28"/>
@@ -3519,41 +3558,41 @@
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="D37" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="E37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="F37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="G37" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>18</v>
       </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" s="35">
         <v>2.5</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G38" s="37">
         <f>E38</f>
@@ -3564,19 +3603,19 @@
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" s="35">
         <v>1</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G39" s="37">
         <f>G38+E39</f>
@@ -3587,19 +3626,19 @@
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" s="35">
         <v>0.5</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" s="37">
         <f>E40+G39</f>
@@ -3608,19 +3647,19 @@
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" s="35">
         <v>3</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" s="37">
         <f>G40+E41</f>
@@ -3629,19 +3668,19 @@
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42" s="35">
         <v>1</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G42" s="37">
         <f>G41+E42</f>
@@ -3650,7 +3689,7 @@
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -3660,39 +3699,39 @@
     </row>
     <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="D44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="E44" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="F44" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="G44" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45" s="35">
         <v>2</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" s="39">
         <f>E45</f>
@@ -3701,19 +3740,19 @@
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E46" s="35">
         <v>0.5</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" s="39">
         <f t="shared" ref="G46:G51" si="1">G45+E46</f>
@@ -3722,19 +3761,19 @@
     </row>
     <row r="47" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47" s="35">
         <v>2</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" s="39">
         <f t="shared" si="1"/>
@@ -3743,19 +3782,19 @@
     </row>
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" s="35">
         <v>2.5</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G48" s="37">
         <f t="shared" si="1"/>
@@ -3764,19 +3803,19 @@
     </row>
     <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="35">
         <v>1</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G49" s="37">
         <f t="shared" si="1"/>
@@ -3785,19 +3824,19 @@
     </row>
     <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" s="35">
         <v>1</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" s="37">
         <f t="shared" si="1"/>
@@ -3806,19 +3845,19 @@
     </row>
     <row r="51" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" s="35">
         <v>1</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G51" s="37">
         <f t="shared" si="1"/>
@@ -3828,19 +3867,19 @@
     </row>
     <row r="52" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52" s="35">
         <v>1</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="37">
         <f t="shared" ref="G52" si="2">G51+E52</f>
@@ -3850,19 +3889,19 @@
     </row>
     <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E53" s="35">
         <v>0.5</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" s="37">
         <f t="shared" ref="G53" si="3">G52+E53</f>
@@ -3872,19 +3911,19 @@
     </row>
     <row r="54" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54" s="41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54" s="41">
         <v>0.5</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" s="79">
         <f>G53+E54</f>
@@ -3906,7 +3945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B848FEB0-4874-6243-88B3-9661B8B22D34}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
@@ -3940,7 +3979,7 @@
     <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="104"/>
       <c r="D2" s="105"/>
@@ -3949,7 +3988,7 @@
       <c r="G2" s="106"/>
       <c r="H2" s="44"/>
       <c r="I2" s="58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="2"/>
@@ -3957,7 +3996,7 @@
     <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="8"/>
@@ -3966,7 +4005,7 @@
       <c r="G3" s="108"/>
       <c r="H3" s="4"/>
       <c r="I3" s="47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
@@ -3974,26 +4013,26 @@
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="110" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="110" t="s">
-        <v>18</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="67">
         <v>44270</v>
@@ -4002,19 +4041,19 @@
     <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="35">
         <v>0.5</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="112">
         <f>E5</f>
@@ -4022,7 +4061,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="68">
         <v>44276</v>
@@ -4031,19 +4070,19 @@
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="35">
         <v>0.25</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="112">
         <f t="shared" ref="G6:G11" si="0">G5+E6</f>
@@ -4054,19 +4093,19 @@
     <row r="7" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="111" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="35">
         <v>0.75</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="112">
         <f>G6+E7</f>
@@ -4074,7 +4113,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="52"/>
       <c r="K7" s="2"/>
@@ -4082,19 +4121,19 @@
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="35">
         <v>0.75</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="112">
         <f t="shared" si="0"/>
@@ -4102,7 +4141,7 @@
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="2"/>
@@ -4110,19 +4149,19 @@
     <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="35">
         <v>1</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="112">
         <f t="shared" si="0"/>
@@ -4130,7 +4169,7 @@
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
@@ -4138,19 +4177,19 @@
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="35">
         <v>0.75</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="112">
         <f t="shared" si="0"/>
@@ -4158,29 +4197,29 @@
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="61" t="s">
         <v>38</v>
-      </c>
-      <c r="J10" s="61" t="s">
-        <v>39</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="35">
         <v>3</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="112">
         <f t="shared" si="0"/>
@@ -4188,29 +4227,29 @@
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="111" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="35">
         <v>1</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="112">
         <f>G11+E12</f>
@@ -4218,29 +4257,29 @@
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="127" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="97">
         <v>1</v>
       </c>
       <c r="F13" s="97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="128">
         <f>G12+E13</f>
@@ -4248,29 +4287,29 @@
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="127" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="97">
         <v>2</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="129">
         <f>G13+E14</f>
@@ -4278,17 +4317,17 @@
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="64" t="s">
         <v>44</v>
-      </c>
-      <c r="J14" s="64" t="s">
-        <v>45</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="70"/>
       <c r="D15" s="69"/>
@@ -4303,22 +4342,22 @@
     <row r="16" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="E16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="G16" s="110" t="s">
         <v>17</v>
-      </c>
-      <c r="G16" s="110" t="s">
-        <v>18</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="72" t="s">
@@ -4330,19 +4369,19 @@
     <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="35">
         <v>0.5</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="112">
         <f>E17</f>
@@ -4350,29 +4389,29 @@
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="75" t="s">
         <v>48</v>
-      </c>
-      <c r="J17" s="75" t="s">
-        <v>49</v>
       </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="35">
         <v>0.25</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="112">
         <f t="shared" ref="G18" si="1">G17+E18</f>
@@ -4380,7 +4419,7 @@
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="93">
         <f>SUM(G14,G30,G41,G51,G63,G75)</f>
@@ -4391,19 +4430,19 @@
     <row r="19" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="111" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="35">
         <v>0.75</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="112">
         <f t="shared" ref="G19:G23" si="2">G18+E19</f>
@@ -4411,7 +4450,7 @@
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19" s="78">
         <f>J18/6</f>
@@ -4422,19 +4461,19 @@
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="111" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="35">
         <v>3</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="112">
         <f t="shared" si="2"/>
@@ -4446,19 +4485,19 @@
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="111" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="35">
         <v>0.75</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="112">
         <f t="shared" si="2"/>
@@ -4469,19 +4508,19 @@
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="113" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="35">
         <v>0.5</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" s="112">
         <f t="shared" si="2"/>
@@ -4494,19 +4533,19 @@
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="35">
         <v>0.75</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="112">
         <f t="shared" si="2"/>
@@ -4517,19 +4556,19 @@
     <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="35">
         <v>1</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="112">
         <f>G23+E24</f>
@@ -4540,19 +4579,19 @@
     <row r="25" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="35">
         <v>0.75</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="112">
         <f>G24+E25</f>
@@ -4563,19 +4602,19 @@
     <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="35">
         <v>0.75</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="112">
         <f t="shared" ref="G26" si="3">G25+E26</f>
@@ -4586,19 +4625,19 @@
     <row r="27" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="35">
         <v>1.75</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G27" s="112">
         <f>G26+E27</f>
@@ -4609,19 +4648,19 @@
     <row r="28" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="111" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="35">
         <v>1</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="112">
         <f>G27+E28</f>
@@ -4632,19 +4671,19 @@
     <row r="29" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="111" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="35">
         <v>1</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" s="112">
         <f>G28+E29</f>
@@ -4655,19 +4694,19 @@
     <row r="30" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="111" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="35">
         <v>1</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" s="112">
         <f>G29+E30</f>
@@ -4678,7 +4717,7 @@
     <row r="31" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="28"/>
@@ -4690,41 +4729,41 @@
     <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="D32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="E32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="F32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="G32" s="110" t="s">
         <v>17</v>
-      </c>
-      <c r="G32" s="110" t="s">
-        <v>18</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="35">
         <v>0.5</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" s="112">
         <f>E33</f>
@@ -4735,19 +4774,19 @@
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="35">
         <v>0.75</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" s="112">
         <f t="shared" ref="G34:G38" si="4">G33+E34</f>
@@ -4758,19 +4797,19 @@
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="35">
         <v>1</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" s="112">
         <f t="shared" si="4"/>
@@ -4781,19 +4820,19 @@
     <row r="36" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="35">
         <v>3</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" s="112">
         <f t="shared" si="4"/>
@@ -4804,19 +4843,19 @@
     <row r="37" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="113" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="35">
         <v>1</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" s="112">
         <f t="shared" si="4"/>
@@ -4827,19 +4866,19 @@
     <row r="38" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" s="35">
         <v>0.75</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" s="112">
         <f t="shared" si="4"/>
@@ -4850,13 +4889,13 @@
     <row r="39" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="111" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" s="35">
         <v>1</v>
@@ -4871,19 +4910,19 @@
     <row r="40" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" s="35">
         <v>2</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" s="112">
         <f>G39+E40</f>
@@ -4894,19 +4933,19 @@
     <row r="41" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="111" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" s="35">
         <v>1</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" s="112">
         <f>G40+E41</f>
@@ -4917,7 +4956,7 @@
     <row r="42" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="28"/>
@@ -4929,41 +4968,41 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="D43" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="E43" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="F43" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="G43" s="110" t="s">
         <v>17</v>
-      </c>
-      <c r="G43" s="110" t="s">
-        <v>18</v>
       </c>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" s="35">
         <v>0.5</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" s="112">
         <f>E44</f>
@@ -4974,19 +5013,19 @@
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45" s="35">
         <v>0.75</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" s="112">
         <f>G44+E45</f>
@@ -4997,19 +5036,19 @@
     <row r="46" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" s="35">
         <v>1</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" s="112">
         <f t="shared" ref="G46:G49" si="5">G45+E46</f>
@@ -5020,13 +5059,13 @@
     <row r="47" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47" s="35">
         <v>3.5</v>
@@ -5041,19 +5080,19 @@
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="113" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" s="35">
         <v>3</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" s="112">
         <f t="shared" si="5"/>
@@ -5064,19 +5103,19 @@
     <row r="49" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="35">
         <v>4</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G49" s="112">
         <f t="shared" si="5"/>
@@ -5087,19 +5126,19 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="98"/>
       <c r="B50" s="113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" s="35">
         <v>0.75</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" s="112">
         <f>G49+E50</f>
@@ -5110,19 +5149,19 @@
     <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="99"/>
       <c r="B51" s="111" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" s="35">
         <v>1</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" s="112">
         <f>G50+E51</f>
@@ -5133,7 +5172,7 @@
     <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="99"/>
       <c r="B52" s="114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" s="27"/>
       <c r="D52" s="28"/>
@@ -5145,41 +5184,41 @@
     <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="99"/>
       <c r="B53" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="D53" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="E53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="F53" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="G53" s="110" t="s">
         <v>17</v>
-      </c>
-      <c r="G53" s="110" t="s">
-        <v>18</v>
       </c>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="99"/>
       <c r="B54" s="111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54" s="35">
         <v>0.5</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" s="112">
         <f>E54</f>
@@ -5190,19 +5229,19 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="99"/>
       <c r="B55" s="113" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55" s="35">
         <v>5</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" s="112">
         <f t="shared" ref="G55:G59" si="6">G54+E55</f>
@@ -5213,19 +5252,19 @@
     <row r="56" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="99"/>
       <c r="B56" s="113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" s="35">
         <v>2</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" s="112">
         <f t="shared" si="6"/>
@@ -5236,19 +5275,19 @@
     <row r="57" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="99"/>
       <c r="B57" s="113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57" s="35">
         <v>0.75</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" s="112">
         <f t="shared" si="6"/>
@@ -5259,19 +5298,19 @@
     <row r="58" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="99"/>
       <c r="B58" s="113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58" s="35">
         <v>1</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" s="112">
         <f>G57+E58</f>
@@ -5282,19 +5321,19 @@
     <row r="59" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="99"/>
       <c r="B59" s="113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E59" s="35">
         <v>0.75</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59" s="112">
         <f t="shared" si="6"/>
@@ -5305,19 +5344,19 @@
     <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="99"/>
       <c r="B60" s="111" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E60" s="35">
         <v>1</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" s="112">
         <f>G59+E60</f>
@@ -5328,19 +5367,19 @@
     <row r="61" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="99"/>
       <c r="B61" s="111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E61" s="35">
         <v>0.5</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61" s="112">
         <f>G60+E61</f>
@@ -5351,19 +5390,19 @@
     <row r="62" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="99"/>
       <c r="B62" s="111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E62" s="35">
         <v>0.5</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62" s="112">
         <f>G61+E62</f>
@@ -5374,19 +5413,19 @@
     <row r="63" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="99"/>
       <c r="B63" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E63" s="35">
         <v>3</v>
       </c>
       <c r="F63" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" s="112">
         <f>G62+E63</f>
@@ -5397,7 +5436,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="99"/>
       <c r="B64" s="118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -5409,41 +5448,41 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="99"/>
       <c r="B65" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="D65" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="E65" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="F65" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="G65" s="110" t="s">
         <v>17</v>
-      </c>
-      <c r="G65" s="110" t="s">
-        <v>18</v>
       </c>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="99"/>
       <c r="B66" s="111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E66" s="35">
         <v>3</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G66" s="120">
         <f>E66</f>
@@ -5454,19 +5493,19 @@
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="99"/>
       <c r="B67" s="111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E67" s="35">
         <v>0.5</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" s="112">
         <f>E67+G66</f>
@@ -5477,19 +5516,19 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="99"/>
       <c r="B68" s="111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E68" s="35">
         <v>2</v>
       </c>
       <c r="F68" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G68" s="120">
         <f t="shared" ref="G68:G74" si="7">G67+E68</f>
@@ -5500,19 +5539,19 @@
     <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A69" s="99"/>
       <c r="B69" s="121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E69" s="35">
         <v>4.5</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G69" s="112">
         <f t="shared" si="7"/>
@@ -5523,19 +5562,19 @@
     <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="99"/>
       <c r="B70" s="113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E70" s="35">
         <v>0.75</v>
       </c>
       <c r="F70" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G70" s="112">
         <f>G69+E70</f>
@@ -5546,19 +5585,19 @@
     <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="99"/>
       <c r="B71" s="113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E71" s="35">
         <v>1</v>
       </c>
       <c r="F71" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71" s="112">
         <f>G70+E71</f>
@@ -5569,19 +5608,19 @@
     <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="99"/>
       <c r="B72" s="113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E72" s="35">
         <v>0.25</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72" s="112">
         <f t="shared" si="7"/>
@@ -5592,19 +5631,19 @@
     <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="99"/>
       <c r="B73" s="113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E73" s="35">
         <v>0.75</v>
       </c>
       <c r="F73" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73" s="112">
         <f>G72+E73</f>
@@ -5615,19 +5654,19 @@
     <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="99"/>
       <c r="B74" s="111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E74" s="35">
         <v>1.25</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G74" s="112">
         <f t="shared" si="7"/>
@@ -5638,19 +5677,19 @@
     <row r="75" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="99"/>
       <c r="B75" s="122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75" s="124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E75" s="124">
         <v>1</v>
       </c>
       <c r="F75" s="125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" s="126">
         <f>G74+E75</f>
@@ -5675,8 +5714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F425C3-0FA8-4A17-B5C2-5175FFEED97F}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5709,7 +5748,7 @@
     <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="104"/>
       <c r="D2" s="105"/>
@@ -5718,7 +5757,7 @@
       <c r="G2" s="106"/>
       <c r="H2" s="44"/>
       <c r="I2" s="58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="2"/>
@@ -5726,7 +5765,7 @@
     <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="8"/>
@@ -5735,7 +5774,7 @@
       <c r="G3" s="108"/>
       <c r="H3" s="4"/>
       <c r="I3" s="47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
@@ -5743,26 +5782,26 @@
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="110" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="110" t="s">
-        <v>18</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="67">
         <v>44277</v>
@@ -5771,19 +5810,19 @@
     <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="35">
         <v>0.75</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="112">
         <f>E5</f>
@@ -5791,7 +5830,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="68">
         <v>44283</v>
@@ -5800,19 +5839,19 @@
     <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="35">
         <v>0.5</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="112">
         <f t="shared" ref="G6" si="0">G5+E6</f>
@@ -5823,19 +5862,19 @@
     <row r="7" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="35">
         <v>0.5</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="112">
         <f>G6+E7</f>
@@ -5843,7 +5882,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="52"/>
       <c r="K7" s="2"/>
@@ -5851,19 +5890,19 @@
     <row r="8" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="35">
         <v>1.75</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="112">
         <f>G7+E8</f>
@@ -5871,7 +5910,7 @@
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="2"/>
@@ -5879,19 +5918,19 @@
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="35">
         <v>0.5</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="112">
         <f>G8+E9</f>
@@ -5899,7 +5938,7 @@
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
@@ -5907,19 +5946,19 @@
     <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="35">
         <v>20</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="112">
         <f t="shared" ref="G10:G11" si="1">G9+E10</f>
@@ -5927,29 +5966,29 @@
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="61" t="s">
         <v>38</v>
-      </c>
-      <c r="J10" s="61" t="s">
-        <v>39</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="35">
         <v>5</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="112">
         <f t="shared" si="1"/>
@@ -5957,17 +5996,17 @@
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="70"/>
       <c r="D12" s="69"/>
@@ -5976,58 +6015,58 @@
       <c r="G12" s="115"/>
       <c r="H12" s="45"/>
       <c r="I12" s="65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="E13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="G13" s="110" t="s">
         <v>17</v>
-      </c>
-      <c r="G13" s="110" t="s">
-        <v>18</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="35">
         <v>2.5</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="112">
         <f>E14</f>
@@ -6035,29 +6074,29 @@
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="64" t="s">
         <v>44</v>
-      </c>
-      <c r="J14" s="64" t="s">
-        <v>45</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="35">
         <v>0.75</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" s="112">
         <f>E15+G14</f>
@@ -6071,19 +6110,19 @@
     <row r="16" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="35">
         <v>0.75</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="112">
         <f>G15+E16</f>
@@ -6099,19 +6138,19 @@
     <row r="17" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="35">
         <v>0.5</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" s="112">
         <f>G16+E17</f>
@@ -6119,29 +6158,29 @@
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="75" t="s">
         <v>48</v>
-      </c>
-      <c r="J17" s="75" t="s">
-        <v>49</v>
       </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="35">
         <v>2</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="112">
         <f>G17+E18</f>
@@ -6149,7 +6188,7 @@
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="93">
         <f>SUM(G11,G23,G30,G39,G48,G60)</f>
@@ -6160,19 +6199,19 @@
     <row r="19" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="35">
         <v>18</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="112">
         <f t="shared" ref="G19:G20" si="2">G18+E19</f>
@@ -6180,7 +6219,7 @@
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19" s="78">
         <f>J18/6</f>
@@ -6191,19 +6230,19 @@
     <row r="20" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="35">
         <v>0.5</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="112">
         <f t="shared" si="2"/>
@@ -6215,19 +6254,19 @@
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="35">
         <v>0.5</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="112">
         <f>G20+E21</f>
@@ -6239,19 +6278,19 @@
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="35">
         <v>1.75</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" s="112">
         <f>G21+E22</f>
@@ -6262,19 +6301,19 @@
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="35">
         <v>0.5</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="112">
         <f>G22+E23</f>
@@ -6287,7 +6326,7 @@
     <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
@@ -6299,41 +6338,41 @@
     <row r="25" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="D25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="F25" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="G25" s="110" t="s">
         <v>17</v>
-      </c>
-      <c r="G25" s="110" t="s">
-        <v>18</v>
       </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="35">
         <v>0.75</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G26" s="112">
         <f>E26</f>
@@ -6344,19 +6383,19 @@
     <row r="27" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="35">
         <v>0.5</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" s="112">
         <f t="shared" ref="G27" si="3">G26+E27</f>
@@ -6367,19 +6406,19 @@
     <row r="28" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="35">
         <v>0.5</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="112">
         <f>G27+E28</f>
@@ -6390,19 +6429,19 @@
     <row r="29" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="35">
         <v>20</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" s="112">
         <f t="shared" ref="G29" si="4">G28+E29</f>
@@ -6413,19 +6452,19 @@
     <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="35">
         <v>1.75</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" s="112">
         <f>G29+E30</f>
@@ -6436,7 +6475,7 @@
     <row r="31" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="28"/>
@@ -6448,41 +6487,41 @@
     <row r="32" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="D32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="E32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="F32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="G32" s="110" t="s">
         <v>17</v>
-      </c>
-      <c r="G32" s="110" t="s">
-        <v>18</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="35">
         <v>0.75</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G33" s="112">
         <f>E33</f>
@@ -6493,19 +6532,19 @@
     <row r="34" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="35">
         <v>3</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" s="112">
         <f>G33+E34</f>
@@ -6516,19 +6555,19 @@
     <row r="35" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="35">
         <v>3.5</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" s="112">
         <f t="shared" ref="G35:G36" si="5">G34+E35</f>
@@ -6539,19 +6578,19 @@
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="35">
         <v>0.5</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" s="112">
         <f t="shared" si="5"/>
@@ -6562,19 +6601,19 @@
     <row r="37" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="35">
         <v>0.5</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" s="112">
         <f>G36+E37</f>
@@ -6585,19 +6624,19 @@
     <row r="38" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" s="35">
         <v>1.75</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" s="112">
         <f>G37+E38</f>
@@ -6608,13 +6647,13 @@
     <row r="39" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" s="35">
         <v>3.5</v>
@@ -6629,7 +6668,7 @@
     <row r="40" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="28"/>
@@ -6641,41 +6680,41 @@
     <row r="41" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="D41" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="E41" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="F41" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="G41" s="110" t="s">
         <v>17</v>
-      </c>
-      <c r="G41" s="110" t="s">
-        <v>18</v>
       </c>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42" s="35">
         <v>0.75</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G42" s="112">
         <f>E42</f>
@@ -6686,19 +6725,19 @@
     <row r="43" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" s="35">
         <v>0.5</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" s="112">
         <f t="shared" ref="G43" si="7">G42+E43</f>
@@ -6709,19 +6748,19 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" s="35">
         <v>0.5</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" s="112">
         <f>G43+E44</f>
@@ -6732,19 +6771,19 @@
     <row r="45" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45" s="35">
         <v>1.75</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" s="112">
         <f>G44+E45</f>
@@ -6755,19 +6794,19 @@
     <row r="46" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" s="35">
         <v>5</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" s="112">
         <f>G45+E46</f>
@@ -6778,19 +6817,19 @@
     <row r="47" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" s="35">
         <v>3</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" s="112">
         <f t="shared" ref="G47" si="8">G46+E47</f>
@@ -6801,19 +6840,19 @@
     <row r="48" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" s="35">
         <v>2</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" s="112">
         <f>G47+E48</f>
@@ -6824,7 +6863,7 @@
     <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -6836,41 +6875,41 @@
     <row r="50" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="D50" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="E50" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="F50" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="G50" s="110" t="s">
         <v>17</v>
-      </c>
-      <c r="G50" s="110" t="s">
-        <v>18</v>
       </c>
       <c r="H50" s="71"/>
     </row>
     <row r="51" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" s="35">
         <v>0.75</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G51" s="120">
         <f>E51</f>
@@ -6881,19 +6920,19 @@
     <row r="52" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52" s="35">
         <v>1.5</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52" s="112">
         <f>E52+G51</f>
@@ -6904,19 +6943,19 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="98"/>
       <c r="B53" s="111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" s="35">
         <v>5</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" s="120">
         <f t="shared" ref="G53:G59" si="9">G52+E53</f>
@@ -6927,19 +6966,19 @@
     <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="99"/>
       <c r="B54" s="121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54" s="35">
         <v>2</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" s="112">
         <f t="shared" si="9"/>
@@ -6950,19 +6989,19 @@
     <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="99"/>
       <c r="B55" s="113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E55" s="35">
         <v>0.5</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" s="112">
         <f t="shared" si="9"/>
@@ -6973,19 +7012,19 @@
     <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="99"/>
       <c r="B56" s="111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" s="35">
         <v>0.5</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" s="112">
         <f>G55+E56</f>
@@ -6996,19 +7035,19 @@
     <row r="57" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="99"/>
       <c r="B57" s="113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57" s="35">
         <v>1.75</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" s="112">
         <f>G56+E57</f>
@@ -7019,19 +7058,19 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="99"/>
       <c r="B58" s="113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E58" s="35">
         <v>12</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" s="112">
         <f>G57+E58</f>
@@ -7042,19 +7081,19 @@
     <row r="59" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="99"/>
       <c r="B59" s="111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E59" s="35">
         <v>9</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G59" s="112">
         <f t="shared" si="9"/>
@@ -7065,19 +7104,19 @@
     <row r="60" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="99"/>
       <c r="B60" s="122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" s="124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60" s="124">
         <v>1</v>
       </c>
       <c r="F60" s="125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" s="126">
         <f t="shared" ref="G60" si="10">G59+E60</f>
@@ -7164,6 +7203,1282 @@
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFFA711-327E-4345-AC1D-AE200BC2B3B8}">
+  <dimension ref="A1:K71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="67">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="35">
+        <v>1.25</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="112">
+        <f>E5</f>
+        <v>1.25</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="68">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="35">
+        <v>1</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="112">
+        <f t="shared" ref="G6" si="0">G5+E6</f>
+        <v>2.25</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="112">
+        <f>G6+E7</f>
+        <v>2.75</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="52"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="113" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="35">
+        <v>4</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="112">
+        <f>G7+E8</f>
+        <v>6.75</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="113" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="112">
+        <f>G8+E9</f>
+        <v>7.25</v>
+      </c>
+      <c r="H9" s="45"/>
+      <c r="I9" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="35">
+        <v>2</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="112">
+        <f t="shared" ref="G10" si="1">G9+E10</f>
+        <v>9.25</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="45"/>
+      <c r="I12" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="35">
+        <v>2</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="112">
+        <f>E13</f>
+        <v>2</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="35">
+        <v>1.25</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="112">
+        <f>E14+G13</f>
+        <v>3.25</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="35">
+        <v>1.25</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="112">
+        <f>E15+G14</f>
+        <v>4.5</v>
+      </c>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="35">
+        <v>1</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="112">
+        <f t="shared" ref="G16" si="2">G15+E16</f>
+        <v>5.5</v>
+      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="73"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="112">
+        <f>G16+E17</f>
+        <v>6</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="112">
+        <f t="shared" ref="G18" si="3">G17+E18</f>
+        <v>8.5</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="93">
+        <f>SUM(G10,G18,G25,G33,G40,G50)</f>
+        <v>53.25</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="78">
+        <f>J18/6</f>
+        <v>8.875</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="35">
+        <v>1.25</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="112">
+        <f>E21</f>
+        <v>1.25</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="35">
+        <v>1</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="112">
+        <f t="shared" ref="G22" si="4">G21+E22</f>
+        <v>2.25</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="112">
+        <f>G22+E23</f>
+        <v>2.75</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="35">
+        <v>4</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="112">
+        <f t="shared" ref="G24" si="5">G23+E24</f>
+        <v>6.75</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="35">
+        <v>2</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="112">
+        <f>G24+E25</f>
+        <v>8.75</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="35">
+        <v>1.25</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="112">
+        <f>E28</f>
+        <v>1.25</v>
+      </c>
+      <c r="H28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="35">
+        <v>1</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="112">
+        <f t="shared" ref="G29" si="6">G28+E29</f>
+        <v>2.25</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="112">
+        <f>G29+E30</f>
+        <v>2.75</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="112">
+        <f t="shared" ref="G31" si="7">G30+E31</f>
+        <v>4.25</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="35">
+        <v>5.5</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="112">
+        <f>G31+E32</f>
+        <v>9.75</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="112">
+        <f>G32+E33</f>
+        <v>10.25</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="35">
+        <v>1.25</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="112">
+        <f>E36</f>
+        <v>1.25</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="35">
+        <v>1</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="112">
+        <f t="shared" ref="G37" si="8">G36+E37</f>
+        <v>2.25</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="112">
+        <f>G37+E38</f>
+        <v>2.75</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="35">
+        <v>1</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="112">
+        <f>G38+E39</f>
+        <v>3.75</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="35">
+        <v>3</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="112">
+        <f>G39+E40</f>
+        <v>6.75</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="35">
+        <v>1.25</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="112">
+        <f>E43</f>
+        <v>1.25</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="35">
+        <v>1</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="112">
+        <f t="shared" ref="G44" si="9">G43+E44</f>
+        <v>2.25</v>
+      </c>
+      <c r="H44" s="71"/>
+    </row>
+    <row r="45" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="112">
+        <f>G44+E45</f>
+        <v>2.75</v>
+      </c>
+      <c r="H45" s="71"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="35">
+        <v>1</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="112">
+        <f t="shared" ref="G46:G47" si="10">G45+E46</f>
+        <v>3.75</v>
+      </c>
+      <c r="H46" s="71"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="98"/>
+      <c r="B47" s="113" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="35">
+        <v>1</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="112">
+        <f t="shared" si="10"/>
+        <v>4.75</v>
+      </c>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="99"/>
+      <c r="B48" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="35">
+        <v>1</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="112">
+        <f>G47+E48</f>
+        <v>5.75</v>
+      </c>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="99"/>
+      <c r="B49" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="35">
+        <v>2</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="112">
+        <f>G48+E49</f>
+        <v>7.75</v>
+      </c>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="99"/>
+      <c r="B50" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="35">
+        <v>2</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="112">
+        <f>G49+E50</f>
+        <v>9.75</v>
+      </c>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="99"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="99"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="99"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="99"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="99"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="99"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="99"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="99"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="99"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="99"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="99"/>
+      <c r="H61" s="100"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="99"/>
+      <c r="H62" s="100"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="99"/>
+      <c r="H63" s="100"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="99"/>
+      <c r="H64" s="100"/>
+    </row>
+    <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="99"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="99"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="99"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="99"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="99"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="99"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7179,12 +8494,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010004611FF326026746BE7BA6B533563D7A" ma:contentTypeVersion="7" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="68768b3a56787066a869a81186633cca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9261f3b7-eb37-44bc-ab49-41e0f5c5a530" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ce60f8ec90a8895216d4d1414fc8ef8" ns2:_="">
     <xsd:import namespace="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
@@ -7348,6 +8657,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCF450D-C3EB-4368-8E96-CCC92F1AC82B}">
   <ds:schemaRefs>
@@ -7357,22 +8672,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F9D30A-50A2-408B-B3F0-EDB4CF8C0B75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF543F68-0634-48D3-9512-78B815FCAD16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7388,4 +8687,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F9D30A-50A2-408B-B3F0-EDB4CF8C0B75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/website/src/documents/Privat/Apollon_Aufwandserfassung.xlsx
+++ b/website/src/documents/Privat/Apollon_Aufwandserfassung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg.sharepoint.com/sites/o365grpSWE-Projekt/Freigegebene Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeonJ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1630" documentId="13_ncr:1_{CF72DE10-053D-F84A-BF2F-97DB33227B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{08968B7F-B212-4BCE-A5EB-2674DDBCBCF1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94B4843-A92F-4D77-817A-01BEA19A3CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{5DFA726E-B0C4-4500-AF96-5BC0FDCBA0B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{5DFA726E-B0C4-4500-AF96-5BC0FDCBA0B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Zeiterfassung KW 11" sheetId="2" r:id="rId3"/>
     <sheet name="Zeiterfassung KW 12" sheetId="4" r:id="rId4"/>
     <sheet name="Zeiterfassung KW 13" sheetId="5" r:id="rId5"/>
+    <sheet name="Zeiterfassung KW 14" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="156">
   <si>
     <r>
       <rPr>
@@ -477,9 +478,6 @@
     <t>Kunden-Review</t>
   </si>
   <si>
-    <t>4. Woche</t>
-  </si>
-  <si>
     <t>Arbeit am Lastenheft</t>
   </si>
   <si>
@@ -510,6 +508,58 @@
   </si>
   <si>
     <t>Überarbeitung Dokumente</t>
+  </si>
+  <si>
+    <t>Weekly Review</t>
+  </si>
+  <si>
+    <t>Weekly Retro</t>
+  </si>
+  <si>
+    <t>Betreuer-Weekly und Nachbesprechung</t>
+  </si>
+  <si>
+    <t>Organisation für Design</t>
+  </si>
+  <si>
+    <t>Design Interfaces und DTO</t>
+  </si>
+  <si>
+    <t>Pflichtenheftbesprechung</t>
+  </si>
+  <si>
+    <t>Dungeon Master-Ansicht Brainstorming</t>
+  </si>
+  <si>
+    <t>Anpassung Benutzeroberfläche 
+im Pflichtenheft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weitere Anpassungen/Verbesserungen im Pflichtenheft </t>
+  </si>
+  <si>
+    <t>5. Woche</t>
+  </si>
+  <si>
+    <t>Design Interfaces</t>
+  </si>
+  <si>
+    <t>Überarbeitung Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Testkonzept erstellen</t>
+  </si>
+  <si>
+    <t>Modellierung des Frontends</t>
+  </si>
+  <si>
+    <t>Modellierung der Autorisierung</t>
+  </si>
+  <si>
+    <t>Modellierung der REST Controller</t>
+  </si>
+  <si>
+    <t>Arbeit an Wireframes</t>
   </si>
 </sst>
 </file>
@@ -629,7 +679,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="91">
+  <borders count="109">
     <border>
       <left/>
       <right/>
@@ -1819,11 +1869,261 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3FB3DA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3FB3DA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3FB3DA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3FB3DA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBDBDBD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBDBDBD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBDBDBD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBDBDBD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBDBDBD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBDBDBD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBDBDBD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2186,6 +2486,75 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2511,7 +2880,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2532,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D2" s="71"/>
     </row>
@@ -2550,8 +2919,8 @@
         <v>2</v>
       </c>
       <c r="C4" s="94">
-        <f>'Zeiterfassung KW 10'!J19+'Zeiterfassung KW 11'!J18+'Zeiterfassung KW 12'!J18+'Zeiterfassung KW 13'!J18</f>
-        <v>345.25</v>
+        <f>'Zeiterfassung KW 10'!J18+'Zeiterfassung KW 11'!J18+'Zeiterfassung KW 12'!J18+'Zeiterfassung KW 13'!J18+'Zeiterfassung KW 14'!J18</f>
+        <v>401.25</v>
       </c>
       <c r="D4" s="96"/>
     </row>
@@ -2569,8 +2938,8 @@
         <v>2</v>
       </c>
       <c r="C6" s="94">
-        <f>'Zeiterfassung KW 10'!G12+'Zeiterfassung KW 11'!G14+'Zeiterfassung KW 12'!G11+'Zeiterfassung KW 13'!G10</f>
-        <v>64.25</v>
+        <f>'Zeiterfassung KW 10'!G12+'Zeiterfassung KW 11'!G14+'Zeiterfassung KW 12'!G11+'Zeiterfassung KW 13'!G10+'Zeiterfassung KW 14'!G11</f>
+        <v>75.25</v>
       </c>
       <c r="D6" s="71"/>
     </row>
@@ -2589,8 +2958,8 @@
         <v>2</v>
       </c>
       <c r="C8" s="94">
-        <f>'Zeiterfassung KW 10'!G20+'Zeiterfassung KW 11'!G30+'Zeiterfassung KW 12'!G23+'Zeiterfassung KW 13'!G18</f>
-        <v>63</v>
+        <f>'Zeiterfassung KW 10'!G20+'Zeiterfassung KW 11'!G30+'Zeiterfassung KW 12'!G23+'Zeiterfassung KW 13'!G18+'Zeiterfassung KW 14'!G20</f>
+        <v>75</v>
       </c>
       <c r="D8" s="71"/>
     </row>
@@ -2608,8 +2977,8 @@
         <v>2</v>
       </c>
       <c r="C10" s="94">
-        <f>'Zeiterfassung KW 10'!G28+'Zeiterfassung KW 11'!G41+'Zeiterfassung KW 12'!G30+'Zeiterfassung KW 13'!G25</f>
-        <v>59.25</v>
+        <f>'Zeiterfassung KW 10'!G28+'Zeiterfassung KW 11'!G41+'Zeiterfassung KW 12'!G30+'Zeiterfassung KW 13'!G25+'Zeiterfassung KW 14'!G28</f>
+        <v>67.25</v>
       </c>
       <c r="D10" s="71"/>
     </row>
@@ -2627,8 +2996,8 @@
         <v>2</v>
       </c>
       <c r="C12" s="94">
-        <f>'Zeiterfassung KW 10'!G35+'Zeiterfassung KW 11'!G51+'Zeiterfassung KW 12'!G39+'Zeiterfassung KW 13'!G33</f>
-        <v>44.75</v>
+        <f>'Zeiterfassung KW 10'!G35+'Zeiterfassung KW 11'!G51+'Zeiterfassung KW 12'!G39+'Zeiterfassung KW 13'!G33+'Zeiterfassung KW 14'!G37</f>
+        <v>53.75</v>
       </c>
       <c r="D12" s="71"/>
     </row>
@@ -2646,8 +3015,8 @@
         <v>2</v>
       </c>
       <c r="C14" s="94">
-        <f>'Zeiterfassung KW 10'!G42+'Zeiterfassung KW 11'!G63+'Zeiterfassung KW 12'!G48+'Zeiterfassung KW 13'!G40</f>
-        <v>43.25</v>
+        <f>'Zeiterfassung KW 10'!G42+'Zeiterfassung KW 11'!G63+'Zeiterfassung KW 12'!G48+'Zeiterfassung KW 13'!G40+'Zeiterfassung KW 14'!G44</f>
+        <v>48.25</v>
       </c>
       <c r="D14" s="71"/>
     </row>
@@ -2665,8 +3034,8 @@
         <v>2</v>
       </c>
       <c r="C16" s="95">
-        <f>'Zeiterfassung KW 10'!G54+'Zeiterfassung KW 11'!G75+'Zeiterfassung KW 12'!G60+'Zeiterfassung KW 13'!G50</f>
-        <v>70.75</v>
+        <f>'Zeiterfassung KW 10'!G54+'Zeiterfassung KW 11'!G75+'Zeiterfassung KW 12'!G60+'Zeiterfassung KW 13'!G50+'Zeiterfassung KW 14'!G57</f>
+        <v>80.75</v>
       </c>
       <c r="D16" s="71"/>
     </row>
@@ -2683,8 +3052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA6D3C2-36A8-4C9E-84DA-E9F34B41C748}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B35"/>
+    <sheetView topLeftCell="A7" zoomScale="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2850,6 +3219,10 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
+      <c r="I7" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="52"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2874,13 +3247,13 @@
         <v>6</v>
       </c>
       <c r="H8" s="45"/>
-      <c r="I8" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="52"/>
+      <c r="I8" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="53"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="33" t="s">
         <v>32</v>
@@ -2902,10 +3275,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="45"/>
-      <c r="I9" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="53"/>
+      <c r="I9" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2930,10 +3303,12 @@
         <v>13</v>
       </c>
       <c r="H10" s="45"/>
-      <c r="I10" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="48"/>
+      <c r="I10" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>38</v>
+      </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2959,10 +3334,10 @@
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>40</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -2989,10 +3364,10 @@
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>41</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -3008,10 +3383,10 @@
       <c r="G13" s="30"/>
       <c r="H13" s="45"/>
       <c r="I13" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="63" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>42</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -3036,11 +3411,11 @@
         <v>17</v>
       </c>
       <c r="H14" s="45"/>
-      <c r="I14" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="61" t="s">
-        <v>42</v>
+      <c r="I14" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>44</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -3066,15 +3441,11 @@
         <v>2.5</v>
       </c>
       <c r="H15" s="45"/>
-      <c r="I15" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="64" t="s">
-        <v>44</v>
-      </c>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="9" t="s">
         <v>23</v>
@@ -3096,11 +3467,13 @@
         <v>3.5</v>
       </c>
       <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
+      <c r="I16" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="73"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="33" t="s">
         <v>45</v>
@@ -3122,10 +3495,12 @@
         <v>7.5</v>
       </c>
       <c r="H17" s="45"/>
-      <c r="I17" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="73"/>
+      <c r="I17" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="75" t="s">
+        <v>48</v>
+      </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3150,11 +3525,12 @@
         <v>10</v>
       </c>
       <c r="H18" s="45"/>
-      <c r="I18" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="75" t="s">
-        <v>48</v>
+      <c r="I18" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="93">
+        <f>SUM(G12,G20,G28,G35,G42,G54)</f>
+        <v>70.5</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -3180,12 +3556,12 @@
         <v>12</v>
       </c>
       <c r="H19" s="45"/>
-      <c r="I19" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="93">
-        <f>SUM(G12,G20,G28,G35,G42,G54)</f>
-        <v>70.5</v>
+      <c r="I19" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="78">
+        <f>J18/6</f>
+        <v>11.75</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -3211,13 +3587,6 @@
         <v>13</v>
       </c>
       <c r="H20" s="45"/>
-      <c r="I20" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="78">
-        <f>J19/6</f>
-        <v>11.75</v>
-      </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3945,8 +4314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B848FEB0-4874-6243-88B3-9661B8B22D34}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5714,8 +6083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F425C3-0FA8-4A17-B5C2-5175FFEED97F}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7212,8 +7581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFFA711-327E-4345-AC1D-AE200BC2B3B8}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7245,14 +7614,14 @@
     </row>
     <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="134"/>
       <c r="H2" s="44"/>
       <c r="I2" s="58" t="s">
         <v>10</v>
@@ -7262,14 +7631,14 @@
     </row>
     <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="135" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="108"/>
+      <c r="G3" s="136"/>
       <c r="H3" s="4"/>
       <c r="I3" s="47" t="s">
         <v>11</v>
@@ -7279,7 +7648,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="137" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -7294,7 +7663,7 @@
       <c r="F4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="138" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="4"/>
@@ -7307,7 +7676,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="139" t="s">
         <v>127</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -7322,7 +7691,7 @@
       <c r="F5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="112">
+      <c r="G5" s="140">
         <f>E5</f>
         <v>1.25</v>
       </c>
@@ -7336,7 +7705,7 @@
     </row>
     <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="141" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="34" t="s">
@@ -7351,7 +7720,7 @@
       <c r="F6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="112">
+      <c r="G6" s="140">
         <f t="shared" ref="G6" si="0">G5+E6</f>
         <v>2.25</v>
       </c>
@@ -7359,7 +7728,7 @@
     </row>
     <row r="7" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="139" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="34" t="s">
@@ -7374,7 +7743,7 @@
       <c r="F7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="112">
+      <c r="G7" s="140">
         <f>G6+E7</f>
         <v>2.75</v>
       </c>
@@ -7387,8 +7756,8 @@
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="113" t="s">
-        <v>136</v>
+      <c r="B8" s="141" t="s">
+        <v>135</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>20</v>
@@ -7402,7 +7771,7 @@
       <c r="F8" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="112">
+      <c r="G8" s="140">
         <f>G7+E8</f>
         <v>6.75</v>
       </c>
@@ -7415,8 +7784,8 @@
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="113" t="s">
-        <v>137</v>
+      <c r="B9" s="141" t="s">
+        <v>136</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>20</v>
@@ -7430,7 +7799,7 @@
       <c r="F9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="112">
+      <c r="G9" s="140">
         <f>G8+E9</f>
         <v>7.25</v>
       </c>
@@ -7443,8 +7812,8 @@
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="113" t="s">
-        <v>133</v>
+      <c r="B10" s="141" t="s">
+        <v>132</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>20</v>
@@ -7458,7 +7827,7 @@
       <c r="F10" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="112">
+      <c r="G10" s="140">
         <f t="shared" ref="G10" si="1">G9+E10</f>
         <v>9.25</v>
       </c>
@@ -7473,14 +7842,14 @@
     </row>
     <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="142" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="70"/>
       <c r="D11" s="69"/>
       <c r="E11" s="69"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="115"/>
+      <c r="G11" s="143"/>
       <c r="H11" s="45"/>
       <c r="I11" s="65" t="s">
         <v>26</v>
@@ -7492,7 +7861,7 @@
     </row>
     <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="144" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -7507,7 +7876,7 @@
       <c r="F12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="138" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="45"/>
@@ -7521,7 +7890,7 @@
     </row>
     <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="141" t="s">
         <v>110</v>
       </c>
       <c r="C13" s="34" t="s">
@@ -7536,7 +7905,7 @@
       <c r="F13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="112">
+      <c r="G13" s="140">
         <f>E13</f>
         <v>2</v>
       </c>
@@ -7551,7 +7920,7 @@
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="139" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -7566,7 +7935,7 @@
       <c r="F14" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="112">
+      <c r="G14" s="140">
         <f>E14+G13</f>
         <v>3.25</v>
       </c>
@@ -7581,7 +7950,7 @@
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="139" t="s">
         <v>127</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -7596,7 +7965,7 @@
       <c r="F15" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="112">
+      <c r="G15" s="140">
         <f>E15+G14</f>
         <v>4.5</v>
       </c>
@@ -7607,7 +7976,7 @@
     </row>
     <row r="16" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="141" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -7622,7 +7991,7 @@
       <c r="F16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="112">
+      <c r="G16" s="140">
         <f t="shared" ref="G16" si="2">G15+E16</f>
         <v>5.5</v>
       </c>
@@ -7635,7 +8004,7 @@
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="139" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -7650,7 +8019,7 @@
       <c r="F17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="112">
+      <c r="G17" s="140">
         <f>G16+E17</f>
         <v>6</v>
       </c>
@@ -7665,8 +8034,8 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="111" t="s">
-        <v>133</v>
+      <c r="B18" s="139" t="s">
+        <v>132</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>20</v>
@@ -7680,7 +8049,7 @@
       <c r="F18" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="112">
+      <c r="G18" s="140">
         <f t="shared" ref="G18" si="3">G17+E18</f>
         <v>8.5</v>
       </c>
@@ -7696,14 +8065,14 @@
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="142" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="117"/>
+      <c r="G19" s="145"/>
       <c r="H19" s="45"/>
       <c r="I19" s="77" t="s">
         <v>51</v>
@@ -7716,7 +8085,7 @@
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="144" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -7731,7 +8100,7 @@
       <c r="F20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="110" t="s">
+      <c r="G20" s="138" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="4"/>
@@ -7740,7 +8109,7 @@
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="139" t="s">
         <v>127</v>
       </c>
       <c r="C21" s="34" t="s">
@@ -7755,7 +8124,7 @@
       <c r="F21" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="112">
+      <c r="G21" s="140">
         <f>E21</f>
         <v>1.25</v>
       </c>
@@ -7763,7 +8132,7 @@
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="141" t="s">
         <v>128</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -7778,7 +8147,7 @@
       <c r="F22" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="112">
+      <c r="G22" s="140">
         <f t="shared" ref="G22" si="4">G21+E22</f>
         <v>2.25</v>
       </c>
@@ -7786,7 +8155,7 @@
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="139" t="s">
         <v>74</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -7801,7 +8170,7 @@
       <c r="F23" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="112">
+      <c r="G23" s="140">
         <f>G22+E23</f>
         <v>2.75</v>
       </c>
@@ -7809,7 +8178,7 @@
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="141" t="s">
         <v>114</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -7824,7 +8193,7 @@
       <c r="F24" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="112">
+      <c r="G24" s="140">
         <f t="shared" ref="G24" si="5">G23+E24</f>
         <v>6.75</v>
       </c>
@@ -7832,8 +8201,8 @@
     </row>
     <row r="25" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="113" t="s">
-        <v>133</v>
+      <c r="B25" s="141" t="s">
+        <v>132</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>20</v>
@@ -7847,7 +8216,7 @@
       <c r="F25" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="112">
+      <c r="G25" s="140">
         <f>G24+E25</f>
         <v>8.75</v>
       </c>
@@ -7855,19 +8224,19 @@
     </row>
     <row r="26" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="142" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="117"/>
+      <c r="G26" s="145"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="144" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="18" t="s">
@@ -7882,14 +8251,14 @@
       <c r="F27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="110" t="s">
+      <c r="G27" s="138" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="71"/>
     </row>
     <row r="28" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="139" t="s">
         <v>127</v>
       </c>
       <c r="C28" s="34" t="s">
@@ -7904,7 +8273,7 @@
       <c r="F28" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="112">
+      <c r="G28" s="140">
         <f>E28</f>
         <v>1.25</v>
       </c>
@@ -7912,7 +8281,7 @@
     </row>
     <row r="29" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="113" t="s">
+      <c r="B29" s="141" t="s">
         <v>128</v>
       </c>
       <c r="C29" s="34" t="s">
@@ -7927,7 +8296,7 @@
       <c r="F29" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="112">
+      <c r="G29" s="140">
         <f t="shared" ref="G29" si="6">G28+E29</f>
         <v>2.25</v>
       </c>
@@ -7935,7 +8304,7 @@
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="139" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="34" t="s">
@@ -7950,7 +8319,7 @@
       <c r="F30" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="112">
+      <c r="G30" s="140">
         <f>G29+E30</f>
         <v>2.75</v>
       </c>
@@ -7958,8 +8327,8 @@
     </row>
     <row r="31" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="113" t="s">
-        <v>130</v>
+      <c r="B31" s="141" t="s">
+        <v>129</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>20</v>
@@ -7973,7 +8342,7 @@
       <c r="F31" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="112">
+      <c r="G31" s="140">
         <f t="shared" ref="G31" si="7">G30+E31</f>
         <v>4.25</v>
       </c>
@@ -7981,8 +8350,8 @@
     </row>
     <row r="32" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="111" t="s">
-        <v>133</v>
+      <c r="B32" s="139" t="s">
+        <v>132</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>26</v>
@@ -7996,7 +8365,7 @@
       <c r="F32" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="112">
+      <c r="G32" s="140">
         <f>G31+E32</f>
         <v>9.75</v>
       </c>
@@ -8004,8 +8373,8 @@
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="113" t="s">
-        <v>139</v>
+      <c r="B33" s="141" t="s">
+        <v>138</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>20</v>
@@ -8019,7 +8388,7 @@
       <c r="F33" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="112">
+      <c r="G33" s="140">
         <f>G32+E33</f>
         <v>10.25</v>
       </c>
@@ -8027,19 +8396,19 @@
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="142" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="117"/>
+      <c r="G34" s="145"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="144" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -8054,14 +8423,14 @@
       <c r="F35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="110" t="s">
+      <c r="G35" s="138" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="139" t="s">
         <v>127</v>
       </c>
       <c r="C36" s="34" t="s">
@@ -8076,7 +8445,7 @@
       <c r="F36" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="112">
+      <c r="G36" s="140">
         <f>E36</f>
         <v>1.25</v>
       </c>
@@ -8084,7 +8453,7 @@
     </row>
     <row r="37" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
-      <c r="B37" s="113" t="s">
+      <c r="B37" s="141" t="s">
         <v>128</v>
       </c>
       <c r="C37" s="34" t="s">
@@ -8099,7 +8468,7 @@
       <c r="F37" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="112">
+      <c r="G37" s="140">
         <f t="shared" ref="G37" si="8">G36+E37</f>
         <v>2.25</v>
       </c>
@@ -8107,7 +8476,7 @@
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="111" t="s">
+      <c r="B38" s="139" t="s">
         <v>74</v>
       </c>
       <c r="C38" s="34" t="s">
@@ -8122,7 +8491,7 @@
       <c r="F38" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="112">
+      <c r="G38" s="140">
         <f>G37+E38</f>
         <v>2.75</v>
       </c>
@@ -8130,8 +8499,8 @@
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
-      <c r="B39" s="113" t="s">
-        <v>130</v>
+      <c r="B39" s="141" t="s">
+        <v>129</v>
       </c>
       <c r="C39" s="34" t="s">
         <v>20</v>
@@ -8145,7 +8514,7 @@
       <c r="F39" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="112">
+      <c r="G39" s="140">
         <f>G38+E39</f>
         <v>3.75</v>
       </c>
@@ -8153,8 +8522,8 @@
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="113" t="s">
-        <v>130</v>
+      <c r="B40" s="141" t="s">
+        <v>129</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>20</v>
@@ -8168,7 +8537,7 @@
       <c r="F40" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="112">
+      <c r="G40" s="140">
         <f>G39+E40</f>
         <v>6.75</v>
       </c>
@@ -8176,19 +8545,19 @@
     </row>
     <row r="41" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="146" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="119"/>
+      <c r="G41" s="147"/>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="144" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="18" t="s">
@@ -8203,14 +8572,14 @@
       <c r="F42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="138" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="111" t="s">
+      <c r="B43" s="139" t="s">
         <v>127</v>
       </c>
       <c r="C43" s="34" t="s">
@@ -8225,7 +8594,7 @@
       <c r="F43" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="112">
+      <c r="G43" s="140">
         <f>E43</f>
         <v>1.25</v>
       </c>
@@ -8233,7 +8602,7 @@
     </row>
     <row r="44" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="141" t="s">
         <v>128</v>
       </c>
       <c r="C44" s="34" t="s">
@@ -8248,7 +8617,7 @@
       <c r="F44" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="112">
+      <c r="G44" s="140">
         <f t="shared" ref="G44" si="9">G43+E44</f>
         <v>2.25</v>
       </c>
@@ -8256,7 +8625,7 @@
     </row>
     <row r="45" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="139" t="s">
         <v>74</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -8271,7 +8640,7 @@
       <c r="F45" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="112">
+      <c r="G45" s="140">
         <f>G44+E45</f>
         <v>2.75</v>
       </c>
@@ -8279,8 +8648,8 @@
     </row>
     <row r="46" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="121" t="s">
-        <v>131</v>
+      <c r="B46" s="148" t="s">
+        <v>130</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>20</v>
@@ -8294,7 +8663,7 @@
       <c r="F46" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="112">
+      <c r="G46" s="140">
         <f t="shared" ref="G46:G47" si="10">G45+E46</f>
         <v>3.75</v>
       </c>
@@ -8302,8 +8671,8 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="98"/>
-      <c r="B47" s="113" t="s">
-        <v>132</v>
+      <c r="B47" s="141" t="s">
+        <v>131</v>
       </c>
       <c r="C47" s="34" t="s">
         <v>20</v>
@@ -8317,7 +8686,7 @@
       <c r="F47" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="112">
+      <c r="G47" s="140">
         <f t="shared" si="10"/>
         <v>4.75</v>
       </c>
@@ -8325,8 +8694,8 @@
     </row>
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="99"/>
-      <c r="B48" s="111" t="s">
-        <v>134</v>
+      <c r="B48" s="139" t="s">
+        <v>133</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>20</v>
@@ -8340,7 +8709,7 @@
       <c r="F48" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G48" s="112">
+      <c r="G48" s="140">
         <f>G47+E48</f>
         <v>5.75</v>
       </c>
@@ -8348,8 +8717,8 @@
     </row>
     <row r="49" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="99"/>
-      <c r="B49" s="111" t="s">
-        <v>135</v>
+      <c r="B49" s="139" t="s">
+        <v>134</v>
       </c>
       <c r="C49" s="34" t="s">
         <v>20</v>
@@ -8363,30 +8732,30 @@
       <c r="F49" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="112">
+      <c r="G49" s="140">
         <f>G48+E49</f>
         <v>7.75</v>
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="99"/>
-      <c r="B50" s="111" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="35">
+      <c r="B50" s="149" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="150" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="151">
         <v>2</v>
       </c>
-      <c r="F50" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="112">
+      <c r="F50" s="152" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="153">
         <f>G49+E50</f>
         <v>9.75</v>
       </c>
@@ -8484,16 +8853,1439 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE88731-7D73-44A3-9EB1-98150E3D1D2E}">
+  <dimension ref="A1:K77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="67">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="140">
+        <f>E5</f>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="68">
+        <v>44297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="35">
+        <v>1</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="140">
+        <f t="shared" ref="G6" si="0">G5+E6</f>
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="140">
+        <f>G6+E7</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="52"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="140">
+        <f>G7+E8</f>
+        <v>4</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="35">
+        <v>1</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="140">
+        <f>G8+E9</f>
+        <v>5</v>
+      </c>
+      <c r="H9" s="45"/>
+      <c r="I9" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="35">
+        <v>4</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="140">
+        <f>G9+E10</f>
+        <v>9</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="35">
+        <v>2</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="140">
+        <f>G10+E11</f>
+        <v>11</v>
+      </c>
+      <c r="H11" s="45"/>
+      <c r="I11" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="140">
+        <f>E14</f>
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="35">
+        <v>1</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="140">
+        <f>E15+G14</f>
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="35">
+        <v>3</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="140">
+        <f>E16+G15</f>
+        <v>4.5</v>
+      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="73"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="140">
+        <f t="shared" ref="G17" si="1">G16+E17</f>
+        <v>6</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="139" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="35">
+        <v>4</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="140">
+        <f>G17+E18</f>
+        <v>10</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="93">
+        <f>SUM(G11,G20,G28,G37,G45,G57)</f>
+        <v>56</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="35">
+        <v>1</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="140">
+        <f>G18+E19</f>
+        <v>11</v>
+      </c>
+      <c r="H19" s="45"/>
+      <c r="I19" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="78">
+        <f>J18/6</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="35">
+        <v>1</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="140">
+        <f>G19+E20</f>
+        <v>12</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="140">
+        <f>E23</f>
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="35">
+        <v>1</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="140">
+        <f>G23+E24</f>
+        <v>1.5</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="140">
+        <f>G24+E25</f>
+        <v>3</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="139" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="35">
+        <v>3</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="140">
+        <f>G25+E26</f>
+        <v>6</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="35">
+        <v>1</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="140">
+        <f>G26+E27</f>
+        <v>7</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="35">
+        <v>1</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="140">
+        <f>G27+E28</f>
+        <v>8</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="71"/>
+    </row>
+    <row r="30" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="71"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="140">
+        <f>E31</f>
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="35">
+        <v>1</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="140">
+        <f t="shared" ref="G32:G37" si="2">G31+E32</f>
+        <v>1.5</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="140">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="35">
+        <v>1</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="140">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="140">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="141" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="35">
+        <v>2</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="140">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="141" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="35">
+        <v>2</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="140">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="140">
+        <f>E40</f>
+        <v>0.5</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="35">
+        <v>1</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="140">
+        <f t="shared" ref="G41:G46" si="3">G40+E41</f>
+        <v>1.5</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="140">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="35">
+        <v>1</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="140">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="35">
+        <v>1</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="140">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="141" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="35">
+        <v>1</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="140">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="141" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="35">
+        <v>2</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="140">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="140">
+        <f>E49</f>
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="71"/>
+    </row>
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="35">
+        <v>1</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="140">
+        <f t="shared" ref="G50:G53" si="4">G49+E50</f>
+        <v>1.5</v>
+      </c>
+      <c r="H50" s="71"/>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="140">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H51" s="71"/>
+    </row>
+    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="98"/>
+      <c r="B52" s="148" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="140">
+        <f t="shared" si="4"/>
+        <v>3.25</v>
+      </c>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="99"/>
+      <c r="B53" s="141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="35">
+        <v>3</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="140">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="99"/>
+      <c r="B54" s="141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="35">
+        <v>1</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="140">
+        <f>G53+E54</f>
+        <v>7.25</v>
+      </c>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="99"/>
+      <c r="B55" s="141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="35">
+        <v>1</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="140">
+        <f>G54+E55</f>
+        <v>8.25</v>
+      </c>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="99"/>
+      <c r="B56" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="140">
+        <f>G55+E56</f>
+        <v>9</v>
+      </c>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="99"/>
+      <c r="B57" s="149" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="150" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="151">
+        <v>1</v>
+      </c>
+      <c r="F57" s="152" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="153">
+        <f>G56+E57</f>
+        <v>10</v>
+      </c>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="99"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="99"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="99"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="99"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="99"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="99"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="99"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="99"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="99"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="99"/>
+      <c r="H67" s="100"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="99"/>
+      <c r="H68" s="100"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="99"/>
+      <c r="H69" s="100"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="99"/>
+      <c r="H70" s="100"/>
+    </row>
+    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="99"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="99"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="99"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="99"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="99"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="99"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010004611FF326026746BE7BA6B533563D7A" ma:contentTypeVersion="7" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="68768b3a56787066a869a81186633cca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9261f3b7-eb37-44bc-ab49-41e0f5c5a530" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ce60f8ec90a8895216d4d1414fc8ef8" ns2:_="">
     <xsd:import namespace="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
@@ -8657,21 +10449,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCF450D-C3EB-4368-8E96-CCC92F1AC82B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF543F68-0634-48D3-9512-78B815FCAD16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8689,18 +10482,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F9D30A-50A2-408B-B3F0-EDB4CF8C0B75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCF450D-C3EB-4368-8E96-CCC92F1AC82B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/website/src/documents/Privat/Apollon_Aufwandserfassung.xlsx
+++ b/website/src/documents/Privat/Apollon_Aufwandserfassung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg.sharepoint.com/sites/o365grpSWE-Projekt/Freigegebene Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2350" documentId="13_ncr:1_{CF72DE10-053D-F84A-BF2F-97DB33227B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{19F185EB-5A28-4CB6-BEE1-F7C4DA0E028C}"/>
+  <xr:revisionPtr revIDLastSave="2579" documentId="13_ncr:1_{CF72DE10-053D-F84A-BF2F-97DB33227B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E5C836E-7A54-4447-9631-361BFA6C389D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{5DFA726E-B0C4-4500-AF96-5BC0FDCBA0B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{5DFA726E-B0C4-4500-AF96-5BC0FDCBA0B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="Zeiterfassung KW 13" sheetId="5" r:id="rId5"/>
     <sheet name="Zeiterfassung KW 14" sheetId="6" r:id="rId6"/>
     <sheet name="Zeiterfassung KW 15" sheetId="7" r:id="rId7"/>
+    <sheet name="Zeiterfassung KW 16" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="200">
   <si>
     <r>
       <rPr>
@@ -62,7 +63,7 @@
     </r>
   </si>
   <si>
-    <t>5. Woche</t>
+    <t>7. Woche</t>
   </si>
   <si>
     <t>Team</t>
@@ -647,6 +648,58 @@
   <si>
     <t>Modellierung DB und sonstige Überarbeitung</t>
   </si>
+  <si>
+    <t>Kunden Review 2</t>
+  </si>
+  <si>
+    <t>Zweiwöchiges Retro</t>
+  </si>
+  <si>
+    <t>Modellimlementierung</t>
+  </si>
+  <si>
+    <t>Paired Progr. Mit Alfred
+Rustemi</t>
+  </si>
+  <si>
+    <t>Datenbankanbindung</t>
+  </si>
+  <si>
+    <t>Modellierung Backend</t>
+  </si>
+  <si>
+    <t>Frontend Implementierung</t>
+  </si>
+  <si>
+    <t>Paired Progr. Mit Leon Jerke</t>
+  </si>
+  <si>
+    <t>Paired Progr. Mit Paul Burkard</t>
+  </si>
+  <si>
+    <t>Bearbeitung PP für Review</t>
+  </si>
+  <si>
+    <t>Mit Etienne Zink</t>
+  </si>
+  <si>
+    <t>Programmierung Dtos</t>
+  </si>
+  <si>
+    <t>Mit Daniel Kröker</t>
+  </si>
+  <si>
+    <t>Review und Überarbeitung Dtos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Überarbeitung Dtos</t>
+  </si>
+  <si>
+    <t>Modellimplementierung</t>
+  </si>
 </sst>
 </file>
 
@@ -655,7 +708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2374,7 +2427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2826,42 +2879,45 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2884,7 +2940,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3183,10 +3239,10 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="79"/>
     <col min="2" max="2" width="21" style="79" bestFit="1" customWidth="1"/>
@@ -3195,11 +3251,11 @@
     <col min="5" max="16384" width="10.85546875" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
     </row>
-    <row r="2" spans="1:5" ht="44.1" thickBot="1">
+    <row r="2" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
       <c r="B2" s="83" t="s">
         <v>0</v>
@@ -3209,7 +3265,7 @@
       </c>
       <c r="D2" s="169"/>
     </row>
-    <row r="3" spans="1:5" ht="37.5" customHeight="1">
+    <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="80"/>
       <c r="B3" s="156" t="s">
         <v>2</v>
@@ -3221,21 +3277,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="80"/>
       <c r="B4" s="85" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="148">
-        <f>'Zeiterfassung KW 10'!J18+'Zeiterfassung KW 11'!J18+'Zeiterfassung KW 12'!J18+'Zeiterfassung KW 13'!J18+'Zeiterfassung KW 14'!J18+'Zeiterfassung KW 15'!J18</f>
-        <v>498</v>
+        <f>'Zeiterfassung KW 10'!J18+'Zeiterfassung KW 11'!J18+'Zeiterfassung KW 12'!J18+'Zeiterfassung KW 13'!J18+'Zeiterfassung KW 14'!J18+'Zeiterfassung KW 15'!J18+'Zeiterfassung KW 16'!J18</f>
+        <v>569.25</v>
       </c>
       <c r="D4" s="157">
-        <f>C4/6</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <f>C4/7</f>
+        <v>81.321428571428569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="80"/>
       <c r="B5" s="149" t="s">
         <v>5</v>
@@ -3243,21 +3299,21 @@
       <c r="C5" s="147"/>
       <c r="D5" s="84"/>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
       <c r="B6" s="85" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="148">
-        <f>'Zeiterfassung KW 10'!G12+'Zeiterfassung KW 11'!G14+'Zeiterfassung KW 12'!G11+'Zeiterfassung KW 13'!G10+'Zeiterfassung KW 14'!G11+'Zeiterfassung KW 15'!G10</f>
-        <v>92.25</v>
+        <f>'Zeiterfassung KW 10'!G12+'Zeiterfassung KW 11'!G14+'Zeiterfassung KW 12'!G11+'Zeiterfassung KW 13'!G10+'Zeiterfassung KW 14'!G11+'Zeiterfassung KW 15'!G10+'Zeiterfassung KW 16'!G9</f>
+        <v>106</v>
       </c>
       <c r="D6" s="157">
-        <f>C6/6</f>
-        <v>15.375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <f>C6/7</f>
+        <v>15.142857142857142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80"/>
       <c r="B7" s="152" t="s">
         <v>6</v>
@@ -3266,21 +3322,21 @@
       <c r="D7" s="84"/>
       <c r="E7" s="86"/>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80"/>
       <c r="B8" s="153" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="150">
-        <f>'Zeiterfassung KW 10'!G20+'Zeiterfassung KW 11'!G30+'Zeiterfassung KW 12'!G23+'Zeiterfassung KW 13'!G18+'Zeiterfassung KW 14'!G20+'Zeiterfassung KW 15'!G19</f>
-        <v>97</v>
+        <f>'Zeiterfassung KW 10'!G20+'Zeiterfassung KW 11'!G30+'Zeiterfassung KW 12'!G23+'Zeiterfassung KW 13'!G18+'Zeiterfassung KW 14'!G20+'Zeiterfassung KW 15'!G19+'Zeiterfassung KW 16'!G18</f>
+        <v>114.25</v>
       </c>
       <c r="D8" s="157">
-        <f>C8/6</f>
-        <v>16.166666666666668</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <f>C8/7</f>
+        <v>16.321428571428573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80"/>
       <c r="B9" s="152" t="s">
         <v>7</v>
@@ -3288,21 +3344,21 @@
       <c r="C9" s="147"/>
       <c r="D9" s="84"/>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="80"/>
       <c r="B10" s="153" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="150">
-        <f>'Zeiterfassung KW 10'!G28+'Zeiterfassung KW 11'!G41+'Zeiterfassung KW 12'!G30+'Zeiterfassung KW 13'!G25+'Zeiterfassung KW 14'!G28+'Zeiterfassung KW 15'!G25</f>
-        <v>78.75</v>
+        <f>'Zeiterfassung KW 10'!G28+'Zeiterfassung KW 11'!G41+'Zeiterfassung KW 12'!G30+'Zeiterfassung KW 13'!G25+'Zeiterfassung KW 14'!G28+'Zeiterfassung KW 15'!G25+'Zeiterfassung KW 16'!G24</f>
+        <v>90.75</v>
       </c>
       <c r="D10" s="157">
-        <f>C10/6</f>
-        <v>13.125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <f>C10/7</f>
+        <v>12.964285714285714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="80"/>
       <c r="B11" s="152" t="s">
         <v>8</v>
@@ -3310,21 +3366,21 @@
       <c r="C11" s="147"/>
       <c r="D11" s="84"/>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="80"/>
       <c r="B12" s="153" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="150">
-        <f>'Zeiterfassung KW 10'!G35+'Zeiterfassung KW 11'!G51+'Zeiterfassung KW 12'!G39+'Zeiterfassung KW 13'!G33+'Zeiterfassung KW 14'!G37+'Zeiterfassung KW 15'!G35</f>
-        <v>70.25</v>
+        <f>'Zeiterfassung KW 10'!G35+'Zeiterfassung KW 11'!G51+'Zeiterfassung KW 12'!G39+'Zeiterfassung KW 13'!G33+'Zeiterfassung KW 14'!G37+'Zeiterfassung KW 15'!G35+'Zeiterfassung KW 16'!G32</f>
+        <v>79</v>
       </c>
       <c r="D12" s="157">
-        <f>C12/6</f>
-        <v>11.708333333333334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <f>C12/7</f>
+        <v>11.285714285714286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="80"/>
       <c r="B13" s="152" t="s">
         <v>9</v>
@@ -3332,21 +3388,21 @@
       <c r="C13" s="147"/>
       <c r="D13" s="84"/>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="80"/>
       <c r="B14" s="153" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="150">
-        <f>'Zeiterfassung KW 10'!G42+'Zeiterfassung KW 11'!G63+'Zeiterfassung KW 12'!G48+'Zeiterfassung KW 13'!G40+'Zeiterfassung KW 14'!G46+'Zeiterfassung KW 15'!G44</f>
-        <v>61.5</v>
+        <f>'Zeiterfassung KW 10'!G42+'Zeiterfassung KW 11'!G63+'Zeiterfassung KW 12'!G48+'Zeiterfassung KW 13'!G40+'Zeiterfassung KW 14'!G46+'Zeiterfassung KW 15'!G44+'Zeiterfassung KW 16'!G38</f>
+        <v>72.25</v>
       </c>
       <c r="D14" s="157">
-        <f>C14/6</f>
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <f>C14/7</f>
+        <v>10.321428571428571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="80"/>
       <c r="B15" s="152" t="s">
         <v>10</v>
@@ -3354,21 +3410,21 @@
       <c r="C15" s="147"/>
       <c r="D15" s="84"/>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="80"/>
       <c r="B16" s="154" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="151">
-        <f>'Zeiterfassung KW 10'!G54+'Zeiterfassung KW 11'!G75+'Zeiterfassung KW 12'!G60+'Zeiterfassung KW 13'!G50+'Zeiterfassung KW 14'!G57+'Zeiterfassung KW 15'!G55</f>
-        <v>98.25</v>
+        <f>'Zeiterfassung KW 10'!G54+'Zeiterfassung KW 11'!G75+'Zeiterfassung KW 12'!G60+'Zeiterfassung KW 13'!G50+'Zeiterfassung KW 14'!G57+'Zeiterfassung KW 15'!G55+'Zeiterfassung KW 16'!G46</f>
+        <v>107</v>
       </c>
       <c r="D16" s="158">
-        <f>C16/6</f>
-        <v>16.375</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1">
+        <f>C16/7</f>
+        <v>15.285714285714286</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="82"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
@@ -3385,11 +3441,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA6D3C2-36A8-4C9E-84DA-E9F34B41C748}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="3"/>
     <col min="2" max="2" width="30.7109375" style="3" customWidth="1"/>
@@ -3406,7 +3462,7 @@
     <col min="14" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
       <c r="B1" s="55"/>
       <c r="C1" s="1"/>
@@ -3418,7 +3474,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="42" thickBot="1">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="56" t="s">
         <v>11</v>
@@ -3432,10 +3488,10 @@
       <c r="I2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="159"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="23" t="s">
         <v>5</v>
@@ -3452,7 +3508,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="17.100000000000001" thickBot="1">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="50" t="s">
         <v>14</v>
@@ -3480,7 +3536,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.100000000000001" thickBot="1">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="9" t="s">
         <v>21</v>
@@ -3509,7 +3565,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="9" t="s">
         <v>25</v>
@@ -3531,7 +3587,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="33" t="s">
         <v>27</v>
@@ -3558,7 +3614,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="33" t="s">
         <v>31</v>
@@ -3586,7 +3642,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="17.100000000000001" thickBot="1">
+    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="33" t="s">
         <v>35</v>
@@ -3614,7 +3670,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="33" t="s">
         <v>37</v>
@@ -3644,7 +3700,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1">
+    <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="33" t="s">
         <v>40</v>
@@ -3674,7 +3730,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1">
+    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="9" t="s">
         <v>42</v>
@@ -3704,7 +3760,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="26" t="s">
         <v>6</v>
@@ -3723,7 +3779,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="15" t="s">
         <v>14</v>
@@ -3752,7 +3808,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="15" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="9" t="s">
         <v>21</v>
@@ -3778,7 +3834,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="44.1" thickBot="1">
+    <row r="16" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -3806,7 +3862,7 @@
       <c r="J16" s="72"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="33" thickBot="1">
+    <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="33" t="s">
         <v>47</v>
@@ -3836,7 +3892,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="33" t="s">
         <v>50</v>
@@ -3867,7 +3923,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="33" t="s">
         <v>27</v>
@@ -3898,7 +3954,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="9" t="s">
         <v>42</v>
@@ -3922,7 +3978,7 @@
       <c r="H20" s="45"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="26" t="s">
         <v>7</v>
@@ -3934,7 +3990,7 @@
       <c r="G21" s="31"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="15" t="s">
         <v>14</v>
@@ -3958,7 +4014,7 @@
       <c r="I22" s="43"/>
       <c r="J22" s="43"/>
     </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="9" t="s">
         <v>21</v>
@@ -3981,7 +4037,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="9" t="s">
         <v>25</v>
@@ -4004,7 +4060,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="9" t="s">
         <v>54</v>
@@ -4027,7 +4083,7 @@
       </c>
       <c r="H25" s="70"/>
     </row>
-    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="9" t="s">
         <v>55</v>
@@ -4050,7 +4106,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="9" t="s">
         <v>56</v>
@@ -4073,7 +4129,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="9" t="s">
         <v>42</v>
@@ -4096,7 +4152,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="26" t="s">
         <v>8</v>
@@ -4108,7 +4164,7 @@
       <c r="G29" s="31"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="15" t="s">
         <v>14</v>
@@ -4130,7 +4186,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>21</v>
@@ -4153,7 +4209,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="9" t="s">
         <v>25</v>
@@ -4176,7 +4232,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="9" t="s">
         <v>57</v>
@@ -4199,7 +4255,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="9" t="s">
         <v>58</v>
@@ -4222,7 +4278,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="9" t="s">
         <v>42</v>
@@ -4245,7 +4301,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="26" t="s">
         <v>9</v>
@@ -4257,7 +4313,7 @@
       <c r="G36" s="31"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="15" t="s">
         <v>14</v>
@@ -4279,7 +4335,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="9" t="s">
         <v>21</v>
@@ -4302,7 +4358,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="9" t="s">
         <v>25</v>
@@ -4325,7 +4381,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="15.95">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="9" t="s">
         <v>60</v>
@@ -4347,7 +4403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
         <v>61</v>
       </c>
@@ -4368,7 +4424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>42</v>
       </c>
@@ -4389,7 +4445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="24" t="s">
         <v>10</v>
       </c>
@@ -4399,7 +4455,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
         <v>14</v>
       </c>
@@ -4419,7 +4475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.95">
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>62</v>
       </c>
@@ -4440,7 +4496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18" customHeight="1">
+    <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>63</v>
       </c>
@@ -4461,7 +4517,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="29.25" customHeight="1">
+    <row r="47" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="33" t="s">
         <v>64</v>
       </c>
@@ -4482,7 +4538,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>21</v>
       </c>
@@ -4503,7 +4559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>25</v>
       </c>
@@ -4524,7 +4580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>65</v>
       </c>
@@ -4545,7 +4601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="21.75" customHeight="1">
+    <row r="51" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>42</v>
       </c>
@@ -4567,7 +4623,7 @@
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="2:8" ht="21.75" customHeight="1">
+    <row r="52" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
         <v>66</v>
       </c>
@@ -4589,7 +4645,7 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="2:8" ht="32.1">
+    <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="33" t="s">
         <v>68</v>
       </c>
@@ -4611,7 +4667,7 @@
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="2:8" ht="33" thickBot="1">
+    <row r="54" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="32" t="s">
         <v>69</v>
       </c>
@@ -4633,7 +4689,7 @@
       </c>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="53"/>
       <c r="G55" s="43"/>
     </row>
@@ -4651,7 +4707,7 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
@@ -4666,7 +4722,7 @@
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
       <c r="B1" s="92"/>
       <c r="C1" s="93"/>
@@ -4678,7 +4734,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="42" thickBot="1">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="94" t="s">
         <v>11</v>
@@ -4692,10 +4748,10 @@
       <c r="I2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="159"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="98" t="s">
         <v>5</v>
@@ -4712,7 +4768,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="17.100000000000001" thickBot="1">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="100" t="s">
         <v>14</v>
@@ -4740,7 +4796,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="102" t="s">
         <v>70</v>
@@ -4769,7 +4825,7 @@
         <v>44276</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="104" t="s">
         <v>71</v>
@@ -4792,7 +4848,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="102" t="s">
         <v>73</v>
@@ -4820,7 +4876,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="104" t="s">
         <v>74</v>
@@ -4848,7 +4904,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="17.100000000000001" thickBot="1">
+    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="104" t="s">
         <v>75</v>
@@ -4876,7 +4932,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="104" t="s">
         <v>76</v>
@@ -4906,7 +4962,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1">
+    <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="104" t="s">
         <v>77</v>
@@ -4936,7 +4992,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1">
+    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="102" t="s">
         <v>78</v>
@@ -4966,7 +5022,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="118" t="s">
         <v>79</v>
@@ -4996,7 +5052,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="118" t="s">
         <v>81</v>
@@ -5026,7 +5082,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="105" t="s">
         <v>6</v>
@@ -5041,7 +5097,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="107" t="s">
         <v>14</v>
@@ -5068,7 +5124,7 @@
       <c r="J16" s="72"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="17.100000000000001" thickBot="1">
+    <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="102" t="s">
         <v>70</v>
@@ -5098,7 +5154,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="104" t="s">
         <v>71</v>
@@ -5129,7 +5185,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="102" t="s">
         <v>83</v>
@@ -5160,7 +5216,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="102" t="s">
         <v>84</v>
@@ -5184,7 +5240,7 @@
       <c r="H20" s="45"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="102" t="s">
         <v>73</v>
@@ -5207,7 +5263,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="104" t="s">
         <v>85</v>
@@ -5232,7 +5288,7 @@
       <c r="I22" s="43"/>
       <c r="J22" s="43"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="104" t="s">
         <v>74</v>
@@ -5255,7 +5311,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="104" t="s">
         <v>75</v>
@@ -5278,7 +5334,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="104" t="s">
         <v>76</v>
@@ -5301,7 +5357,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="102" t="s">
         <v>86</v>
@@ -5324,7 +5380,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="33" customHeight="1" thickBot="1">
+    <row r="27" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="102" t="s">
         <v>87</v>
@@ -5347,7 +5403,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
+    <row r="28" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="102" t="s">
         <v>89</v>
@@ -5370,7 +5426,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
+    <row r="29" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="102" t="s">
         <v>78</v>
@@ -5393,7 +5449,7 @@
       </c>
       <c r="H29" s="70"/>
     </row>
-    <row r="30" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
+    <row r="30" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="102" t="s">
         <v>90</v>
@@ -5416,7 +5472,7 @@
       </c>
       <c r="H30" s="70"/>
     </row>
-    <row r="31" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
+    <row r="31" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="105" t="s">
         <v>7</v>
@@ -5428,7 +5484,7 @@
       <c r="G31" s="108"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="107" t="s">
         <v>14</v>
@@ -5450,7 +5506,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
+    <row r="33" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="102" t="s">
         <v>70</v>
@@ -5473,7 +5529,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="104" t="s">
         <v>74</v>
@@ -5496,7 +5552,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="104" t="s">
         <v>75</v>
@@ -5519,7 +5575,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+    <row r="36" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="104" t="s">
         <v>91</v>
@@ -5542,7 +5598,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+    <row r="37" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="104" t="s">
         <v>92</v>
@@ -5565,7 +5621,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="104" t="s">
         <v>76</v>
@@ -5588,7 +5644,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+    <row r="39" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="102" t="s">
         <v>93</v>
@@ -5609,7 +5665,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="30" customHeight="1" thickBot="1">
+    <row r="40" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="102" t="s">
         <v>94</v>
@@ -5632,7 +5688,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
+    <row r="41" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="102" t="s">
         <v>78</v>
@@ -5655,7 +5711,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
+    <row r="42" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="105" t="s">
         <v>8</v>
@@ -5667,7 +5723,7 @@
       <c r="G42" s="108"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1">
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="107" t="s">
         <v>14</v>
@@ -5689,7 +5745,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+    <row r="44" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="102" t="s">
         <v>70</v>
@@ -5712,7 +5768,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="104" t="s">
         <v>74</v>
@@ -5735,7 +5791,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="22.5" customHeight="1" thickBot="1">
+    <row r="46" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="104" t="s">
         <v>75</v>
@@ -5758,7 +5814,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="24" customHeight="1" thickBot="1">
+    <row r="47" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="104" t="s">
         <v>95</v>
@@ -5779,7 +5835,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="104" t="s">
         <v>92</v>
@@ -5802,7 +5858,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
+    <row r="49" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="112" t="s">
         <v>96</v>
@@ -5825,7 +5881,7 @@
       </c>
       <c r="H49" s="70"/>
     </row>
-    <row r="50" spans="1:8" ht="15.95">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="89"/>
       <c r="B50" s="104" t="s">
         <v>76</v>
@@ -5848,7 +5904,7 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
       <c r="B51" s="102" t="s">
         <v>78</v>
@@ -5871,7 +5927,7 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="90"/>
       <c r="B52" s="105" t="s">
         <v>9</v>
@@ -5883,7 +5939,7 @@
       <c r="G52" s="108"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="90"/>
       <c r="B53" s="107" t="s">
         <v>14</v>
@@ -5905,7 +5961,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="36.75" customHeight="1">
+    <row r="54" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="90"/>
       <c r="B54" s="102" t="s">
         <v>70</v>
@@ -5928,7 +5984,7 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="15.95">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="90"/>
       <c r="B55" s="104" t="s">
         <v>98</v>
@@ -5951,7 +6007,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="33" customHeight="1">
+    <row r="56" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="90"/>
       <c r="B56" s="104" t="s">
         <v>99</v>
@@ -5974,7 +6030,7 @@
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="33" customHeight="1">
+    <row r="57" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
       <c r="B57" s="104" t="s">
         <v>74</v>
@@ -5997,7 +6053,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="33" customHeight="1">
+    <row r="58" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="B58" s="104" t="s">
         <v>75</v>
@@ -6020,7 +6076,7 @@
       </c>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="29.25" customHeight="1">
+    <row r="59" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="B59" s="104" t="s">
         <v>76</v>
@@ -6043,7 +6099,7 @@
       </c>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="19.5" customHeight="1">
+    <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
       <c r="B60" s="102" t="s">
         <v>78</v>
@@ -6066,7 +6122,7 @@
       </c>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="34.5" customHeight="1">
+    <row r="61" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
       <c r="B61" s="102" t="s">
         <v>100</v>
@@ -6089,7 +6145,7 @@
       </c>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="24.75" customHeight="1">
+    <row r="62" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
       <c r="B62" s="102" t="s">
         <v>101</v>
@@ -6112,7 +6168,7 @@
       </c>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="24.75" customHeight="1">
+    <row r="63" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
       <c r="B63" s="102" t="s">
         <v>102</v>
@@ -6135,7 +6191,7 @@
       </c>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="90"/>
       <c r="B64" s="109" t="s">
         <v>10</v>
@@ -6147,7 +6203,7 @@
       <c r="G64" s="110"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="15.95">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="90"/>
       <c r="B65" s="107" t="s">
         <v>14</v>
@@ -6169,7 +6225,7 @@
       </c>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" ht="47.25" customHeight="1">
+    <row r="66" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="90"/>
       <c r="B66" s="102" t="s">
         <v>103</v>
@@ -6192,7 +6248,7 @@
       </c>
       <c r="H66" s="91"/>
     </row>
-    <row r="67" spans="1:8" ht="15.95">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="90"/>
       <c r="B67" s="102" t="s">
         <v>70</v>
@@ -6215,7 +6271,7 @@
       </c>
       <c r="H67" s="91"/>
     </row>
-    <row r="68" spans="1:8" ht="15.95">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="90"/>
       <c r="B68" s="102" t="s">
         <v>92</v>
@@ -6238,7 +6294,7 @@
       </c>
       <c r="H68" s="91"/>
     </row>
-    <row r="69" spans="1:8" ht="48">
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A69" s="90"/>
       <c r="B69" s="112" t="s">
         <v>96</v>
@@ -6261,7 +6317,7 @@
       </c>
       <c r="H69" s="91"/>
     </row>
-    <row r="70" spans="1:8" ht="20.25" customHeight="1">
+    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
       <c r="B70" s="104" t="s">
         <v>74</v>
@@ -6284,7 +6340,7 @@
       </c>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" ht="20.25" customHeight="1">
+    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="90"/>
       <c r="B71" s="104" t="s">
         <v>75</v>
@@ -6307,7 +6363,7 @@
       </c>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" ht="20.25" customHeight="1">
+    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="90"/>
       <c r="B72" s="104" t="s">
         <v>106</v>
@@ -6330,7 +6386,7 @@
       </c>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="20.25" customHeight="1">
+    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="90"/>
       <c r="B73" s="104" t="s">
         <v>76</v>
@@ -6353,7 +6409,7 @@
       </c>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="20.25" customHeight="1">
+    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="90"/>
       <c r="B74" s="102" t="s">
         <v>107</v>
@@ -6376,7 +6432,7 @@
       </c>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+    <row r="75" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="90"/>
       <c r="B75" s="113" t="s">
         <v>78</v>
@@ -6399,7 +6455,7 @@
       </c>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="20.25" customHeight="1">
+    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="53"/>
       <c r="C76" s="43"/>
       <c r="D76" s="43"/>
@@ -6420,7 +6476,7 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
@@ -6435,7 +6491,7 @@
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
       <c r="B1" s="92"/>
       <c r="C1" s="93"/>
@@ -6447,7 +6503,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="42" thickBot="1">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="94" t="s">
         <v>11</v>
@@ -6461,10 +6517,10 @@
       <c r="I2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="159"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="98" t="s">
         <v>5</v>
@@ -6481,7 +6537,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="17.100000000000001" thickBot="1">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="100" t="s">
         <v>14</v>
@@ -6509,7 +6565,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="102" t="s">
         <v>108</v>
@@ -6538,7 +6594,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="104" t="s">
         <v>74</v>
@@ -6561,7 +6617,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="102" t="s">
         <v>76</v>
@@ -6589,7 +6645,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="104" t="s">
         <v>110</v>
@@ -6617,7 +6673,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="104" t="s">
         <v>111</v>
@@ -6645,7 +6701,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="104" t="s">
         <v>112</v>
@@ -6675,7 +6731,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="104" t="s">
         <v>113</v>
@@ -6705,7 +6761,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="105" t="s">
         <v>6</v>
@@ -6724,7 +6780,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="107" t="s">
         <v>14</v>
@@ -6753,7 +6809,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="27" customHeight="1" thickBot="1">
+    <row r="14" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="104" t="s">
         <v>114</v>
@@ -6783,7 +6839,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="102" t="s">
         <v>108</v>
@@ -6809,7 +6865,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="104" t="s">
         <v>27</v>
@@ -6837,7 +6893,7 @@
       <c r="J16" s="72"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="102" t="s">
         <v>115</v>
@@ -6867,7 +6923,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="17.100000000000001" thickBot="1">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="102" t="s">
         <v>117</v>
@@ -6898,7 +6954,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="19" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="102" t="s">
         <v>118</v>
@@ -6929,7 +6985,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
+    <row r="20" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="104" t="s">
         <v>74</v>
@@ -6953,7 +7009,7 @@
       <c r="H20" s="45"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="102" t="s">
         <v>76</v>
@@ -6977,7 +7033,7 @@
       <c r="H21" s="45"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="104" t="s">
         <v>110</v>
@@ -7000,7 +7056,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="104" t="s">
         <v>111</v>
@@ -7025,7 +7081,7 @@
       <c r="I23" s="43"/>
       <c r="J23" s="43"/>
     </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="105" t="s">
         <v>7</v>
@@ -7037,7 +7093,7 @@
       <c r="G24" s="108"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="18" customHeight="1" thickBot="1">
+    <row r="25" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="107" t="s">
         <v>14</v>
@@ -7059,7 +7115,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="102" t="s">
         <v>108</v>
@@ -7082,7 +7138,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="27" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="104" t="s">
         <v>74</v>
@@ -7105,7 +7161,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
+    <row r="28" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="102" t="s">
         <v>76</v>
@@ -7128,7 +7184,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="29" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="104" t="s">
         <v>118</v>
@@ -7151,7 +7207,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="104" t="s">
         <v>110</v>
@@ -7174,7 +7230,7 @@
       </c>
       <c r="H30" s="70"/>
     </row>
-    <row r="31" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="105" t="s">
         <v>8</v>
@@ -7186,7 +7242,7 @@
       <c r="G31" s="108"/>
       <c r="H31" s="70"/>
     </row>
-    <row r="32" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="107" t="s">
         <v>14</v>
@@ -7208,7 +7264,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
+    <row r="33" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="102" t="s">
         <v>108</v>
@@ -7231,7 +7287,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
+    <row r="34" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="102" t="s">
         <v>119</v>
@@ -7254,7 +7310,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
+    <row r="35" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="102" t="s">
         <v>120</v>
@@ -7277,7 +7333,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="104" t="s">
         <v>74</v>
@@ -7300,7 +7356,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+    <row r="37" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="102" t="s">
         <v>76</v>
@@ -7323,7 +7379,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="104" t="s">
         <v>110</v>
@@ -7346,7 +7402,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+    <row r="39" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="104" t="s">
         <v>121</v>
@@ -7367,7 +7423,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+    <row r="40" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="105" t="s">
         <v>9</v>
@@ -7379,7 +7435,7 @@
       <c r="G40" s="108"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1" thickBot="1">
+    <row r="41" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="107" t="s">
         <v>14</v>
@@ -7401,7 +7457,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
+    <row r="42" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="102" t="s">
         <v>108</v>
@@ -7424,7 +7480,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
+    <row r="43" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="104" t="s">
         <v>74</v>
@@ -7447,7 +7503,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1">
+    <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="102" t="s">
         <v>76</v>
@@ -7470,7 +7526,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+    <row r="45" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="104" t="s">
         <v>110</v>
@@ -7493,7 +7549,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+    <row r="46" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="104" t="s">
         <v>122</v>
@@ -7516,7 +7572,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
+    <row r="47" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="104" t="s">
         <v>123</v>
@@ -7539,7 +7595,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="24" customHeight="1" thickBot="1">
+    <row r="48" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="102" t="s">
         <v>124</v>
@@ -7562,7 +7618,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="109" t="s">
         <v>10</v>
@@ -7574,7 +7630,7 @@
       <c r="G49" s="110"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
+    <row r="50" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="107" t="s">
         <v>14</v>
@@ -7596,7 +7652,7 @@
       </c>
       <c r="H50" s="70"/>
     </row>
-    <row r="51" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
+    <row r="51" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="102" t="s">
         <v>108</v>
@@ -7619,7 +7675,7 @@
       </c>
       <c r="H51" s="70"/>
     </row>
-    <row r="52" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
+    <row r="52" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="102" t="s">
         <v>125</v>
@@ -7642,7 +7698,7 @@
       </c>
       <c r="H52" s="70"/>
     </row>
-    <row r="53" spans="1:8" ht="15.95">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="89"/>
       <c r="B53" s="102" t="s">
         <v>112</v>
@@ -7665,7 +7721,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="90"/>
       <c r="B54" s="112" t="s">
         <v>126</v>
@@ -7688,7 +7744,7 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="90"/>
       <c r="B55" s="104" t="s">
         <v>74</v>
@@ -7711,7 +7767,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="90"/>
       <c r="B56" s="102" t="s">
         <v>76</v>
@@ -7734,7 +7790,7 @@
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="34.5" customHeight="1">
+    <row r="57" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
       <c r="B57" s="104" t="s">
         <v>110</v>
@@ -7757,7 +7813,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="15.95">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="B58" s="104" t="s">
         <v>112</v>
@@ -7780,7 +7836,7 @@
       </c>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="33" customHeight="1">
+    <row r="59" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="B59" s="102" t="s">
         <v>127</v>
@@ -7803,7 +7859,7 @@
       </c>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="33" customHeight="1" thickBot="1">
+    <row r="60" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="90"/>
       <c r="B60" s="113" t="s">
         <v>124</v>
@@ -7826,7 +7882,7 @@
       </c>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="33" customHeight="1">
+    <row r="61" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -7836,75 +7892,75 @@
       <c r="G61" s="43"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="29.25" customHeight="1">
+    <row r="62" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="19.5" customHeight="1">
+    <row r="63" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="34.5" customHeight="1">
+    <row r="64" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="90"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="24.75" customHeight="1">
+    <row r="65" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="90"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" ht="24.75" customHeight="1">
+    <row r="66" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="90"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="90"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="90"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="30" customHeight="1">
+    <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="90"/>
       <c r="H69" s="91"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="90"/>
       <c r="H70" s="91"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="90"/>
       <c r="H71" s="91"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="90"/>
       <c r="H72" s="91"/>
     </row>
-    <row r="73" spans="1:8" ht="20.25" customHeight="1">
+    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="90"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="20.25" customHeight="1">
+    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="90"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="20.25" customHeight="1">
+    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="90"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="20.25" customHeight="1">
+    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="90"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="20.25" customHeight="1">
+    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="90"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="20.25" customHeight="1">
+    <row r="78" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="90"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" ht="20.25" customHeight="1"/>
+    <row r="79" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7918,7 +7974,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
@@ -7933,7 +7989,7 @@
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
       <c r="B1" s="92"/>
       <c r="C1" s="93"/>
@@ -7945,7 +8001,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="42" thickBot="1">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="122" t="s">
         <v>11</v>
@@ -7959,10 +8015,10 @@
       <c r="I2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="159"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="126" t="s">
         <v>5</v>
@@ -7979,7 +8035,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="17.100000000000001" thickBot="1">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="128" t="s">
         <v>14</v>
@@ -8007,7 +8063,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="130" t="s">
         <v>129</v>
@@ -8036,7 +8092,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="132" t="s">
         <v>130</v>
@@ -8059,7 +8115,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="130" t="s">
         <v>76</v>
@@ -8087,7 +8143,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="132" t="s">
         <v>131</v>
@@ -8115,7 +8171,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="132" t="s">
         <v>132</v>
@@ -8143,7 +8199,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="132" t="s">
         <v>133</v>
@@ -8173,7 +8229,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="133" t="s">
         <v>6</v>
@@ -8192,7 +8248,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="135" t="s">
         <v>14</v>
@@ -8221,7 +8277,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="132" t="s">
         <v>114</v>
@@ -8251,7 +8307,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="130" t="s">
         <v>118</v>
@@ -8281,7 +8337,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="130" t="s">
         <v>129</v>
@@ -8307,7 +8363,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="44.1" thickBot="1">
+    <row r="16" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="132" t="s">
         <v>130</v>
@@ -8335,7 +8391,7 @@
       <c r="J16" s="72"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="130" t="s">
         <v>76</v>
@@ -8365,7 +8421,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="17.100000000000001" thickBot="1">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="130" t="s">
         <v>133</v>
@@ -8396,7 +8452,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="19" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="133" t="s">
         <v>7</v>
@@ -8416,7 +8472,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="135" t="s">
         <v>14</v>
@@ -8440,7 +8496,7 @@
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
     </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="130" t="s">
         <v>129</v>
@@ -8463,7 +8519,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18" customHeight="1" thickBot="1">
+    <row r="22" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="132" t="s">
         <v>130</v>
@@ -8486,7 +8542,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="130" t="s">
         <v>76</v>
@@ -8509,7 +8565,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="132" t="s">
         <v>118</v>
@@ -8532,7 +8588,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
+    <row r="25" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="132" t="s">
         <v>133</v>
@@ -8555,7 +8611,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="26" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="133" t="s">
         <v>8</v>
@@ -8567,7 +8623,7 @@
       <c r="G26" s="136"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="135" t="s">
         <v>14</v>
@@ -8589,7 +8645,7 @@
       </c>
       <c r="H27" s="70"/>
     </row>
-    <row r="28" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
+    <row r="28" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="130" t="s">
         <v>129</v>
@@ -8612,7 +8668,7 @@
       </c>
       <c r="H28" s="70"/>
     </row>
-    <row r="29" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
+    <row r="29" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="132" t="s">
         <v>130</v>
@@ -8635,7 +8691,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="18" customHeight="1" thickBot="1">
+    <row r="30" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="130" t="s">
         <v>76</v>
@@ -8658,7 +8714,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="132" t="s">
         <v>134</v>
@@ -8681,7 +8737,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="130" t="s">
         <v>133</v>
@@ -8704,7 +8760,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="132" t="s">
         <v>135</v>
@@ -8727,7 +8783,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="133" t="s">
         <v>9</v>
@@ -8739,7 +8795,7 @@
       <c r="G34" s="136"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
+    <row r="35" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="135" t="s">
         <v>14</v>
@@ -8761,7 +8817,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+    <row r="36" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="130" t="s">
         <v>129</v>
@@ -8784,7 +8840,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="30" customHeight="1" thickBot="1">
+    <row r="37" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="132" t="s">
         <v>130</v>
@@ -8807,7 +8863,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="21" customHeight="1" thickBot="1">
+    <row r="38" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="130" t="s">
         <v>76</v>
@@ -8830,7 +8886,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="18" customHeight="1" thickBot="1">
+    <row r="39" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="132" t="s">
         <v>134</v>
@@ -8853,7 +8909,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1">
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="132" t="s">
         <v>134</v>
@@ -8876,7 +8932,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+    <row r="41" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="137" t="s">
         <v>10</v>
@@ -8888,7 +8944,7 @@
       <c r="G41" s="138"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1">
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="135" t="s">
         <v>14</v>
@@ -8910,7 +8966,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="130" t="s">
         <v>129</v>
@@ -8933,7 +8989,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
+    <row r="44" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="132" t="s">
         <v>130</v>
@@ -8956,7 +9012,7 @@
       </c>
       <c r="H44" s="70"/>
     </row>
-    <row r="45" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="45" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="130" t="s">
         <v>76</v>
@@ -8979,7 +9035,7 @@
       </c>
       <c r="H45" s="70"/>
     </row>
-    <row r="46" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="46" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="139" t="s">
         <v>136</v>
@@ -9002,7 +9058,7 @@
       </c>
       <c r="H46" s="70"/>
     </row>
-    <row r="47" spans="1:8" ht="15.95">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="89"/>
       <c r="B47" s="132" t="s">
         <v>137</v>
@@ -9025,7 +9081,7 @@
       </c>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="90"/>
       <c r="B48" s="130" t="s">
         <v>138</v>
@@ -9048,7 +9104,7 @@
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="30.75" customHeight="1">
+    <row r="49" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="90"/>
       <c r="B49" s="130" t="s">
         <v>139</v>
@@ -9071,7 +9127,7 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
+    <row r="50" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="90"/>
       <c r="B50" s="140" t="s">
         <v>140</v>
@@ -9094,15 +9150,15 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="14.25" customHeight="1">
+    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="18" customHeight="1">
+    <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="90"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="33" customHeight="1">
+    <row r="53" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="90"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -9112,75 +9168,75 @@
       <c r="G53" s="43"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="29.25" customHeight="1">
+    <row r="54" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="90"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="19.5" customHeight="1">
+    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="90"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="34.5" customHeight="1">
+    <row r="56" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="90"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="24.75" customHeight="1">
+    <row r="57" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="24.75" customHeight="1">
+    <row r="58" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="30" customHeight="1">
+    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="90"/>
       <c r="H61" s="91"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="90"/>
       <c r="H62" s="91"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="90"/>
       <c r="H63" s="91"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="90"/>
       <c r="H64" s="91"/>
     </row>
-    <row r="65" spans="1:8" ht="20.25" customHeight="1">
+    <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="90"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" ht="20.25" customHeight="1">
+    <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="90"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="20.25" customHeight="1">
+    <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="90"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="20.25" customHeight="1">
+    <row r="68" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="90"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="20.25" customHeight="1">
+    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" ht="20.25" customHeight="1">
+    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" ht="20.25" customHeight="1"/>
+    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9190,11 +9246,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE88731-7D73-44A3-9EB1-98150E3D1D2E}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
@@ -9209,7 +9265,7 @@
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
       <c r="B1" s="92"/>
       <c r="C1" s="93"/>
@@ -9221,7 +9277,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="42" thickBot="1">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="122" t="s">
         <v>11</v>
@@ -9235,10 +9291,10 @@
       <c r="I2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="159"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="126" t="s">
         <v>5</v>
@@ -9255,7 +9311,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="17.100000000000001" thickBot="1">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="128" t="s">
         <v>14</v>
@@ -9283,7 +9339,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="130" t="s">
         <v>141</v>
@@ -9312,7 +9368,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="132" t="s">
         <v>142</v>
@@ -9335,7 +9391,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="130" t="s">
         <v>143</v>
@@ -9363,7 +9419,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="132" t="s">
         <v>144</v>
@@ -9391,7 +9447,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="132" t="s">
         <v>145</v>
@@ -9419,7 +9475,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="132" t="s">
         <v>146</v>
@@ -9449,7 +9505,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="132" t="s">
         <v>147</v>
@@ -9479,7 +9535,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="133" t="s">
         <v>6</v>
@@ -9498,7 +9554,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="135" t="s">
         <v>14</v>
@@ -9527,7 +9583,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="130" t="s">
         <v>141</v>
@@ -9557,7 +9613,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="132" t="s">
         <v>142</v>
@@ -9583,7 +9639,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="130" t="s">
         <v>114</v>
@@ -9611,7 +9667,7 @@
       <c r="J16" s="72"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="130" t="s">
         <v>143</v>
@@ -9641,7 +9697,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="17.100000000000001" thickBot="1">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="130" t="s">
         <v>148</v>
@@ -9672,7 +9728,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="17.100000000000001" thickBot="1">
+    <row r="19" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="132" t="s">
         <v>144</v>
@@ -9703,7 +9759,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="132" t="s">
         <v>145</v>
@@ -9725,7 +9781,7 @@
       <c r="H20" s="45"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="133" t="s">
         <v>7</v>
@@ -9739,7 +9795,7 @@
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
     </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="135" t="s">
         <v>14</v>
@@ -9761,7 +9817,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="130" t="s">
         <v>141</v>
@@ -9784,7 +9840,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="132" t="s">
         <v>142</v>
@@ -9807,7 +9863,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="130" t="s">
         <v>143</v>
@@ -9830,7 +9886,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="130" t="s">
         <v>149</v>
@@ -9853,7 +9909,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
+    <row r="27" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="132" t="s">
         <v>144</v>
@@ -9876,7 +9932,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="28" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="132" t="s">
         <v>145</v>
@@ -9899,7 +9955,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="133" t="s">
         <v>8</v>
@@ -9911,7 +9967,7 @@
       <c r="G29" s="136"/>
       <c r="H29" s="70"/>
     </row>
-    <row r="30" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
+    <row r="30" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="135" t="s">
         <v>14</v>
@@ -9933,7 +9989,7 @@
       </c>
       <c r="H30" s="70"/>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="130" t="s">
         <v>141</v>
@@ -9956,7 +10012,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="35.25" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="132" t="s">
         <v>142</v>
@@ -9979,7 +10035,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="130" t="s">
         <v>143</v>
@@ -10002,7 +10058,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="132" t="s">
         <v>144</v>
@@ -10025,7 +10081,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="132" t="s">
         <v>145</v>
@@ -10048,7 +10104,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="132" t="s">
         <v>150</v>
@@ -10071,7 +10127,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+    <row r="37" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="132" t="s">
         <v>151</v>
@@ -10094,7 +10150,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="133" t="s">
         <v>9</v>
@@ -10106,7 +10162,7 @@
       <c r="G38" s="136"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+    <row r="39" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="135" t="s">
         <v>14</v>
@@ -10128,7 +10184,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1">
+    <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="130" t="s">
         <v>141</v>
@@ -10151,7 +10207,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="41" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="132" t="s">
         <v>142</v>
@@ -10174,7 +10230,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="18" customHeight="1" thickBot="1">
+    <row r="42" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="130" t="s">
         <v>143</v>
@@ -10197,7 +10253,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="18" customHeight="1" thickBot="1">
+    <row r="43" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="132" t="s">
         <v>144</v>
@@ -10220,7 +10276,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1">
+    <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="132" t="s">
         <v>145</v>
@@ -10243,7 +10299,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1">
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="132" t="s">
         <v>151</v>
@@ -10266,7 +10322,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="132" t="s">
         <v>152</v>
@@ -10289,7 +10345,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1">
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="137" t="s">
         <v>10</v>
@@ -10301,7 +10357,7 @@
       <c r="G47" s="138"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="135" t="s">
         <v>14</v>
@@ -10323,7 +10379,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+    <row r="49" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="130" t="s">
         <v>141</v>
@@ -10346,7 +10402,7 @@
       </c>
       <c r="H49" s="70"/>
     </row>
-    <row r="50" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="132" t="s">
         <v>142</v>
@@ -10369,7 +10425,7 @@
       </c>
       <c r="H50" s="70"/>
     </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="130" t="s">
         <v>143</v>
@@ -10392,7 +10448,7 @@
       </c>
       <c r="H51" s="70"/>
     </row>
-    <row r="52" spans="1:8" ht="19.5" customHeight="1">
+    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="89"/>
       <c r="B52" s="139" t="s">
         <v>153</v>
@@ -10415,7 +10471,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="90"/>
       <c r="B53" s="132" t="s">
         <v>154</v>
@@ -10438,7 +10494,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="90"/>
       <c r="B54" s="132" t="s">
         <v>144</v>
@@ -10461,7 +10517,7 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="15.95">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="90"/>
       <c r="B55" s="132" t="s">
         <v>145</v>
@@ -10484,7 +10540,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="33.75" customHeight="1">
+    <row r="56" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="90"/>
       <c r="B56" s="130" t="s">
         <v>155</v>
@@ -10507,7 +10563,7 @@
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="50.25" customHeight="1" thickBot="1">
+    <row r="57" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="90"/>
       <c r="B57" s="140" t="s">
         <v>156</v>
@@ -10530,15 +10586,15 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="18" customHeight="1">
+    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="33" customHeight="1">
+    <row r="59" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="29.25" customHeight="1">
+    <row r="60" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
@@ -10548,71 +10604,71 @@
       <c r="G60" s="43"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="19.5" customHeight="1">
+    <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="34.5" customHeight="1">
+    <row r="62" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="24.75" customHeight="1">
+    <row r="63" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="24.75" customHeight="1">
+    <row r="64" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="90"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="90"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="90"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="30" customHeight="1">
+    <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="90"/>
       <c r="H67" s="91"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="90"/>
       <c r="H68" s="91"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="90"/>
       <c r="H69" s="91"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="90"/>
       <c r="H70" s="91"/>
     </row>
-    <row r="71" spans="1:8" ht="20.25" customHeight="1">
+    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="90"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" ht="20.25" customHeight="1">
+    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="90"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="20.25" customHeight="1">
+    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="90"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="20.25" customHeight="1">
+    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="90"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="20.25" customHeight="1">
+    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="90"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="20.25" customHeight="1">
+    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="90"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="20.25" customHeight="1"/>
+    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10622,11 +10678,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E847F26-6126-4354-AA0A-32C629118169}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
@@ -10641,7 +10697,7 @@
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
       <c r="B1" s="92"/>
       <c r="C1" s="93"/>
@@ -10653,7 +10709,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="42" thickBot="1">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="122" t="s">
         <v>11</v>
@@ -10667,10 +10723,10 @@
       <c r="I2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="159"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="126" t="s">
         <v>5</v>
@@ -10687,7 +10743,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="17.100000000000001" thickBot="1">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="128" t="s">
         <v>14</v>
@@ -10715,7 +10771,7 @@
         <v>44298</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="130" t="s">
         <v>157</v>
@@ -10744,7 +10800,7 @@
         <v>44304</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="38.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="130" t="s">
         <v>158</v>
@@ -10767,7 +10823,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="130" t="s">
         <v>159</v>
@@ -10795,7 +10851,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="139" t="s">
         <v>161</v>
@@ -10823,7 +10879,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="130" t="s">
         <v>163</v>
@@ -10851,7 +10907,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="130" t="s">
         <v>165</v>
@@ -10881,7 +10937,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="133" t="s">
         <v>6</v>
@@ -10900,7 +10956,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="135" t="s">
         <v>14</v>
@@ -10929,7 +10985,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="130" t="s">
         <v>114</v>
@@ -10959,7 +11015,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="132" t="s">
         <v>166</v>
@@ -10989,7 +11045,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="130" t="s">
         <v>157</v>
@@ -11015,7 +11071,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="36" customHeight="1" thickBot="1">
+    <row r="16" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="130" t="s">
         <v>158</v>
@@ -11043,7 +11099,7 @@
       <c r="J16" s="72"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="130" t="s">
         <v>165</v>
@@ -11073,7 +11129,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="18" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="132" t="s">
         <v>166</v>
@@ -11104,7 +11160,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="35.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="132" t="s">
         <v>168</v>
@@ -11135,7 +11191,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="133" t="s">
         <v>7</v>
@@ -11148,7 +11204,7 @@
       <c r="H20" s="45"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="135" t="s">
         <v>14</v>
@@ -11172,7 +11228,7 @@
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
     </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="130" t="s">
         <v>157</v>
@@ -11195,7 +11251,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="37.5" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="130" t="s">
         <v>158</v>
@@ -11218,7 +11274,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="130" t="s">
         <v>165</v>
@@ -11241,7 +11297,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="130" t="s">
         <v>170</v>
@@ -11264,7 +11320,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="133" t="s">
         <v>8</v>
@@ -11276,7 +11332,7 @@
       <c r="G26" s="136"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
+    <row r="27" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="135" t="s">
         <v>14</v>
@@ -11298,7 +11354,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="28" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="130" t="s">
         <v>157</v>
@@ -11321,7 +11377,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
+    <row r="29" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="130" t="s">
         <v>158</v>
@@ -11344,7 +11400,7 @@
       </c>
       <c r="H29" s="70"/>
     </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="30" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="132" t="s">
         <v>171</v>
@@ -11367,7 +11423,7 @@
       </c>
       <c r="H30" s="70"/>
     </row>
-    <row r="31" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
+    <row r="31" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="130" t="s">
         <v>159</v>
@@ -11390,7 +11446,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="132" t="s">
         <v>172</v>
@@ -11413,7 +11469,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+    <row r="33" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="132" t="s">
         <v>173</v>
@@ -11436,7 +11492,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="34" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="132" t="s">
         <v>174</v>
@@ -11459,7 +11515,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="130" t="s">
         <v>165</v>
@@ -11482,7 +11538,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="133" t="s">
         <v>9</v>
@@ -11494,7 +11550,7 @@
       <c r="G36" s="136"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+    <row r="37" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="135" t="s">
         <v>14</v>
@@ -11516,7 +11572,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+    <row r="38" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="130" t="s">
         <v>157</v>
@@ -11539,7 +11595,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
+    <row r="39" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="130" t="s">
         <v>158</v>
@@ -11562,7 +11618,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="130" t="s">
         <v>165</v>
@@ -11585,7 +11641,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="132" t="s">
         <v>175</v>
@@ -11608,7 +11664,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="22.5" customHeight="1" thickBot="1">
+    <row r="42" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="132" t="s">
         <v>172</v>
@@ -11631,7 +11687,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="18" customHeight="1" thickBot="1">
+    <row r="43" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="132" t="s">
         <v>174</v>
@@ -11654,7 +11710,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1">
+    <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="132" t="s">
         <v>173</v>
@@ -11677,7 +11733,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1">
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="137" t="s">
         <v>10</v>
@@ -11689,7 +11745,7 @@
       <c r="G45" s="138"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1">
+    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="135" t="s">
         <v>14</v>
@@ -11711,7 +11767,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+    <row r="47" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="130" t="s">
         <v>157</v>
@@ -11734,7 +11790,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
+    <row r="48" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="130" t="s">
         <v>158</v>
@@ -11757,7 +11813,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="36" customHeight="1" thickBot="1">
+    <row r="49" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="130" t="s">
         <v>159</v>
@@ -11780,7 +11836,7 @@
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
+    <row r="50" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="139" t="s">
         <v>161</v>
@@ -11803,7 +11859,7 @@
       </c>
       <c r="H50" s="70"/>
     </row>
-    <row r="51" spans="1:8" ht="18" customHeight="1" thickBot="1">
+    <row r="51" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="132" t="s">
         <v>171</v>
@@ -11826,7 +11882,7 @@
       </c>
       <c r="H51" s="70"/>
     </row>
-    <row r="52" spans="1:8" ht="33" thickBot="1">
+    <row r="52" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="130" t="s">
         <v>179</v>
@@ -11849,12 +11905,12 @@
       </c>
       <c r="H52" s="70"/>
     </row>
-    <row r="53" spans="1:8" ht="18.75" customHeight="1">
+    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="89"/>
       <c r="B53" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="167" t="s">
+      <c r="C53" s="166" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="35" t="s">
@@ -11872,30 +11928,30 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="30">
-      <c r="A54" s="160"/>
-      <c r="B54" s="161" t="s">
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="159"/>
+      <c r="B54" s="160" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="162" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="163" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="164">
+      <c r="C54" s="161" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="163">
         <v>3.5</v>
       </c>
-      <c r="F54" s="165" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="166">
+      <c r="F54" s="164" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="165">
         <f>G53+E54</f>
         <v>14.5</v>
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="33" customHeight="1" thickBot="1">
+    <row r="55" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="90"/>
       <c r="B55" s="140" t="s">
         <v>182</v>
@@ -11918,27 +11974,27 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="90"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="33" customHeight="1">
+    <row r="57" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="20.25" customHeight="1">
+    <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="18" customHeight="1">
+    <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="33" customHeight="1">
+    <row r="60" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="29.25" customHeight="1">
+    <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -11948,92 +12004,1276 @@
       <c r="G61" s="43"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="19.5" customHeight="1">
+    <row r="62" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="34.5" customHeight="1">
+    <row r="63" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="24.75" customHeight="1">
+    <row r="64" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="90"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="24.75" customHeight="1">
+    <row r="65" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="90"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="90"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="90"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="30" customHeight="1">
+    <row r="68" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="90"/>
       <c r="H68" s="91"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="90"/>
       <c r="H69" s="91"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="90"/>
       <c r="H70" s="91"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="90"/>
       <c r="H71" s="91"/>
     </row>
-    <row r="72" spans="1:8" ht="20.25" customHeight="1">
+    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="90"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="20.25" customHeight="1">
+    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="90"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="20.25" customHeight="1">
+    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="90"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="20.25" customHeight="1">
+    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="90"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="20.25" customHeight="1">
+    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="90"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="20.25" customHeight="1">
+    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="90"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="20.25" customHeight="1"/>
+    <row r="78" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29494CB1-1025-4BD3-A0C0-5A104A2BA20C}">
+  <dimension ref="A1:K70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="167"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="66">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="130" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="35">
+        <v>1</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="131">
+        <f>E5</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="67">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="131">
+        <f t="shared" ref="G6" si="0">G5+E6</f>
+        <v>1.75</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="130" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="35">
+        <v>1</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="131">
+        <f>G6+E7</f>
+        <v>2.75</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="139" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="35">
+        <v>8</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="131">
+        <f>G7+E8</f>
+        <v>10.75</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="130" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="35">
+        <v>3</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="131">
+        <f>G8+E9</f>
+        <v>13.75</v>
+      </c>
+      <c r="H9" s="45"/>
+      <c r="I9" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="45"/>
+      <c r="I11" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="35">
+        <v>1.25</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="131">
+        <f>E12</f>
+        <v>1.25</v>
+      </c>
+      <c r="H12" s="45"/>
+      <c r="I12" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="132" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="131">
+        <f>E13+G12</f>
+        <v>2.75</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="130" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="35">
+        <v>9.25</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="131">
+        <f>E14+G13</f>
+        <v>12</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="130" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="131">
+        <f t="shared" ref="G15" si="1">G14+E15</f>
+        <v>14.5</v>
+      </c>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="130" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="35">
+        <v>1</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="131">
+        <f>G15+E16</f>
+        <v>15.5</v>
+      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="131">
+        <f>G16+E17</f>
+        <v>16.25</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="130" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="35">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="131">
+        <f>G17+E18</f>
+        <v>17.25</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="87">
+        <f>SUM(G9,G18,G24,G32,G38,G46)</f>
+        <v>71.25</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="77">
+        <f>J18/6</f>
+        <v>11.875</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="130" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="35">
+        <v>9.25</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="131">
+        <f>E21</f>
+        <v>9.25</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="130" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="35">
+        <v>1</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="131">
+        <f>G21+E22</f>
+        <v>10.25</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="131">
+        <f>G22+E23</f>
+        <v>11</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="130" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="35">
+        <v>1</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="131">
+        <f>G23+E24</f>
+        <v>12</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="130" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="35">
+        <v>1</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="131">
+        <f>E27</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="131">
+        <f t="shared" ref="G28:G32" si="2">G27+E28</f>
+        <v>1.75</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="130" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="35">
+        <v>1</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="131">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="H29" s="70"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="131">
+        <f>G29+E30</f>
+        <v>4.25</v>
+      </c>
+      <c r="H30" s="70"/>
+    </row>
+    <row r="31" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="130" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="35">
+        <v>2</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="131">
+        <f>G30+E31</f>
+        <v>6.25</v>
+      </c>
+      <c r="H31" s="70"/>
+    </row>
+    <row r="32" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="132" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="131">
+        <f t="shared" si="2"/>
+        <v>8.75</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="130" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="131">
+        <f>E35</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="131">
+        <f t="shared" ref="G36:G38" si="3">G35+E36</f>
+        <v>1.75</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="130" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="35">
+        <v>1</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="131">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="132" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="35">
+        <v>8</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="131">
+        <f t="shared" si="3"/>
+        <v>10.75</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="130" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="35">
+        <v>1</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="131">
+        <f>E41</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="131">
+        <f t="shared" ref="G42:G45" si="4">G41+E42</f>
+        <v>1.75</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="130" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="35">
+        <v>1</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="131">
+        <f t="shared" si="4"/>
+        <v>2.75</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="139" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="35">
+        <v>1</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="G44" s="131">
+        <f t="shared" si="4"/>
+        <v>3.75</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="132" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="35">
+        <v>4</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="G45" s="131">
+        <f t="shared" si="4"/>
+        <v>7.75</v>
+      </c>
+      <c r="H45" s="70"/>
+    </row>
+    <row r="46" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="140" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="170" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="143">
+        <v>1</v>
+      </c>
+      <c r="F46" s="143" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="144">
+        <f>G45+E46</f>
+        <v>8.75</v>
+      </c>
+      <c r="H46" s="70"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="H47" s="70"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="90"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="90"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="90"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="90"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="90"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="90"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="90"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="90"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="90"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="90"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="90"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="90"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="90"/>
+      <c r="H60" s="91"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="90"/>
+      <c r="H61" s="91"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="90"/>
+      <c r="H62" s="91"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="90"/>
+      <c r="H63" s="91"/>
+    </row>
+    <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="90"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="90"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="90"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="90"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="90"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="90"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010004611FF326026746BE7BA6B533563D7A" ma:contentTypeVersion="7" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="68768b3a56787066a869a81186633cca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9261f3b7-eb37-44bc-ab49-41e0f5c5a530" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ce60f8ec90a8895216d4d1414fc8ef8" ns2:_="">
     <xsd:import namespace="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
@@ -12197,14 +13437,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCF450D-C3EB-4368-8E96-CCC92F1AC82B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF543F68-0634-48D3-9512-78B815FCAD16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F9D30A-50A2-408B-B3F0-EDB4CF8C0B75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCF450D-C3EB-4368-8E96-CCC92F1AC82B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF543F68-0634-48D3-9512-78B815FCAD16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F9D30A-50A2-408B-B3F0-EDB4CF8C0B75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/website/src/documents/Privat/Apollon_Aufwandserfassung.xlsx
+++ b/website/src/documents/Privat/Apollon_Aufwandserfassung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg.sharepoint.com/sites/o365grpSWE-Projekt/Freigegebene Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2579" documentId="13_ncr:1_{CF72DE10-053D-F84A-BF2F-97DB33227B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E5C836E-7A54-4447-9631-361BFA6C389D}"/>
+  <xr:revisionPtr revIDLastSave="2878" documentId="13_ncr:1_{CF72DE10-053D-F84A-BF2F-97DB33227B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AC1ED60-F5F9-4746-B17F-ACDC58EB2F07}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{5DFA726E-B0C4-4500-AF96-5BC0FDCBA0B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="8" xr2:uid="{5DFA726E-B0C4-4500-AF96-5BC0FDCBA0B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="Zeiterfassung KW 14" sheetId="6" r:id="rId6"/>
     <sheet name="Zeiterfassung KW 15" sheetId="7" r:id="rId7"/>
     <sheet name="Zeiterfassung KW 16" sheetId="8" r:id="rId8"/>
+    <sheet name="Zeiterfassung KW 17" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="214">
   <si>
     <r>
       <rPr>
@@ -63,7 +64,7 @@
     </r>
   </si>
   <si>
-    <t>7. Woche</t>
+    <t>8. Woche</t>
   </si>
   <si>
     <t>Team</t>
@@ -655,7 +656,7 @@
     <t>Zweiwöchiges Retro</t>
   </si>
   <si>
-    <t>Modellimlementierung</t>
+    <t>Modellimplementierung</t>
   </si>
   <si>
     <t>Paired Progr. Mit Alfred
@@ -677,6 +678,12 @@
     <t>Paired Progr. Mit Paul Burkard</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Überarbeitung Dtos</t>
+  </si>
+  <si>
     <t>Bearbeitung PP für Review</t>
   </si>
   <si>
@@ -686,19 +693,56 @@
     <t>Programmierung Dtos</t>
   </si>
   <si>
+    <t>Modellimlementierung</t>
+  </si>
+  <si>
     <t>Mit Daniel Kröker</t>
   </si>
   <si>
     <t>Review und Überarbeitung Dtos</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Überarbeitung Dtos</t>
-  </si>
-  <si>
-    <t>Modellimplementierung</t>
+    <t>Betreuer Weekly</t>
+  </si>
+  <si>
+    <t>Chat Implementierung</t>
+  </si>
+  <si>
+    <t>Tests schreiben</t>
+  </si>
+  <si>
+    <t>Kommentare schreiben</t>
+  </si>
+  <si>
+    <t>Service Interfaces und Klassen anlegen</t>
+  </si>
+  <si>
+    <t>Authorization Service und Controller implementieren</t>
+  </si>
+  <si>
+    <t>Impementierung und Erweiterung 
+des Authorization Controllers</t>
+  </si>
+  <si>
+    <t>Anpassung der UML Diagramme</t>
+  </si>
+  <si>
+    <t>Implementierung Authorization</t>
+  </si>
+  <si>
+    <t>Applikation initial auf Server Deployen</t>
+  </si>
+  <si>
+    <t>Review final besprechen</t>
+  </si>
+  <si>
+    <t>Zsm. mit Alfred Rustemi</t>
+  </si>
+  <si>
+    <t>Implementierung UserSerice/-Controller</t>
+  </si>
+  <si>
+    <t>Aufsetzen Email-Server</t>
   </si>
 </sst>
 </file>
@@ -708,7 +752,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,7 +862,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="122">
+  <borders count="123">
     <border>
       <left/>
       <right/>
@@ -2423,11 +2467,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2903,6 +2960,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2911,9 +2974,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2940,7 +3000,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3239,10 +3299,10 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="79"/>
     <col min="2" max="2" width="21" style="79" bestFit="1" customWidth="1"/>
@@ -3251,21 +3311,21 @@
     <col min="5" max="16384" width="10.85546875" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
     </row>
-    <row r="2" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="38.25" thickBot="1">
       <c r="A2" s="80"/>
       <c r="B2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="169"/>
-    </row>
-    <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="171"/>
+    </row>
+    <row r="3" spans="1:5" ht="37.5" customHeight="1">
       <c r="A3" s="80"/>
       <c r="B3" s="156" t="s">
         <v>2</v>
@@ -3277,21 +3337,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="80"/>
       <c r="B4" s="85" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="148">
-        <f>'Zeiterfassung KW 10'!J18+'Zeiterfassung KW 11'!J18+'Zeiterfassung KW 12'!J18+'Zeiterfassung KW 13'!J18+'Zeiterfassung KW 14'!J18+'Zeiterfassung KW 15'!J18+'Zeiterfassung KW 16'!J18</f>
-        <v>569.25</v>
+        <f>'Zeiterfassung KW 10'!J18+'Zeiterfassung KW 11'!J18+'Zeiterfassung KW 12'!J18+'Zeiterfassung KW 13'!J18+'Zeiterfassung KW 14'!J18+'Zeiterfassung KW 15'!J18+'Zeiterfassung KW 16'!J18+'Zeiterfassung KW 17'!J18</f>
+        <v>647</v>
       </c>
       <c r="D4" s="157">
-        <f>C4/7</f>
-        <v>81.321428571428569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>C4/8</f>
+        <v>80.875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="80"/>
       <c r="B5" s="149" t="s">
         <v>5</v>
@@ -3299,21 +3359,21 @@
       <c r="C5" s="147"/>
       <c r="D5" s="84"/>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="80"/>
       <c r="B6" s="85" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="148">
-        <f>'Zeiterfassung KW 10'!G12+'Zeiterfassung KW 11'!G14+'Zeiterfassung KW 12'!G11+'Zeiterfassung KW 13'!G10+'Zeiterfassung KW 14'!G11+'Zeiterfassung KW 15'!G10+'Zeiterfassung KW 16'!G9</f>
-        <v>106</v>
+        <f>'Zeiterfassung KW 10'!G12+'Zeiterfassung KW 11'!G14+'Zeiterfassung KW 12'!G11+'Zeiterfassung KW 13'!G10+'Zeiterfassung KW 14'!G11+'Zeiterfassung KW 15'!G10+'Zeiterfassung KW 16'!G9+'Zeiterfassung KW 17'!G9</f>
+        <v>122.25</v>
       </c>
       <c r="D6" s="157">
-        <f>C6/7</f>
-        <v>15.142857142857142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>C6/8</f>
+        <v>15.28125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="80"/>
       <c r="B7" s="152" t="s">
         <v>6</v>
@@ -3322,21 +3382,21 @@
       <c r="D7" s="84"/>
       <c r="E7" s="86"/>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="80"/>
       <c r="B8" s="153" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="150">
-        <f>'Zeiterfassung KW 10'!G20+'Zeiterfassung KW 11'!G30+'Zeiterfassung KW 12'!G23+'Zeiterfassung KW 13'!G18+'Zeiterfassung KW 14'!G20+'Zeiterfassung KW 15'!G19+'Zeiterfassung KW 16'!G18</f>
-        <v>114.25</v>
+        <f>'Zeiterfassung KW 10'!G20+'Zeiterfassung KW 11'!G30+'Zeiterfassung KW 12'!G23+'Zeiterfassung KW 13'!G18+'Zeiterfassung KW 14'!G20+'Zeiterfassung KW 15'!G19+'Zeiterfassung KW 16'!G18+'Zeiterfassung KW 17'!G18</f>
+        <v>138.75</v>
       </c>
       <c r="D8" s="157">
-        <f>C8/7</f>
-        <v>16.321428571428573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>C8/8</f>
+        <v>17.34375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="80"/>
       <c r="B9" s="152" t="s">
         <v>7</v>
@@ -3344,21 +3404,21 @@
       <c r="C9" s="147"/>
       <c r="D9" s="84"/>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="80"/>
       <c r="B10" s="153" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="150">
-        <f>'Zeiterfassung KW 10'!G28+'Zeiterfassung KW 11'!G41+'Zeiterfassung KW 12'!G30+'Zeiterfassung KW 13'!G25+'Zeiterfassung KW 14'!G28+'Zeiterfassung KW 15'!G25+'Zeiterfassung KW 16'!G24</f>
-        <v>90.75</v>
+        <f>'Zeiterfassung KW 10'!G28+'Zeiterfassung KW 11'!G41+'Zeiterfassung KW 12'!G30+'Zeiterfassung KW 13'!G25+'Zeiterfassung KW 14'!G28+'Zeiterfassung KW 15'!G25+'Zeiterfassung KW 16'!G24+'Zeiterfassung KW 17'!G25</f>
+        <v>104.75</v>
       </c>
       <c r="D10" s="157">
-        <f>C10/7</f>
-        <v>12.964285714285714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>C10/8</f>
+        <v>13.09375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="80"/>
       <c r="B11" s="152" t="s">
         <v>8</v>
@@ -3366,21 +3426,21 @@
       <c r="C11" s="147"/>
       <c r="D11" s="84"/>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="80"/>
       <c r="B12" s="153" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="150">
-        <f>'Zeiterfassung KW 10'!G35+'Zeiterfassung KW 11'!G51+'Zeiterfassung KW 12'!G39+'Zeiterfassung KW 13'!G33+'Zeiterfassung KW 14'!G37+'Zeiterfassung KW 15'!G35+'Zeiterfassung KW 16'!G32</f>
-        <v>79</v>
+        <f>'Zeiterfassung KW 10'!G35+'Zeiterfassung KW 11'!G51+'Zeiterfassung KW 12'!G39+'Zeiterfassung KW 13'!G33+'Zeiterfassung KW 14'!G37+'Zeiterfassung KW 15'!G35+'Zeiterfassung KW 16'!G32+'Zeiterfassung KW 17'!G33</f>
+        <v>83.25</v>
       </c>
       <c r="D12" s="157">
-        <f>C12/7</f>
-        <v>11.285714285714286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>C12/8</f>
+        <v>10.40625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="80"/>
       <c r="B13" s="152" t="s">
         <v>9</v>
@@ -3388,21 +3448,21 @@
       <c r="C13" s="147"/>
       <c r="D13" s="84"/>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="80"/>
       <c r="B14" s="153" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="150">
-        <f>'Zeiterfassung KW 10'!G42+'Zeiterfassung KW 11'!G63+'Zeiterfassung KW 12'!G48+'Zeiterfassung KW 13'!G40+'Zeiterfassung KW 14'!G46+'Zeiterfassung KW 15'!G44+'Zeiterfassung KW 16'!G38</f>
-        <v>72.25</v>
+        <f>'Zeiterfassung KW 10'!G42+'Zeiterfassung KW 11'!G63+'Zeiterfassung KW 12'!G48+'Zeiterfassung KW 13'!G40+'Zeiterfassung KW 14'!G46+'Zeiterfassung KW 15'!G44+'Zeiterfassung KW 16'!G38+'Zeiterfassung KW 17'!G42</f>
+        <v>87.5</v>
       </c>
       <c r="D14" s="157">
-        <f>C14/7</f>
-        <v>10.321428571428571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>C14/8</f>
+        <v>10.9375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="80"/>
       <c r="B15" s="152" t="s">
         <v>10</v>
@@ -3410,21 +3470,21 @@
       <c r="C15" s="147"/>
       <c r="D15" s="84"/>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="80"/>
       <c r="B16" s="154" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="151">
-        <f>'Zeiterfassung KW 10'!G54+'Zeiterfassung KW 11'!G75+'Zeiterfassung KW 12'!G60+'Zeiterfassung KW 13'!G50+'Zeiterfassung KW 14'!G57+'Zeiterfassung KW 15'!G55+'Zeiterfassung KW 16'!G46</f>
-        <v>107</v>
+        <f>'Zeiterfassung KW 10'!G54+'Zeiterfassung KW 11'!G75+'Zeiterfassung KW 12'!G60+'Zeiterfassung KW 13'!G50+'Zeiterfassung KW 14'!G57+'Zeiterfassung KW 15'!G55+'Zeiterfassung KW 16'!G46+'Zeiterfassung KW 17'!G54</f>
+        <v>122.5</v>
       </c>
       <c r="D16" s="158">
-        <f>C16/7</f>
-        <v>15.285714285714286</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>C16/8</f>
+        <v>15.3125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="82"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
@@ -3441,11 +3501,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA6D3C2-36A8-4C9E-84DA-E9F34B41C748}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="115" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="3"/>
     <col min="2" max="2" width="30.7109375" style="3" customWidth="1"/>
@@ -3462,7 +3522,7 @@
     <col min="14" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="54"/>
       <c r="B1" s="55"/>
       <c r="C1" s="1"/>
@@ -3474,7 +3534,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1">
       <c r="A2" s="11"/>
       <c r="B2" s="56" t="s">
         <v>11</v>
@@ -3488,10 +3548,10 @@
       <c r="I2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="169"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A3" s="11"/>
       <c r="B3" s="23" t="s">
         <v>5</v>
@@ -3508,7 +3568,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="11"/>
       <c r="B4" s="50" t="s">
         <v>14</v>
@@ -3536,7 +3596,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
       <c r="A5" s="11"/>
       <c r="B5" s="9" t="s">
         <v>21</v>
@@ -3565,7 +3625,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="11"/>
       <c r="B6" s="9" t="s">
         <v>25</v>
@@ -3587,7 +3647,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="11"/>
       <c r="B7" s="33" t="s">
         <v>27</v>
@@ -3614,7 +3674,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="33" t="s">
         <v>31</v>
@@ -3642,7 +3702,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30.75" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="33" t="s">
         <v>35</v>
@@ -3670,7 +3730,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="33" t="s">
         <v>37</v>
@@ -3700,7 +3760,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A11" s="11"/>
       <c r="B11" s="33" t="s">
         <v>40</v>
@@ -3730,7 +3790,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="9" t="s">
         <v>42</v>
@@ -3760,7 +3820,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="26" t="s">
         <v>6</v>
@@ -3779,7 +3839,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="15" t="s">
         <v>14</v>
@@ -3808,7 +3868,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A15" s="11"/>
       <c r="B15" s="9" t="s">
         <v>21</v>
@@ -3834,7 +3894,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="38.25" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -3862,7 +3922,7 @@
       <c r="J16" s="72"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="30.75" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="33" t="s">
         <v>47</v>
@@ -3892,7 +3952,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A18" s="11"/>
       <c r="B18" s="33" t="s">
         <v>50</v>
@@ -3923,7 +3983,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="11"/>
       <c r="B19" s="33" t="s">
         <v>27</v>
@@ -3954,7 +4014,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="11"/>
       <c r="B20" s="9" t="s">
         <v>42</v>
@@ -3978,7 +4038,7 @@
       <c r="H20" s="45"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="11"/>
       <c r="B21" s="26" t="s">
         <v>7</v>
@@ -3990,7 +4050,7 @@
       <c r="G21" s="31"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="11"/>
       <c r="B22" s="15" t="s">
         <v>14</v>
@@ -4014,7 +4074,7 @@
       <c r="I22" s="43"/>
       <c r="J22" s="43"/>
     </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A23" s="11"/>
       <c r="B23" s="9" t="s">
         <v>21</v>
@@ -4037,7 +4097,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="9" t="s">
         <v>25</v>
@@ -4060,7 +4120,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A25" s="11"/>
       <c r="B25" s="9" t="s">
         <v>54</v>
@@ -4083,7 +4143,7 @@
       </c>
       <c r="H25" s="70"/>
     </row>
-    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A26" s="11"/>
       <c r="B26" s="9" t="s">
         <v>55</v>
@@ -4106,7 +4166,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A27" s="11"/>
       <c r="B27" s="9" t="s">
         <v>56</v>
@@ -4129,7 +4189,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A28" s="11"/>
       <c r="B28" s="9" t="s">
         <v>42</v>
@@ -4152,7 +4212,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A29" s="11"/>
       <c r="B29" s="26" t="s">
         <v>8</v>
@@ -4164,7 +4224,7 @@
       <c r="G29" s="31"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A30" s="11"/>
       <c r="B30" s="15" t="s">
         <v>14</v>
@@ -4186,7 +4246,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>21</v>
@@ -4209,7 +4269,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A32" s="11"/>
       <c r="B32" s="9" t="s">
         <v>25</v>
@@ -4232,7 +4292,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="11"/>
       <c r="B33" s="9" t="s">
         <v>57</v>
@@ -4255,7 +4315,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="10"/>
       <c r="B34" s="9" t="s">
         <v>58</v>
@@ -4278,7 +4338,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A35" s="10"/>
       <c r="B35" s="9" t="s">
         <v>42</v>
@@ -4301,7 +4361,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A36" s="10"/>
       <c r="B36" s="26" t="s">
         <v>9</v>
@@ -4313,7 +4373,7 @@
       <c r="G36" s="31"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A37" s="10"/>
       <c r="B37" s="15" t="s">
         <v>14</v>
@@ -4335,7 +4395,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A38" s="10"/>
       <c r="B38" s="9" t="s">
         <v>21</v>
@@ -4358,7 +4418,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A39" s="10"/>
       <c r="B39" s="9" t="s">
         <v>25</v>
@@ -4381,7 +4441,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15">
       <c r="A40" s="7"/>
       <c r="B40" s="9" t="s">
         <v>60</v>
@@ -4403,7 +4463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="9" t="s">
         <v>61</v>
       </c>
@@ -4424,7 +4484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="9" t="s">
         <v>42</v>
       </c>
@@ -4445,7 +4505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="24" t="s">
         <v>10</v>
       </c>
@@ -4455,7 +4515,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="15" t="s">
         <v>14</v>
       </c>
@@ -4475,7 +4535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15">
       <c r="B45" s="9" t="s">
         <v>62</v>
       </c>
@@ -4496,7 +4556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="18" customHeight="1">
       <c r="B46" s="9" t="s">
         <v>63</v>
       </c>
@@ -4517,7 +4577,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="29.25" customHeight="1">
       <c r="B47" s="33" t="s">
         <v>64</v>
       </c>
@@ -4538,7 +4598,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="9" t="s">
         <v>21</v>
       </c>
@@ -4559,7 +4619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="9" t="s">
         <v>25</v>
       </c>
@@ -4580,7 +4640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B50" s="9" t="s">
         <v>65</v>
       </c>
@@ -4601,7 +4661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="21.75" customHeight="1">
       <c r="B51" s="9" t="s">
         <v>42</v>
       </c>
@@ -4623,7 +4683,7 @@
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="21.75" customHeight="1">
       <c r="B52" s="9" t="s">
         <v>66</v>
       </c>
@@ -4645,7 +4705,7 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="30">
       <c r="B53" s="33" t="s">
         <v>68</v>
       </c>
@@ -4667,7 +4727,7 @@
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" ht="30.75" thickBot="1">
       <c r="B54" s="32" t="s">
         <v>69</v>
       </c>
@@ -4689,7 +4749,7 @@
       </c>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="53"/>
       <c r="G55" s="43"/>
     </row>
@@ -4703,11 +4763,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B848FEB0-4874-6243-88B3-9661B8B22D34}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
@@ -4722,7 +4782,7 @@
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="54"/>
       <c r="B1" s="92"/>
       <c r="C1" s="93"/>
@@ -4734,7 +4794,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1">
       <c r="A2" s="11"/>
       <c r="B2" s="94" t="s">
         <v>11</v>
@@ -4748,10 +4808,10 @@
       <c r="I2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="169"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A3" s="11"/>
       <c r="B3" s="98" t="s">
         <v>5</v>
@@ -4768,7 +4828,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="11"/>
       <c r="B4" s="100" t="s">
         <v>14</v>
@@ -4796,7 +4856,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1">
       <c r="A5" s="11"/>
       <c r="B5" s="102" t="s">
         <v>70</v>
@@ -4825,7 +4885,7 @@
         <v>44276</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="11"/>
       <c r="B6" s="104" t="s">
         <v>71</v>
@@ -4848,7 +4908,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
       <c r="A7" s="11"/>
       <c r="B7" s="102" t="s">
         <v>73</v>
@@ -4876,7 +4936,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="104" t="s">
         <v>74</v>
@@ -4904,7 +4964,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30.75" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="104" t="s">
         <v>75</v>
@@ -4932,7 +4992,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="104" t="s">
         <v>76</v>
@@ -4962,7 +5022,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A11" s="11"/>
       <c r="B11" s="104" t="s">
         <v>77</v>
@@ -4992,7 +5052,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="102" t="s">
         <v>78</v>
@@ -5022,7 +5082,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="118" t="s">
         <v>79</v>
@@ -5052,7 +5112,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="118" t="s">
         <v>81</v>
@@ -5082,7 +5142,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
       <c r="A15" s="11"/>
       <c r="B15" s="105" t="s">
         <v>6</v>
@@ -5097,7 +5157,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="107" t="s">
         <v>14</v>
@@ -5124,7 +5184,7 @@
       <c r="J16" s="72"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="30.75" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="102" t="s">
         <v>70</v>
@@ -5154,7 +5214,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
       <c r="A18" s="11"/>
       <c r="B18" s="104" t="s">
         <v>71</v>
@@ -5185,7 +5245,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
       <c r="A19" s="11"/>
       <c r="B19" s="102" t="s">
         <v>83</v>
@@ -5216,7 +5276,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="11"/>
       <c r="B20" s="102" t="s">
         <v>84</v>
@@ -5240,7 +5300,7 @@
       <c r="H20" s="45"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="11"/>
       <c r="B21" s="102" t="s">
         <v>73</v>
@@ -5263,7 +5323,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="11"/>
       <c r="B22" s="104" t="s">
         <v>85</v>
@@ -5288,7 +5348,7 @@
       <c r="I22" s="43"/>
       <c r="J22" s="43"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="11"/>
       <c r="B23" s="104" t="s">
         <v>74</v>
@@ -5311,7 +5371,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="104" t="s">
         <v>75</v>
@@ -5334,7 +5394,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A25" s="11"/>
       <c r="B25" s="104" t="s">
         <v>76</v>
@@ -5357,7 +5417,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A26" s="11"/>
       <c r="B26" s="102" t="s">
         <v>86</v>
@@ -5380,7 +5440,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="33" customHeight="1" thickBot="1">
       <c r="A27" s="11"/>
       <c r="B27" s="102" t="s">
         <v>87</v>
@@ -5403,7 +5463,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
       <c r="A28" s="11"/>
       <c r="B28" s="102" t="s">
         <v>89</v>
@@ -5426,7 +5486,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
       <c r="A29" s="11"/>
       <c r="B29" s="102" t="s">
         <v>78</v>
@@ -5449,7 +5509,7 @@
       </c>
       <c r="H29" s="70"/>
     </row>
-    <row r="30" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
       <c r="A30" s="11"/>
       <c r="B30" s="102" t="s">
         <v>90</v>
@@ -5472,7 +5532,7 @@
       </c>
       <c r="H30" s="70"/>
     </row>
-    <row r="31" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
       <c r="A31" s="11"/>
       <c r="B31" s="105" t="s">
         <v>7</v>
@@ -5484,7 +5544,7 @@
       <c r="G31" s="108"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A32" s="11"/>
       <c r="B32" s="107" t="s">
         <v>14</v>
@@ -5506,7 +5566,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
       <c r="A33" s="11"/>
       <c r="B33" s="102" t="s">
         <v>70</v>
@@ -5529,7 +5589,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="11"/>
       <c r="B34" s="104" t="s">
         <v>74</v>
@@ -5552,7 +5612,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A35" s="11"/>
       <c r="B35" s="104" t="s">
         <v>75</v>
@@ -5575,7 +5635,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="A36" s="11"/>
       <c r="B36" s="104" t="s">
         <v>91</v>
@@ -5598,7 +5658,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="A37" s="11"/>
       <c r="B37" s="104" t="s">
         <v>92</v>
@@ -5621,7 +5681,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="A38" s="11"/>
       <c r="B38" s="104" t="s">
         <v>76</v>
@@ -5644,7 +5704,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="A39" s="11"/>
       <c r="B39" s="102" t="s">
         <v>93</v>
@@ -5665,7 +5725,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A40" s="11"/>
       <c r="B40" s="102" t="s">
         <v>94</v>
@@ -5688,7 +5748,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
       <c r="A41" s="11"/>
       <c r="B41" s="102" t="s">
         <v>78</v>
@@ -5711,7 +5771,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
       <c r="A42" s="10"/>
       <c r="B42" s="105" t="s">
         <v>8</v>
@@ -5723,7 +5783,7 @@
       <c r="G42" s="108"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="10"/>
       <c r="B43" s="107" t="s">
         <v>14</v>
@@ -5745,7 +5805,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="A44" s="10"/>
       <c r="B44" s="102" t="s">
         <v>70</v>
@@ -5768,7 +5828,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A45" s="10"/>
       <c r="B45" s="104" t="s">
         <v>74</v>
@@ -5791,7 +5851,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="22.5" customHeight="1" thickBot="1">
       <c r="A46" s="10"/>
       <c r="B46" s="104" t="s">
         <v>75</v>
@@ -5814,7 +5874,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A47" s="10"/>
       <c r="B47" s="104" t="s">
         <v>95</v>
@@ -5835,7 +5895,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A48" s="10"/>
       <c r="B48" s="104" t="s">
         <v>92</v>
@@ -5858,7 +5918,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
       <c r="A49" s="10"/>
       <c r="B49" s="112" t="s">
         <v>96</v>
@@ -5881,7 +5941,7 @@
       </c>
       <c r="H49" s="70"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="89"/>
       <c r="B50" s="104" t="s">
         <v>76</v>
@@ -5904,7 +5964,7 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="90"/>
       <c r="B51" s="102" t="s">
         <v>78</v>
@@ -5927,7 +5987,7 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="90"/>
       <c r="B52" s="105" t="s">
         <v>9</v>
@@ -5939,7 +5999,7 @@
       <c r="G52" s="108"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="90"/>
       <c r="B53" s="107" t="s">
         <v>14</v>
@@ -5961,7 +6021,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="36.75" customHeight="1">
       <c r="A54" s="90"/>
       <c r="B54" s="102" t="s">
         <v>70</v>
@@ -5984,7 +6044,7 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="90"/>
       <c r="B55" s="104" t="s">
         <v>98</v>
@@ -6007,7 +6067,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="33" customHeight="1">
       <c r="A56" s="90"/>
       <c r="B56" s="104" t="s">
         <v>99</v>
@@ -6030,7 +6090,7 @@
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="33" customHeight="1">
       <c r="A57" s="90"/>
       <c r="B57" s="104" t="s">
         <v>74</v>
@@ -6053,7 +6113,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="33" customHeight="1">
       <c r="A58" s="90"/>
       <c r="B58" s="104" t="s">
         <v>75</v>
@@ -6076,7 +6136,7 @@
       </c>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="29.25" customHeight="1">
       <c r="A59" s="90"/>
       <c r="B59" s="104" t="s">
         <v>76</v>
@@ -6099,7 +6159,7 @@
       </c>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="19.5" customHeight="1">
       <c r="A60" s="90"/>
       <c r="B60" s="102" t="s">
         <v>78</v>
@@ -6122,7 +6182,7 @@
       </c>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="34.5" customHeight="1">
       <c r="A61" s="90"/>
       <c r="B61" s="102" t="s">
         <v>100</v>
@@ -6145,7 +6205,7 @@
       </c>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="24.75" customHeight="1">
       <c r="A62" s="90"/>
       <c r="B62" s="102" t="s">
         <v>101</v>
@@ -6168,7 +6228,7 @@
       </c>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="24.75" customHeight="1">
       <c r="A63" s="90"/>
       <c r="B63" s="102" t="s">
         <v>102</v>
@@ -6191,7 +6251,7 @@
       </c>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="90"/>
       <c r="B64" s="109" t="s">
         <v>10</v>
@@ -6203,7 +6263,7 @@
       <c r="G64" s="110"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="90"/>
       <c r="B65" s="107" t="s">
         <v>14</v>
@@ -6225,7 +6285,7 @@
       </c>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="47.25" customHeight="1">
       <c r="A66" s="90"/>
       <c r="B66" s="102" t="s">
         <v>103</v>
@@ -6248,7 +6308,7 @@
       </c>
       <c r="H66" s="91"/>
     </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="30">
       <c r="A67" s="90"/>
       <c r="B67" s="102" t="s">
         <v>70</v>
@@ -6271,7 +6331,7 @@
       </c>
       <c r="H67" s="91"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="90"/>
       <c r="B68" s="102" t="s">
         <v>92</v>
@@ -6294,7 +6354,7 @@
       </c>
       <c r="H68" s="91"/>
     </row>
-    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="45">
       <c r="A69" s="90"/>
       <c r="B69" s="112" t="s">
         <v>96</v>
@@ -6317,7 +6377,7 @@
       </c>
       <c r="H69" s="91"/>
     </row>
-    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="20.25" customHeight="1">
       <c r="A70" s="90"/>
       <c r="B70" s="104" t="s">
         <v>74</v>
@@ -6340,7 +6400,7 @@
       </c>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="20.25" customHeight="1">
       <c r="A71" s="90"/>
       <c r="B71" s="104" t="s">
         <v>75</v>
@@ -6363,7 +6423,7 @@
       </c>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="20.25" customHeight="1">
       <c r="A72" s="90"/>
       <c r="B72" s="104" t="s">
         <v>106</v>
@@ -6386,7 +6446,7 @@
       </c>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="20.25" customHeight="1">
       <c r="A73" s="90"/>
       <c r="B73" s="104" t="s">
         <v>76</v>
@@ -6409,7 +6469,7 @@
       </c>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="20.25" customHeight="1">
       <c r="A74" s="90"/>
       <c r="B74" s="102" t="s">
         <v>107</v>
@@ -6432,7 +6492,7 @@
       </c>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A75" s="90"/>
       <c r="B75" s="113" t="s">
         <v>78</v>
@@ -6455,7 +6515,7 @@
       </c>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="20.25" customHeight="1">
       <c r="B76" s="53"/>
       <c r="C76" s="43"/>
       <c r="D76" s="43"/>
@@ -6472,11 +6532,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F425C3-0FA8-4A17-B5C2-5175FFEED97F}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
@@ -6491,7 +6551,7 @@
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="54"/>
       <c r="B1" s="92"/>
       <c r="C1" s="93"/>
@@ -6503,7 +6563,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1">
       <c r="A2" s="11"/>
       <c r="B2" s="94" t="s">
         <v>11</v>
@@ -6517,10 +6577,10 @@
       <c r="I2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="169"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
       <c r="A3" s="11"/>
       <c r="B3" s="98" t="s">
         <v>5</v>
@@ -6537,7 +6597,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="11"/>
       <c r="B4" s="100" t="s">
         <v>14</v>
@@ -6565,7 +6625,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="31.5" customHeight="1" thickBot="1">
       <c r="A5" s="11"/>
       <c r="B5" s="102" t="s">
         <v>108</v>
@@ -6594,7 +6654,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="11"/>
       <c r="B6" s="104" t="s">
         <v>74</v>
@@ -6617,7 +6677,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
       <c r="A7" s="11"/>
       <c r="B7" s="102" t="s">
         <v>76</v>
@@ -6645,7 +6705,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="104" t="s">
         <v>110</v>
@@ -6673,7 +6733,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="104" t="s">
         <v>111</v>
@@ -6701,7 +6761,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="104" t="s">
         <v>112</v>
@@ -6731,7 +6791,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="11"/>
       <c r="B11" s="104" t="s">
         <v>113</v>
@@ -6761,7 +6821,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="105" t="s">
         <v>6</v>
@@ -6780,7 +6840,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="107" t="s">
         <v>14</v>
@@ -6809,7 +6869,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="104" t="s">
         <v>114</v>
@@ -6839,7 +6899,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
       <c r="A15" s="11"/>
       <c r="B15" s="102" t="s">
         <v>108</v>
@@ -6865,7 +6925,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="104" t="s">
         <v>27</v>
@@ -6893,7 +6953,7 @@
       <c r="J16" s="72"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="102" t="s">
         <v>115</v>
@@ -6923,7 +6983,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="11"/>
       <c r="B18" s="102" t="s">
         <v>117</v>
@@ -6954,7 +7014,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A19" s="11"/>
       <c r="B19" s="102" t="s">
         <v>118</v>
@@ -6985,7 +7045,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
       <c r="A20" s="11"/>
       <c r="B20" s="104" t="s">
         <v>74</v>
@@ -7009,7 +7069,7 @@
       <c r="H20" s="45"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="11"/>
       <c r="B21" s="102" t="s">
         <v>76</v>
@@ -7033,7 +7093,7 @@
       <c r="H21" s="45"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="11"/>
       <c r="B22" s="104" t="s">
         <v>110</v>
@@ -7056,7 +7116,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A23" s="11"/>
       <c r="B23" s="104" t="s">
         <v>111</v>
@@ -7081,7 +7141,7 @@
       <c r="I23" s="43"/>
       <c r="J23" s="43"/>
     </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="105" t="s">
         <v>7</v>
@@ -7093,7 +7153,7 @@
       <c r="G24" s="108"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A25" s="11"/>
       <c r="B25" s="107" t="s">
         <v>14</v>
@@ -7115,7 +7175,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
       <c r="A26" s="11"/>
       <c r="B26" s="102" t="s">
         <v>108</v>
@@ -7138,7 +7198,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A27" s="11"/>
       <c r="B27" s="104" t="s">
         <v>74</v>
@@ -7161,7 +7221,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
       <c r="A28" s="11"/>
       <c r="B28" s="102" t="s">
         <v>76</v>
@@ -7184,7 +7244,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A29" s="11"/>
       <c r="B29" s="104" t="s">
         <v>118</v>
@@ -7207,7 +7267,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="11"/>
       <c r="B30" s="104" t="s">
         <v>110</v>
@@ -7230,7 +7290,7 @@
       </c>
       <c r="H30" s="70"/>
     </row>
-    <row r="31" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
       <c r="A31" s="11"/>
       <c r="B31" s="105" t="s">
         <v>8</v>
@@ -7242,7 +7302,7 @@
       <c r="G31" s="108"/>
       <c r="H31" s="70"/>
     </row>
-    <row r="32" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
       <c r="A32" s="11"/>
       <c r="B32" s="107" t="s">
         <v>14</v>
@@ -7264,7 +7324,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
       <c r="A33" s="11"/>
       <c r="B33" s="102" t="s">
         <v>108</v>
@@ -7287,7 +7347,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
       <c r="A34" s="11"/>
       <c r="B34" s="102" t="s">
         <v>119</v>
@@ -7310,7 +7370,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
       <c r="A35" s="11"/>
       <c r="B35" s="102" t="s">
         <v>120</v>
@@ -7333,7 +7393,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A36" s="11"/>
       <c r="B36" s="104" t="s">
         <v>74</v>
@@ -7356,7 +7416,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="A37" s="11"/>
       <c r="B37" s="102" t="s">
         <v>76</v>
@@ -7379,7 +7439,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="A38" s="11"/>
       <c r="B38" s="104" t="s">
         <v>110</v>
@@ -7402,7 +7462,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="A39" s="11"/>
       <c r="B39" s="104" t="s">
         <v>121</v>
@@ -7423,7 +7483,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="A40" s="11"/>
       <c r="B40" s="105" t="s">
         <v>9</v>
@@ -7435,7 +7495,7 @@
       <c r="G40" s="108"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A41" s="11"/>
       <c r="B41" s="107" t="s">
         <v>14</v>
@@ -7457,7 +7517,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
       <c r="A42" s="11"/>
       <c r="B42" s="102" t="s">
         <v>108</v>
@@ -7480,7 +7540,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
       <c r="A43" s="10"/>
       <c r="B43" s="104" t="s">
         <v>74</v>
@@ -7503,7 +7563,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="10"/>
       <c r="B44" s="102" t="s">
         <v>76</v>
@@ -7526,7 +7586,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="A45" s="10"/>
       <c r="B45" s="104" t="s">
         <v>110</v>
@@ -7549,7 +7609,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="A46" s="10"/>
       <c r="B46" s="104" t="s">
         <v>122</v>
@@ -7572,7 +7632,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
       <c r="A47" s="10"/>
       <c r="B47" s="104" t="s">
         <v>123</v>
@@ -7595,7 +7655,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A48" s="10"/>
       <c r="B48" s="102" t="s">
         <v>124</v>
@@ -7618,7 +7678,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A49" s="10"/>
       <c r="B49" s="109" t="s">
         <v>10</v>
@@ -7630,7 +7690,7 @@
       <c r="G49" s="110"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
       <c r="A50" s="10"/>
       <c r="B50" s="107" t="s">
         <v>14</v>
@@ -7652,7 +7712,7 @@
       </c>
       <c r="H50" s="70"/>
     </row>
-    <row r="51" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
       <c r="A51" s="10"/>
       <c r="B51" s="102" t="s">
         <v>108</v>
@@ -7675,7 +7735,7 @@
       </c>
       <c r="H51" s="70"/>
     </row>
-    <row r="52" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
       <c r="A52" s="10"/>
       <c r="B52" s="102" t="s">
         <v>125</v>
@@ -7698,7 +7758,7 @@
       </c>
       <c r="H52" s="70"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="89"/>
       <c r="B53" s="102" t="s">
         <v>112</v>
@@ -7721,7 +7781,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="90"/>
       <c r="B54" s="112" t="s">
         <v>126</v>
@@ -7744,7 +7804,7 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="90"/>
       <c r="B55" s="104" t="s">
         <v>74</v>
@@ -7767,7 +7827,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="90"/>
       <c r="B56" s="102" t="s">
         <v>76</v>
@@ -7790,7 +7850,7 @@
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="34.5" customHeight="1">
       <c r="A57" s="90"/>
       <c r="B57" s="104" t="s">
         <v>110</v>
@@ -7813,7 +7873,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="90"/>
       <c r="B58" s="104" t="s">
         <v>112</v>
@@ -7836,7 +7896,7 @@
       </c>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="33" customHeight="1">
       <c r="A59" s="90"/>
       <c r="B59" s="102" t="s">
         <v>127</v>
@@ -7859,7 +7919,7 @@
       </c>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="33" customHeight="1" thickBot="1">
       <c r="A60" s="90"/>
       <c r="B60" s="113" t="s">
         <v>124</v>
@@ -7882,7 +7942,7 @@
       </c>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="33" customHeight="1">
       <c r="A61" s="90"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -7892,75 +7952,75 @@
       <c r="G61" s="43"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="29.25" customHeight="1">
       <c r="A62" s="90"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="19.5" customHeight="1">
       <c r="A63" s="90"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="34.5" customHeight="1">
       <c r="A64" s="90"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="24.75" customHeight="1">
       <c r="A65" s="90"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="24.75" customHeight="1">
       <c r="A66" s="90"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="90"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="90"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="30" customHeight="1">
       <c r="A69" s="90"/>
       <c r="H69" s="91"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="90"/>
       <c r="H70" s="91"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="90"/>
       <c r="H71" s="91"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="90"/>
       <c r="H72" s="91"/>
     </row>
-    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="20.25" customHeight="1">
       <c r="A73" s="90"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="20.25" customHeight="1">
       <c r="A74" s="90"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="20.25" customHeight="1">
       <c r="A75" s="90"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="20.25" customHeight="1">
       <c r="A76" s="90"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="20.25" customHeight="1">
       <c r="A77" s="90"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="20.25" customHeight="1">
       <c r="A78" s="90"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:8" ht="20.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7970,11 +8030,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFFA711-327E-4345-AC1D-AE200BC2B3B8}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
@@ -7989,7 +8049,7 @@
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="54"/>
       <c r="B1" s="92"/>
       <c r="C1" s="93"/>
@@ -8001,7 +8061,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1">
       <c r="A2" s="11"/>
       <c r="B2" s="122" t="s">
         <v>11</v>
@@ -8015,10 +8075,10 @@
       <c r="I2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="169"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
       <c r="A3" s="11"/>
       <c r="B3" s="126" t="s">
         <v>5</v>
@@ -8035,7 +8095,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="11"/>
       <c r="B4" s="128" t="s">
         <v>14</v>
@@ -8063,7 +8123,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A5" s="11"/>
       <c r="B5" s="130" t="s">
         <v>129</v>
@@ -8092,7 +8152,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="11"/>
       <c r="B6" s="132" t="s">
         <v>130</v>
@@ -8115,7 +8175,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
       <c r="A7" s="11"/>
       <c r="B7" s="130" t="s">
         <v>76</v>
@@ -8143,7 +8203,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="132" t="s">
         <v>131</v>
@@ -8171,7 +8231,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="132" t="s">
         <v>132</v>
@@ -8199,7 +8259,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="132" t="s">
         <v>133</v>
@@ -8229,7 +8289,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="11"/>
       <c r="B11" s="133" t="s">
         <v>6</v>
@@ -8248,7 +8308,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="135" t="s">
         <v>14</v>
@@ -8277,7 +8337,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="132" t="s">
         <v>114</v>
@@ -8307,7 +8367,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="130" t="s">
         <v>118</v>
@@ -8337,7 +8397,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
       <c r="A15" s="11"/>
       <c r="B15" s="130" t="s">
         <v>129</v>
@@ -8363,7 +8423,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="38.25" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="132" t="s">
         <v>130</v>
@@ -8391,7 +8451,7 @@
       <c r="J16" s="72"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="130" t="s">
         <v>76</v>
@@ -8421,7 +8481,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="11"/>
       <c r="B18" s="130" t="s">
         <v>133</v>
@@ -8452,7 +8512,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A19" s="11"/>
       <c r="B19" s="133" t="s">
         <v>7</v>
@@ -8472,7 +8532,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="11"/>
       <c r="B20" s="135" t="s">
         <v>14</v>
@@ -8496,7 +8556,7 @@
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
     </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A21" s="11"/>
       <c r="B21" s="130" t="s">
         <v>129</v>
@@ -8519,7 +8579,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A22" s="11"/>
       <c r="B22" s="132" t="s">
         <v>130</v>
@@ -8542,7 +8602,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A23" s="11"/>
       <c r="B23" s="130" t="s">
         <v>76</v>
@@ -8565,7 +8625,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="132" t="s">
         <v>118</v>
@@ -8588,7 +8648,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
       <c r="A25" s="11"/>
       <c r="B25" s="132" t="s">
         <v>133</v>
@@ -8611,7 +8671,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A26" s="11"/>
       <c r="B26" s="133" t="s">
         <v>8</v>
@@ -8623,7 +8683,7 @@
       <c r="G26" s="136"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="11"/>
       <c r="B27" s="135" t="s">
         <v>14</v>
@@ -8645,7 +8705,7 @@
       </c>
       <c r="H27" s="70"/>
     </row>
-    <row r="28" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
       <c r="A28" s="11"/>
       <c r="B28" s="130" t="s">
         <v>129</v>
@@ -8668,7 +8728,7 @@
       </c>
       <c r="H28" s="70"/>
     </row>
-    <row r="29" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
       <c r="A29" s="11"/>
       <c r="B29" s="132" t="s">
         <v>130</v>
@@ -8691,7 +8751,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A30" s="11"/>
       <c r="B30" s="130" t="s">
         <v>76</v>
@@ -8714,7 +8774,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A31" s="11"/>
       <c r="B31" s="132" t="s">
         <v>134</v>
@@ -8737,7 +8797,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
       <c r="A32" s="11"/>
       <c r="B32" s="130" t="s">
         <v>133</v>
@@ -8760,7 +8820,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="11"/>
       <c r="B33" s="132" t="s">
         <v>135</v>
@@ -8783,7 +8843,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A34" s="11"/>
       <c r="B34" s="133" t="s">
         <v>9</v>
@@ -8795,7 +8855,7 @@
       <c r="G34" s="136"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="11"/>
       <c r="B35" s="135" t="s">
         <v>14</v>
@@ -8817,7 +8877,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="A36" s="11"/>
       <c r="B36" s="130" t="s">
         <v>129</v>
@@ -8840,7 +8900,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A37" s="11"/>
       <c r="B37" s="132" t="s">
         <v>130</v>
@@ -8863,7 +8923,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="21" customHeight="1" thickBot="1">
       <c r="A38" s="11"/>
       <c r="B38" s="130" t="s">
         <v>76</v>
@@ -8886,7 +8946,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A39" s="10"/>
       <c r="B39" s="132" t="s">
         <v>134</v>
@@ -8909,7 +8969,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="10"/>
       <c r="B40" s="132" t="s">
         <v>134</v>
@@ -8932,7 +8992,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="10"/>
       <c r="B41" s="137" t="s">
         <v>10</v>
@@ -8944,7 +9004,7 @@
       <c r="G41" s="138"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="10"/>
       <c r="B42" s="135" t="s">
         <v>14</v>
@@ -8966,7 +9026,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A43" s="10"/>
       <c r="B43" s="130" t="s">
         <v>129</v>
@@ -8989,7 +9049,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
       <c r="A44" s="10"/>
       <c r="B44" s="132" t="s">
         <v>130</v>
@@ -9012,7 +9072,7 @@
       </c>
       <c r="H44" s="70"/>
     </row>
-    <row r="45" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
       <c r="A45" s="10"/>
       <c r="B45" s="130" t="s">
         <v>76</v>
@@ -9035,7 +9095,7 @@
       </c>
       <c r="H45" s="70"/>
     </row>
-    <row r="46" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A46" s="10"/>
       <c r="B46" s="139" t="s">
         <v>136</v>
@@ -9058,7 +9118,7 @@
       </c>
       <c r="H46" s="70"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="89"/>
       <c r="B47" s="132" t="s">
         <v>137</v>
@@ -9081,7 +9141,7 @@
       </c>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="90"/>
       <c r="B48" s="130" t="s">
         <v>138</v>
@@ -9104,7 +9164,7 @@
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="30.75" customHeight="1">
       <c r="A49" s="90"/>
       <c r="B49" s="130" t="s">
         <v>139</v>
@@ -9127,7 +9187,7 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
       <c r="A50" s="90"/>
       <c r="B50" s="140" t="s">
         <v>140</v>
@@ -9150,15 +9210,15 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="14.25" customHeight="1">
       <c r="A51" s="90"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="18" customHeight="1">
       <c r="A52" s="90"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="33" customHeight="1">
       <c r="A53" s="90"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -9168,75 +9228,75 @@
       <c r="G53" s="43"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="29.25" customHeight="1">
       <c r="A54" s="90"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="19.5" customHeight="1">
       <c r="A55" s="90"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="34.5" customHeight="1">
       <c r="A56" s="90"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="24.75" customHeight="1">
       <c r="A57" s="90"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="24.75" customHeight="1">
       <c r="A58" s="90"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="90"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="90"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="30" customHeight="1">
       <c r="A61" s="90"/>
       <c r="H61" s="91"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="90"/>
       <c r="H62" s="91"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="90"/>
       <c r="H63" s="91"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="90"/>
       <c r="H64" s="91"/>
     </row>
-    <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="20.25" customHeight="1">
       <c r="A65" s="90"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="20.25" customHeight="1">
       <c r="A66" s="90"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="20.25" customHeight="1">
       <c r="A67" s="90"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="20.25" customHeight="1">
       <c r="A68" s="90"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="20.25" customHeight="1">
       <c r="A69" s="90"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="20.25" customHeight="1">
       <c r="A70" s="90"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:8" ht="20.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9246,11 +9306,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE88731-7D73-44A3-9EB1-98150E3D1D2E}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
@@ -9265,7 +9325,7 @@
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="54"/>
       <c r="B1" s="92"/>
       <c r="C1" s="93"/>
@@ -9277,7 +9337,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1">
       <c r="A2" s="11"/>
       <c r="B2" s="122" t="s">
         <v>11</v>
@@ -9291,10 +9351,10 @@
       <c r="I2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="169"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
       <c r="A3" s="11"/>
       <c r="B3" s="126" t="s">
         <v>5</v>
@@ -9311,7 +9371,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="11"/>
       <c r="B4" s="128" t="s">
         <v>14</v>
@@ -9339,7 +9399,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A5" s="11"/>
       <c r="B5" s="130" t="s">
         <v>141</v>
@@ -9368,7 +9428,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="11"/>
       <c r="B6" s="132" t="s">
         <v>142</v>
@@ -9391,7 +9451,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
       <c r="A7" s="11"/>
       <c r="B7" s="130" t="s">
         <v>143</v>
@@ -9419,7 +9479,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="132" t="s">
         <v>144</v>
@@ -9447,7 +9507,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="132" t="s">
         <v>145</v>
@@ -9475,7 +9535,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="132" t="s">
         <v>146</v>
@@ -9505,7 +9565,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="11"/>
       <c r="B11" s="132" t="s">
         <v>147</v>
@@ -9535,7 +9595,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="133" t="s">
         <v>6</v>
@@ -9554,7 +9614,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="135" t="s">
         <v>14</v>
@@ -9583,7 +9643,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="130" t="s">
         <v>141</v>
@@ -9613,7 +9673,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
       <c r="A15" s="11"/>
       <c r="B15" s="132" t="s">
         <v>142</v>
@@ -9639,7 +9699,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="130" t="s">
         <v>114</v>
@@ -9667,7 +9727,7 @@
       <c r="J16" s="72"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="130" t="s">
         <v>143</v>
@@ -9697,7 +9757,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="11"/>
       <c r="B18" s="130" t="s">
         <v>148</v>
@@ -9728,7 +9788,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="30.75" thickBot="1">
       <c r="A19" s="11"/>
       <c r="B19" s="132" t="s">
         <v>144</v>
@@ -9759,7 +9819,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A20" s="11"/>
       <c r="B20" s="132" t="s">
         <v>145</v>
@@ -9781,7 +9841,7 @@
       <c r="H20" s="45"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="11"/>
       <c r="B21" s="133" t="s">
         <v>7</v>
@@ -9795,7 +9855,7 @@
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
     </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A22" s="11"/>
       <c r="B22" s="135" t="s">
         <v>14</v>
@@ -9817,7 +9877,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
       <c r="A23" s="11"/>
       <c r="B23" s="130" t="s">
         <v>141</v>
@@ -9840,7 +9900,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="132" t="s">
         <v>142</v>
@@ -9863,7 +9923,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A25" s="11"/>
       <c r="B25" s="130" t="s">
         <v>143</v>
@@ -9886,7 +9946,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A26" s="11"/>
       <c r="B26" s="130" t="s">
         <v>149</v>
@@ -9909,7 +9969,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
       <c r="A27" s="11"/>
       <c r="B27" s="132" t="s">
         <v>144</v>
@@ -9932,7 +9992,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="11"/>
       <c r="B28" s="132" t="s">
         <v>145</v>
@@ -9955,7 +10015,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="11"/>
       <c r="B29" s="133" t="s">
         <v>8</v>
@@ -9967,7 +10027,7 @@
       <c r="G29" s="136"/>
       <c r="H29" s="70"/>
     </row>
-    <row r="30" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
       <c r="A30" s="11"/>
       <c r="B30" s="135" t="s">
         <v>14</v>
@@ -9989,7 +10049,7 @@
       </c>
       <c r="H30" s="70"/>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A31" s="11"/>
       <c r="B31" s="130" t="s">
         <v>141</v>
@@ -10012,7 +10072,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="35.25" customHeight="1" thickBot="1">
       <c r="A32" s="11"/>
       <c r="B32" s="132" t="s">
         <v>142</v>
@@ -10035,7 +10095,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A33" s="11"/>
       <c r="B33" s="130" t="s">
         <v>143</v>
@@ -10058,7 +10118,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A34" s="11"/>
       <c r="B34" s="132" t="s">
         <v>144</v>
@@ -10081,7 +10141,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A35" s="11"/>
       <c r="B35" s="132" t="s">
         <v>145</v>
@@ -10104,7 +10164,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A36" s="11"/>
       <c r="B36" s="132" t="s">
         <v>150</v>
@@ -10127,7 +10187,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A37" s="11"/>
       <c r="B37" s="132" t="s">
         <v>151</v>
@@ -10150,7 +10210,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A38" s="11"/>
       <c r="B38" s="133" t="s">
         <v>9</v>
@@ -10162,7 +10222,7 @@
       <c r="G38" s="136"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A39" s="11"/>
       <c r="B39" s="135" t="s">
         <v>14</v>
@@ -10184,7 +10244,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A40" s="11"/>
       <c r="B40" s="130" t="s">
         <v>141</v>
@@ -10207,7 +10267,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
       <c r="A41" s="11"/>
       <c r="B41" s="132" t="s">
         <v>142</v>
@@ -10230,7 +10290,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A42" s="10"/>
       <c r="B42" s="130" t="s">
         <v>143</v>
@@ -10253,7 +10313,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A43" s="10"/>
       <c r="B43" s="132" t="s">
         <v>144</v>
@@ -10276,7 +10336,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="10"/>
       <c r="B44" s="132" t="s">
         <v>145</v>
@@ -10299,7 +10359,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="10"/>
       <c r="B45" s="132" t="s">
         <v>151</v>
@@ -10322,7 +10382,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A46" s="10"/>
       <c r="B46" s="132" t="s">
         <v>152</v>
@@ -10345,7 +10405,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="10"/>
       <c r="B47" s="137" t="s">
         <v>10</v>
@@ -10357,7 +10417,7 @@
       <c r="G47" s="138"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A48" s="10"/>
       <c r="B48" s="135" t="s">
         <v>14</v>
@@ -10379,7 +10439,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A49" s="10"/>
       <c r="B49" s="130" t="s">
         <v>141</v>
@@ -10402,7 +10462,7 @@
       </c>
       <c r="H49" s="70"/>
     </row>
-    <row r="50" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A50" s="10"/>
       <c r="B50" s="132" t="s">
         <v>142</v>
@@ -10425,7 +10485,7 @@
       </c>
       <c r="H50" s="70"/>
     </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A51" s="10"/>
       <c r="B51" s="130" t="s">
         <v>143</v>
@@ -10448,7 +10508,7 @@
       </c>
       <c r="H51" s="70"/>
     </row>
-    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="19.5" customHeight="1">
       <c r="A52" s="89"/>
       <c r="B52" s="139" t="s">
         <v>153</v>
@@ -10471,7 +10531,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="90"/>
       <c r="B53" s="132" t="s">
         <v>154</v>
@@ -10494,7 +10554,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="90"/>
       <c r="B54" s="132" t="s">
         <v>144</v>
@@ -10517,7 +10577,7 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="90"/>
       <c r="B55" s="132" t="s">
         <v>145</v>
@@ -10540,7 +10600,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="33.75" customHeight="1">
       <c r="A56" s="90"/>
       <c r="B56" s="130" t="s">
         <v>155</v>
@@ -10563,7 +10623,7 @@
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="50.25" customHeight="1" thickBot="1">
       <c r="A57" s="90"/>
       <c r="B57" s="140" t="s">
         <v>156</v>
@@ -10586,15 +10646,15 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="18" customHeight="1">
       <c r="A58" s="90"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="33" customHeight="1">
       <c r="A59" s="90"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="29.25" customHeight="1">
       <c r="A60" s="90"/>
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
@@ -10604,71 +10664,71 @@
       <c r="G60" s="43"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="19.5" customHeight="1">
       <c r="A61" s="90"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="34.5" customHeight="1">
       <c r="A62" s="90"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="24.75" customHeight="1">
       <c r="A63" s="90"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="24.75" customHeight="1">
       <c r="A64" s="90"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="90"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="90"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="30" customHeight="1">
       <c r="A67" s="90"/>
       <c r="H67" s="91"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="90"/>
       <c r="H68" s="91"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="90"/>
       <c r="H69" s="91"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="90"/>
       <c r="H70" s="91"/>
     </row>
-    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="20.25" customHeight="1">
       <c r="A71" s="90"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="20.25" customHeight="1">
       <c r="A72" s="90"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="20.25" customHeight="1">
       <c r="A73" s="90"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="20.25" customHeight="1">
       <c r="A74" s="90"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="20.25" customHeight="1">
       <c r="A75" s="90"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="20.25" customHeight="1">
       <c r="A76" s="90"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:8" ht="20.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10678,11 +10738,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E847F26-6126-4354-AA0A-32C629118169}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
@@ -10697,7 +10757,7 @@
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="54"/>
       <c r="B1" s="92"/>
       <c r="C1" s="93"/>
@@ -10709,7 +10769,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1">
       <c r="A2" s="11"/>
       <c r="B2" s="122" t="s">
         <v>11</v>
@@ -10723,10 +10783,10 @@
       <c r="I2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="169"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
       <c r="A3" s="11"/>
       <c r="B3" s="126" t="s">
         <v>5</v>
@@ -10743,7 +10803,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="11"/>
       <c r="B4" s="128" t="s">
         <v>14</v>
@@ -10771,7 +10831,7 @@
         <v>44298</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="A5" s="11"/>
       <c r="B5" s="130" t="s">
         <v>157</v>
@@ -10800,7 +10860,7 @@
         <v>44304</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="38.25" customHeight="1" thickBot="1">
       <c r="A6" s="11"/>
       <c r="B6" s="130" t="s">
         <v>158</v>
@@ -10823,7 +10883,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
       <c r="A7" s="11"/>
       <c r="B7" s="130" t="s">
         <v>159</v>
@@ -10851,7 +10911,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="139" t="s">
         <v>161</v>
@@ -10879,7 +10939,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="130" t="s">
         <v>163</v>
@@ -10907,7 +10967,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="130" t="s">
         <v>165</v>
@@ -10937,7 +10997,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="11"/>
       <c r="B11" s="133" t="s">
         <v>6</v>
@@ -10956,7 +11016,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="135" t="s">
         <v>14</v>
@@ -10985,7 +11045,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="130" t="s">
         <v>114</v>
@@ -11015,7 +11075,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="132" t="s">
         <v>166</v>
@@ -11045,7 +11105,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
       <c r="A15" s="11"/>
       <c r="B15" s="130" t="s">
         <v>157</v>
@@ -11071,7 +11131,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="36" customHeight="1" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="130" t="s">
         <v>158</v>
@@ -11099,7 +11159,7 @@
       <c r="J16" s="72"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="130" t="s">
         <v>165</v>
@@ -11129,7 +11189,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A18" s="11"/>
       <c r="B18" s="132" t="s">
         <v>166</v>
@@ -11160,7 +11220,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="35.25" customHeight="1" thickBot="1">
       <c r="A19" s="11"/>
       <c r="B19" s="132" t="s">
         <v>168</v>
@@ -11191,7 +11251,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A20" s="11"/>
       <c r="B20" s="133" t="s">
         <v>7</v>
@@ -11204,7 +11264,7 @@
       <c r="H20" s="45"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="11"/>
       <c r="B21" s="135" t="s">
         <v>14</v>
@@ -11228,7 +11288,7 @@
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
     </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A22" s="11"/>
       <c r="B22" s="130" t="s">
         <v>157</v>
@@ -11251,7 +11311,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="37.5" customHeight="1" thickBot="1">
       <c r="A23" s="11"/>
       <c r="B23" s="130" t="s">
         <v>158</v>
@@ -11274,7 +11334,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="130" t="s">
         <v>165</v>
@@ -11297,7 +11357,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A25" s="11"/>
       <c r="B25" s="130" t="s">
         <v>170</v>
@@ -11320,7 +11380,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A26" s="11"/>
       <c r="B26" s="133" t="s">
         <v>8</v>
@@ -11332,7 +11392,7 @@
       <c r="G26" s="136"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
       <c r="A27" s="11"/>
       <c r="B27" s="135" t="s">
         <v>14</v>
@@ -11354,7 +11414,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="11"/>
       <c r="B28" s="130" t="s">
         <v>157</v>
@@ -11377,7 +11437,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
       <c r="A29" s="11"/>
       <c r="B29" s="130" t="s">
         <v>158</v>
@@ -11400,7 +11460,7 @@
       </c>
       <c r="H29" s="70"/>
     </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A30" s="11"/>
       <c r="B30" s="132" t="s">
         <v>171</v>
@@ -11423,7 +11483,7 @@
       </c>
       <c r="H30" s="70"/>
     </row>
-    <row r="31" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="34.5" customHeight="1" thickBot="1">
       <c r="A31" s="11"/>
       <c r="B31" s="130" t="s">
         <v>159</v>
@@ -11446,7 +11506,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="11"/>
       <c r="B32" s="132" t="s">
         <v>172</v>
@@ -11469,7 +11529,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A33" s="11"/>
       <c r="B33" s="132" t="s">
         <v>173</v>
@@ -11492,7 +11552,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
       <c r="A34" s="11"/>
       <c r="B34" s="132" t="s">
         <v>174</v>
@@ -11515,7 +11575,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A35" s="11"/>
       <c r="B35" s="130" t="s">
         <v>165</v>
@@ -11538,7 +11598,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A36" s="11"/>
       <c r="B36" s="133" t="s">
         <v>9</v>
@@ -11550,7 +11610,7 @@
       <c r="G36" s="136"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A37" s="11"/>
       <c r="B37" s="135" t="s">
         <v>14</v>
@@ -11572,7 +11632,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A38" s="11"/>
       <c r="B38" s="130" t="s">
         <v>157</v>
@@ -11595,7 +11655,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
       <c r="A39" s="11"/>
       <c r="B39" s="130" t="s">
         <v>158</v>
@@ -11618,7 +11678,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="11"/>
       <c r="B40" s="130" t="s">
         <v>165</v>
@@ -11641,7 +11701,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="11"/>
       <c r="B41" s="132" t="s">
         <v>175</v>
@@ -11664,7 +11724,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="22.5" customHeight="1" thickBot="1">
       <c r="A42" s="11"/>
       <c r="B42" s="132" t="s">
         <v>172</v>
@@ -11687,7 +11747,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A43" s="10"/>
       <c r="B43" s="132" t="s">
         <v>174</v>
@@ -11710,7 +11770,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A44" s="10"/>
       <c r="B44" s="132" t="s">
         <v>173</v>
@@ -11733,7 +11793,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="10"/>
       <c r="B45" s="137" t="s">
         <v>10</v>
@@ -11745,7 +11805,7 @@
       <c r="G45" s="138"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="10"/>
       <c r="B46" s="135" t="s">
         <v>14</v>
@@ -11767,7 +11827,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A47" s="10"/>
       <c r="B47" s="130" t="s">
         <v>157</v>
@@ -11790,7 +11850,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
       <c r="A48" s="10"/>
       <c r="B48" s="130" t="s">
         <v>158</v>
@@ -11813,7 +11873,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="36" customHeight="1" thickBot="1">
       <c r="A49" s="10"/>
       <c r="B49" s="130" t="s">
         <v>159</v>
@@ -11836,7 +11896,7 @@
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
       <c r="A50" s="10"/>
       <c r="B50" s="139" t="s">
         <v>161</v>
@@ -11859,7 +11919,7 @@
       </c>
       <c r="H50" s="70"/>
     </row>
-    <row r="51" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A51" s="10"/>
       <c r="B51" s="132" t="s">
         <v>171</v>
@@ -11882,7 +11942,7 @@
       </c>
       <c r="H51" s="70"/>
     </row>
-    <row r="52" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="30.75" thickBot="1">
       <c r="A52" s="10"/>
       <c r="B52" s="130" t="s">
         <v>179</v>
@@ -11905,7 +11965,7 @@
       </c>
       <c r="H52" s="70"/>
     </row>
-    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="18.75" customHeight="1">
       <c r="A53" s="89"/>
       <c r="B53" s="130" t="s">
         <v>165</v>
@@ -11928,7 +11988,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="30">
       <c r="A54" s="159"/>
       <c r="B54" s="160" t="s">
         <v>181</v>
@@ -11951,7 +12011,7 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="33" customHeight="1" thickBot="1">
       <c r="A55" s="90"/>
       <c r="B55" s="140" t="s">
         <v>182</v>
@@ -11974,27 +12034,27 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="90"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="33" customHeight="1">
       <c r="A57" s="90"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="20.25" customHeight="1">
       <c r="A58" s="90"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="18" customHeight="1">
       <c r="A59" s="90"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="33" customHeight="1">
       <c r="A60" s="90"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="29.25" customHeight="1">
       <c r="A61" s="90"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -12004,71 +12064,71 @@
       <c r="G61" s="43"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="19.5" customHeight="1">
       <c r="A62" s="90"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="34.5" customHeight="1">
       <c r="A63" s="90"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="24.75" customHeight="1">
       <c r="A64" s="90"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="24.75" customHeight="1">
       <c r="A65" s="90"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="90"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="90"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="30" customHeight="1">
       <c r="A68" s="90"/>
       <c r="H68" s="91"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="90"/>
       <c r="H69" s="91"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="90"/>
       <c r="H70" s="91"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="90"/>
       <c r="H71" s="91"/>
     </row>
-    <row r="72" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="20.25" customHeight="1">
       <c r="A72" s="90"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="20.25" customHeight="1">
       <c r="A73" s="90"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="20.25" customHeight="1">
       <c r="A74" s="90"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="20.25" customHeight="1">
       <c r="A75" s="90"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="20.25" customHeight="1">
       <c r="A76" s="90"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="20.25" customHeight="1">
       <c r="A77" s="90"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:8" ht="20.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12078,11 +12138,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29494CB1-1025-4BD3-A0C0-5A104A2BA20C}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
@@ -12097,7 +12157,7 @@
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="54"/>
       <c r="B1" s="92"/>
       <c r="C1" s="93"/>
@@ -12109,7 +12169,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="38.25" thickBot="1">
       <c r="A2" s="11"/>
       <c r="B2" s="122" t="s">
         <v>11</v>
@@ -12123,10 +12183,10 @@
       <c r="I2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="169"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
       <c r="A3" s="11"/>
       <c r="B3" s="126" t="s">
         <v>5</v>
@@ -12143,7 +12203,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="11"/>
       <c r="B4" s="128" t="s">
         <v>14</v>
@@ -12171,7 +12231,7 @@
         <v>44305</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="A5" s="11"/>
       <c r="B5" s="130" t="s">
         <v>183</v>
@@ -12200,7 +12260,7 @@
         <v>44311</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="11"/>
       <c r="B6" s="130" t="s">
         <v>141</v>
@@ -12223,7 +12283,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
       <c r="A7" s="11"/>
       <c r="B7" s="130" t="s">
         <v>184</v>
@@ -12251,10 +12311,10 @@
       <c r="J7" s="51"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="139" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>22</v>
@@ -12279,7 +12339,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="130" t="s">
         <v>187</v>
@@ -12307,7 +12367,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="133" t="s">
         <v>6</v>
@@ -12326,7 +12386,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="11"/>
       <c r="B11" s="135" t="s">
         <v>14</v>
@@ -12355,7 +12415,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="130" t="s">
         <v>114</v>
@@ -12385,7 +12445,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="132" t="s">
         <v>188</v>
@@ -12415,7 +12475,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="130" t="s">
         <v>189</v>
@@ -12445,7 +12505,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
       <c r="A15" s="11"/>
       <c r="B15" s="130" t="s">
         <v>189</v>
@@ -12471,7 +12531,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="130" t="s">
         <v>183</v>
@@ -12499,7 +12559,7 @@
       <c r="J16" s="72"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="130" t="s">
         <v>141</v>
@@ -12529,7 +12589,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A18" s="11"/>
       <c r="B18" s="130" t="s">
         <v>184</v>
@@ -12560,7 +12620,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A19" s="11"/>
       <c r="B19" s="133" t="s">
         <v>7</v>
@@ -12580,7 +12640,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A20" s="11"/>
       <c r="B20" s="135" t="s">
         <v>14</v>
@@ -12603,7 +12663,7 @@
       <c r="H20" s="45"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A21" s="11"/>
       <c r="B21" s="130" t="s">
         <v>189</v>
@@ -12628,7 +12688,7 @@
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
     </row>
-    <row r="22" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
       <c r="A22" s="11"/>
       <c r="B22" s="130" t="s">
         <v>183</v>
@@ -12651,7 +12711,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A23" s="11"/>
       <c r="B23" s="130" t="s">
         <v>141</v>
@@ -12674,7 +12734,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="130" t="s">
         <v>184</v>
@@ -12697,7 +12757,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A25" s="11"/>
       <c r="B25" s="133" t="s">
         <v>8</v>
@@ -12709,7 +12769,7 @@
       <c r="G25" s="136"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A26" s="11"/>
       <c r="B26" s="135" t="s">
         <v>14</v>
@@ -12731,7 +12791,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
       <c r="A27" s="11"/>
       <c r="B27" s="130" t="s">
         <v>183</v>
@@ -12754,7 +12814,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="11"/>
       <c r="B28" s="130" t="s">
         <v>141</v>
@@ -12777,7 +12837,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A29" s="11"/>
       <c r="B29" s="130" t="s">
         <v>184</v>
@@ -12800,12 +12860,12 @@
       </c>
       <c r="H29" s="70"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A30" s="11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B30" s="130" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C30" s="34" t="s">
         <v>22</v>
@@ -12825,10 +12885,10 @@
       </c>
       <c r="H30" s="70"/>
     </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A31" s="11"/>
       <c r="B31" s="130" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>22</v>
@@ -12840,7 +12900,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G31" s="131">
         <f>G30+E31</f>
@@ -12848,10 +12908,10 @@
       </c>
       <c r="H31" s="70"/>
     </row>
-    <row r="32" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A32" s="11"/>
       <c r="B32" s="132" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>22</v>
@@ -12863,7 +12923,7 @@
         <v>2.5</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G32" s="131">
         <f t="shared" si="2"/>
@@ -12871,7 +12931,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="11"/>
       <c r="B33" s="133" t="s">
         <v>9</v>
@@ -12883,7 +12943,7 @@
       <c r="G33" s="136"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A34" s="11"/>
       <c r="B34" s="135" t="s">
         <v>14</v>
@@ -12905,7 +12965,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A35" s="11"/>
       <c r="B35" s="130" t="s">
         <v>183</v>
@@ -12928,7 +12988,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A36" s="11"/>
       <c r="B36" s="130" t="s">
         <v>141</v>
@@ -12951,7 +13011,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="11"/>
       <c r="B37" s="130" t="s">
         <v>184</v>
@@ -12974,10 +13034,10 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="11"/>
       <c r="B38" s="132" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C38" s="34" t="s">
         <v>22</v>
@@ -12997,7 +13057,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A39" s="11"/>
       <c r="B39" s="137" t="s">
         <v>10</v>
@@ -13009,7 +13069,7 @@
       <c r="G39" s="138"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="10"/>
       <c r="B40" s="135" t="s">
         <v>14</v>
@@ -13031,7 +13091,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="10"/>
       <c r="B41" s="130" t="s">
         <v>183</v>
@@ -13054,7 +13114,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A42" s="10"/>
       <c r="B42" s="130" t="s">
         <v>141</v>
@@ -13077,7 +13137,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A43" s="10"/>
       <c r="B43" s="130" t="s">
         <v>184</v>
@@ -13100,10 +13160,10 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A44" s="10"/>
       <c r="B44" s="139" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>22</v>
@@ -13115,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G44" s="131">
         <f t="shared" si="4"/>
@@ -13123,10 +13183,10 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
       <c r="A45" s="10"/>
       <c r="B45" s="132" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>22</v>
@@ -13138,7 +13198,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G45" s="131">
         <f t="shared" si="4"/>
@@ -13146,12 +13206,12 @@
       </c>
       <c r="H45" s="70"/>
     </row>
-    <row r="46" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A46" s="10"/>
       <c r="B46" s="140" t="s">
-        <v>196</v>
-      </c>
-      <c r="C46" s="170" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="167" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="143" t="s">
@@ -13169,31 +13229,31 @@
       </c>
       <c r="H46" s="70"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="10"/>
       <c r="H47" s="70"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="90"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="33" customHeight="1">
       <c r="A49" s="90"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="90"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="18" customHeight="1">
       <c r="A51" s="90"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="33" customHeight="1">
       <c r="A52" s="90"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="29.25" customHeight="1">
       <c r="A53" s="90"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -13203,71 +13263,1439 @@
       <c r="G53" s="43"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="19.5" customHeight="1">
       <c r="A54" s="90"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="34.5" customHeight="1">
       <c r="A55" s="90"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="24.75" customHeight="1">
       <c r="A56" s="90"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="24.75" customHeight="1">
       <c r="A57" s="90"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="90"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="90"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="30" customHeight="1">
       <c r="A60" s="90"/>
       <c r="H60" s="91"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="90"/>
       <c r="H61" s="91"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="90"/>
       <c r="H62" s="91"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="90"/>
       <c r="H63" s="91"/>
     </row>
-    <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="20.25" customHeight="1">
       <c r="A64" s="90"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="20.25" customHeight="1">
       <c r="A65" s="90"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="20.25" customHeight="1">
       <c r="A66" s="90"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="20.25" customHeight="1">
       <c r="A67" s="90"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="20.25" customHeight="1">
       <c r="A68" s="90"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="20.25" customHeight="1">
       <c r="A69" s="90"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:8" ht="20.25" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FC0A00-3729-4049-9CB8-186F3C6D0B3C}">
+  <dimension ref="A1:K77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A1" s="54"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:11" ht="38.25" thickBot="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="169"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="66">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="103">
+        <f>E5</f>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="67">
+        <v>44318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="103">
+        <f t="shared" ref="G6" si="0">G5+E6</f>
+        <v>1.25</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="103">
+        <f>G6+E7</f>
+        <v>7.25</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="35">
+        <v>6</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="103">
+        <f>G7+E8</f>
+        <v>13.25</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="35">
+        <v>3</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="103">
+        <f>G8+E9</f>
+        <v>16.25</v>
+      </c>
+      <c r="H9" s="45"/>
+      <c r="I9" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="45"/>
+      <c r="I11" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="103">
+        <f>E12</f>
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="45"/>
+      <c r="I12" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="35">
+        <v>5.75</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="103">
+        <f>E13+G12</f>
+        <v>6.25</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="35">
+        <v>17</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="103">
+        <f>E14+G13</f>
+        <v>23.25</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="103">
+        <f>G14+E15</f>
+        <v>23.75</v>
+      </c>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="103">
+        <f>G15+E16</f>
+        <v>24.5</v>
+      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="103">
+        <f>G16+E17</f>
+        <v>24.5</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="103">
+        <f>G17+E18</f>
+        <v>24.5</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="87">
+        <f>SUM(G9,G18,G25,G33,G39,G54)</f>
+        <v>77.75</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="77">
+        <f>J18/6</f>
+        <v>12.958333333333334</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="27" customHeight="1" thickBot="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="35">
+        <v>5.75</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="103">
+        <f>E21</f>
+        <v>5.75</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="35">
+        <v>7</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="103">
+        <f>G21+E22</f>
+        <v>12.75</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="103">
+        <f>G22+E23</f>
+        <v>13.25</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="103">
+        <f>G23+E24</f>
+        <v>14</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="103">
+        <f>G24+E25</f>
+        <v>14</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="30.75" thickBot="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="35">
+        <v>1</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="103">
+        <f>E28</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="35">
+        <v>2</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="103">
+        <f t="shared" ref="G29:G33" si="1">G28+E29</f>
+        <v>3</v>
+      </c>
+      <c r="H29" s="70"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A30" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="103">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="H30" s="70"/>
+    </row>
+    <row r="31" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="103">
+        <f>G30+E31</f>
+        <v>4.25</v>
+      </c>
+      <c r="H31" s="70"/>
+    </row>
+    <row r="32" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A32" s="11"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="103">
+        <f>G31+E32</f>
+        <v>4.25</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="11"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="103">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A34" s="11"/>
+      <c r="B34" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A35" s="11"/>
+      <c r="B35" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A36" s="11"/>
+      <c r="B36" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="103">
+        <f>E36</f>
+        <v>1.5</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A37" s="11"/>
+      <c r="B37" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="103">
+        <f t="shared" ref="G37:G38" si="2">G36+E37</f>
+        <v>2</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A38" s="11"/>
+      <c r="B38" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="103">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A39" s="11"/>
+      <c r="B39" s="102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="103">
+        <f>G38+E39</f>
+        <v>3.25</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="102" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="35">
+        <v>3</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="103">
+        <f>G39+E40</f>
+        <v>6.25</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="35">
+        <v>2</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="103">
+        <f>G40+E41</f>
+        <v>8.25</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="35">
+        <v>7</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="103">
+        <f>G41+E42</f>
+        <v>15.25</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="30">
+      <c r="A45" s="10"/>
+      <c r="B45" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="35">
+        <v>1</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" s="103">
+        <f>E45</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="J45" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A46" s="10"/>
+      <c r="B46" s="102" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="103">
+        <f t="shared" ref="G46:G48" si="3">G45+E46</f>
+        <v>1.5</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A47" s="10"/>
+      <c r="B47" s="102" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="35">
+        <v>1.25</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="103">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A48" s="10"/>
+      <c r="B48" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="35">
+        <v>2</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="G48" s="103">
+        <f t="shared" si="3"/>
+        <v>4.75</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A49" s="10"/>
+      <c r="B49" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="35">
+        <v>4</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="103">
+        <f>G48+E49</f>
+        <v>8.75</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A50" s="10"/>
+      <c r="B50" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="103">
+        <f>G49+E50</f>
+        <v>9.5</v>
+      </c>
+      <c r="H50" s="70"/>
+    </row>
+    <row r="51" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A51" s="10"/>
+      <c r="B51" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="G51" s="103">
+        <f t="shared" ref="G51:G54" si="4">G50+E51</f>
+        <v>11</v>
+      </c>
+      <c r="H51" s="70"/>
+    </row>
+    <row r="52" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A52" s="10"/>
+      <c r="B52" s="168" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="164" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="164" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="162">
+        <v>2</v>
+      </c>
+      <c r="F52" s="164" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="103">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H52" s="70"/>
+    </row>
+    <row r="53" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A53" s="10"/>
+      <c r="B53" s="168" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="164" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="164" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="162">
+        <v>2</v>
+      </c>
+      <c r="F53" s="164" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="103">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H53" s="70"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A54" s="10"/>
+      <c r="B54" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="115">
+        <v>0.5</v>
+      </c>
+      <c r="F54" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="117">
+        <f t="shared" si="4"/>
+        <v>15.5</v>
+      </c>
+      <c r="H54" s="70"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="90"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="33" customHeight="1">
+      <c r="A56" s="90"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A57" s="90"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" ht="18" customHeight="1">
+      <c r="A58" s="90"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" ht="33" customHeight="1">
+      <c r="A59" s="90"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A60" s="90"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A61" s="90"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A62" s="90"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A63" s="90"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A64" s="90"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="90"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="90"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" ht="30" customHeight="1">
+      <c r="A67" s="90"/>
+      <c r="H67" s="91"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="90"/>
+      <c r="H68" s="91"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="90"/>
+      <c r="H69" s="91"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="90"/>
+      <c r="H70" s="91"/>
+    </row>
+    <row r="71" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A71" s="90"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A72" s="90"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A73" s="90"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A74" s="90"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A75" s="90"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A76" s="90"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" ht="20.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13438,6 +14866,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13446,43 +14880,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF543F68-0634-48D3-9512-78B815FCAD16}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF543F68-0634-48D3-9512-78B815FCAD16}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCF450D-C3EB-4368-8E96-CCC92F1AC82B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F9D30A-50A2-408B-B3F0-EDB4CF8C0B75}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F9D30A-50A2-408B-B3F0-EDB4CF8C0B75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCF450D-C3EB-4368-8E96-CCC92F1AC82B}"/>
 </file>
--- a/website/src/documents/Privat/Apollon_Aufwandserfassung.xlsx
+++ b/website/src/documents/Privat/Apollon_Aufwandserfassung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg.sharepoint.com/sites/o365grpSWE-Projekt/Freigegebene Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3151" documentId="13_ncr:1_{CF72DE10-053D-F84A-BF2F-97DB33227B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{18817244-8847-4EBA-A7D3-76E53BAFF7DB}"/>
+  <xr:revisionPtr revIDLastSave="3410" documentId="13_ncr:1_{CF72DE10-053D-F84A-BF2F-97DB33227B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{16FC51AD-CCA3-4964-B152-1C6453361543}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="9" xr2:uid="{5DFA726E-B0C4-4500-AF96-5BC0FDCBA0B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{5DFA726E-B0C4-4500-AF96-5BC0FDCBA0B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Zeiterfassung KW 16" sheetId="8" r:id="rId8"/>
     <sheet name="Zeiterfassung KW 17" sheetId="9" r:id="rId9"/>
     <sheet name="Zeiterfassung KW 18" sheetId="10" r:id="rId10"/>
+    <sheet name="Zeiterfassung KW 19" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="251">
   <si>
     <r>
       <rPr>
@@ -761,6 +762,9 @@
     <t>Modellüberarbeitungen</t>
   </si>
   <si>
+    <t>DbContext überarbeitet und Entity Framework Core Anbindung</t>
+  </si>
+  <si>
     <t>Krankheitsbedingt ausgefallen</t>
   </si>
   <si>
@@ -794,7 +798,64 @@
     <t>Fehlerbehebung EF und daraus folgende Anpassungen an Tests und Model</t>
   </si>
   <si>
-    <t>DbContext überarbeitet und Entity Framework Core Anbindung</t>
+    <t>Betreuer Weeky</t>
+  </si>
+  <si>
+    <t>Ausbessern der Dungeon Konfiguration</t>
+  </si>
+  <si>
+    <t>Zsm. Mit Leon Jerke</t>
+  </si>
+  <si>
+    <t>Anbinden der Chat-Komponente</t>
+  </si>
+  <si>
+    <t>Anbinden der Master Ansicht</t>
+  </si>
+  <si>
+    <t>Frontend-Implementierung</t>
+  </si>
+  <si>
+    <t>Schreiben von Frontend Services</t>
+  </si>
+  <si>
+    <t>Schreiben von Controllern</t>
+  </si>
+  <si>
+    <t>Allgemeine Frontend Arbeit</t>
+  </si>
+  <si>
+    <t>Test und Player/MasterService</t>
+  </si>
+  <si>
+    <t>Bugfixes</t>
+  </si>
+  <si>
+    <t>GameController</t>
+  </si>
+  <si>
+    <t>ConfigController überarbeitet</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Wiki Erstellung</t>
+  </si>
+  <si>
+    <t>Produktvergleich zum Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Test der Benutzbarkeit</t>
+  </si>
+  <si>
+    <t>PlayerService Implementierung</t>
+  </si>
+  <si>
+    <t>Sonstige Gameimplementierung</t>
+  </si>
+  <si>
+    <t>Bug Fixing</t>
   </si>
 </sst>
 </file>
@@ -804,7 +865,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,6 +956,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2544,7 +2612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3019,6 +3087,12 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3349,7 +3423,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3370,10 +3444,10 @@
       <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="167"/>
+      <c r="D2" s="169"/>
     </row>
     <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76"/>
@@ -3393,12 +3467,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="143">
-        <f>'Zeiterfassung KW 10'!J18+'Zeiterfassung KW 11'!J18+'Zeiterfassung KW 12'!J18+'Zeiterfassung KW 13'!J18+'Zeiterfassung KW 14'!J18+'Zeiterfassung KW 15'!J18+'Zeiterfassung KW 16'!J18+'Zeiterfassung KW 17'!J18+'Zeiterfassung KW 18'!J18</f>
-        <v>830.75</v>
+        <f>'Zeiterfassung KW 10'!J18+'Zeiterfassung KW 11'!J18+'Zeiterfassung KW 12'!J18+'Zeiterfassung KW 13'!J18+'Zeiterfassung KW 14'!J18+'Zeiterfassung KW 15'!J18+'Zeiterfassung KW 16'!J18+'Zeiterfassung KW 17'!J18+'Zeiterfassung KW 18'!J18+'Zeiterfassung KW 19'!J18</f>
+        <v>1001.25</v>
       </c>
       <c r="D4" s="152">
         <f>C4/8</f>
-        <v>103.84375</v>
+        <v>125.15625</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3415,12 +3489,12 @@
         <v>3</v>
       </c>
       <c r="C6" s="143">
-        <f>'Zeiterfassung KW 10'!G12+'Zeiterfassung KW 11'!G14+'Zeiterfassung KW 12'!G11+'Zeiterfassung KW 13'!G10+'Zeiterfassung KW 14'!G11+'Zeiterfassung KW 15'!G10+'Zeiterfassung KW 16'!G9+'Zeiterfassung KW 17'!G10+'Zeiterfassung KW 18'!G8</f>
-        <v>158.25</v>
+        <f>'Zeiterfassung KW 10'!G12+'Zeiterfassung KW 11'!G14+'Zeiterfassung KW 12'!G11+'Zeiterfassung KW 13'!G10+'Zeiterfassung KW 14'!G11+'Zeiterfassung KW 15'!G10+'Zeiterfassung KW 16'!G9+'Zeiterfassung KW 17'!G10+'Zeiterfassung KW 18'!G8+'Zeiterfassung KW 19'!G9</f>
+        <v>192</v>
       </c>
       <c r="D6" s="152">
         <f>C6/8</f>
-        <v>19.78125</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3438,12 +3512,12 @@
         <v>3</v>
       </c>
       <c r="C8" s="145">
-        <f>'Zeiterfassung KW 10'!G20+'Zeiterfassung KW 11'!G30+'Zeiterfassung KW 12'!G23+'Zeiterfassung KW 13'!G18+'Zeiterfassung KW 14'!G20+'Zeiterfassung KW 15'!G19+'Zeiterfassung KW 16'!G18+'Zeiterfassung KW 17'!G17+'Zeiterfassung KW 18'!G15</f>
-        <v>176.25</v>
+        <f>'Zeiterfassung KW 10'!G20+'Zeiterfassung KW 11'!G30+'Zeiterfassung KW 12'!G23+'Zeiterfassung KW 13'!G18+'Zeiterfassung KW 14'!G20+'Zeiterfassung KW 15'!G19+'Zeiterfassung KW 16'!G18+'Zeiterfassung KW 17'!G17+'Zeiterfassung KW 18'!G15+'Zeiterfassung KW 19'!G18</f>
+        <v>215</v>
       </c>
       <c r="D8" s="152">
         <f>C8/8</f>
-        <v>22.03125</v>
+        <v>26.875</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3460,12 +3534,12 @@
         <v>3</v>
       </c>
       <c r="C10" s="145">
-        <f>'Zeiterfassung KW 10'!G28+'Zeiterfassung KW 11'!G41+'Zeiterfassung KW 12'!G30+'Zeiterfassung KW 13'!G25+'Zeiterfassung KW 14'!G28+'Zeiterfassung KW 15'!G25+'Zeiterfassung KW 16'!G24+'Zeiterfassung KW 17'!G23+'Zeiterfassung KW 18'!G20</f>
-        <v>141.75</v>
+        <f>'Zeiterfassung KW 10'!G28+'Zeiterfassung KW 11'!G41+'Zeiterfassung KW 12'!G30+'Zeiterfassung KW 13'!G25+'Zeiterfassung KW 14'!G28+'Zeiterfassung KW 15'!G25+'Zeiterfassung KW 16'!G24+'Zeiterfassung KW 17'!G23+'Zeiterfassung KW 18'!G20+'Zeiterfassung KW 19'!G22</f>
+        <v>177.5</v>
       </c>
       <c r="D10" s="152">
         <f>C10/8</f>
-        <v>17.71875</v>
+        <v>22.1875</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3482,12 +3556,12 @@
         <v>3</v>
       </c>
       <c r="C12" s="145">
-        <f>'Zeiterfassung KW 10'!G35+'Zeiterfassung KW 11'!G51+'Zeiterfassung KW 12'!G39+'Zeiterfassung KW 13'!G33+'Zeiterfassung KW 14'!G37+'Zeiterfassung KW 15'!G35+'Zeiterfassung KW 16'!G32+'Zeiterfassung KW 17'!G29+'Zeiterfassung KW 18'!G23</f>
-        <v>83.25</v>
+        <f>'Zeiterfassung KW 10'!G35+'Zeiterfassung KW 11'!G51+'Zeiterfassung KW 12'!G39+'Zeiterfassung KW 13'!G33+'Zeiterfassung KW 14'!G37+'Zeiterfassung KW 15'!G35+'Zeiterfassung KW 16'!G32+'Zeiterfassung KW 17'!G29+'Zeiterfassung KW 18'!G23+'Zeiterfassung KW 19'!G30</f>
+        <v>102</v>
       </c>
       <c r="D12" s="152">
         <f>C12/8</f>
-        <v>10.40625</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3504,12 +3578,12 @@
         <v>3</v>
       </c>
       <c r="C14" s="145">
-        <f>'Zeiterfassung KW 10'!G42+'Zeiterfassung KW 11'!G63+'Zeiterfassung KW 12'!G48+'Zeiterfassung KW 13'!G40+'Zeiterfassung KW 14'!G46+'Zeiterfassung KW 15'!G44+'Zeiterfassung KW 16'!G38+'Zeiterfassung KW 17'!G38+'Zeiterfassung KW 18'!G19</f>
-        <v>103.75</v>
+        <f>'Zeiterfassung KW 10'!G42+'Zeiterfassung KW 11'!G63+'Zeiterfassung KW 12'!G48+'Zeiterfassung KW 13'!G40+'Zeiterfassung KW 14'!G46+'Zeiterfassung KW 15'!G44+'Zeiterfassung KW 16'!G38+'Zeiterfassung KW 17'!G38+'Zeiterfassung KW 18'!G19+'Zeiterfassung KW 19'!G37</f>
+        <v>125.5</v>
       </c>
       <c r="D14" s="152">
         <f>C14/8</f>
-        <v>12.96875</v>
+        <v>15.6875</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3526,12 +3600,12 @@
         <v>3</v>
       </c>
       <c r="C16" s="146">
-        <f>'Zeiterfassung KW 10'!G54+'Zeiterfassung KW 11'!G75+'Zeiterfassung KW 12'!G60+'Zeiterfassung KW 13'!G50+'Zeiterfassung KW 14'!G57+'Zeiterfassung KW 15'!G55+'Zeiterfassung KW 16'!G46+'Zeiterfassung KW 17'!G51+'Zeiterfassung KW 18'!G40</f>
-        <v>161.5</v>
+        <f>'Zeiterfassung KW 10'!G54+'Zeiterfassung KW 11'!G75+'Zeiterfassung KW 12'!G60+'Zeiterfassung KW 13'!G50+'Zeiterfassung KW 14'!G57+'Zeiterfassung KW 15'!G55+'Zeiterfassung KW 16'!G46+'Zeiterfassung KW 17'!G51+'Zeiterfassung KW 18'!G40+'Zeiterfassung KW 19'!G44</f>
+        <v>183.25</v>
       </c>
       <c r="D16" s="153">
         <f>C16/8</f>
-        <v>20.1875</v>
+        <v>22.90625</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3551,8 +3625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7845F4C-3F76-4CB2-9982-0E19EC39A5BE}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3641,7 +3715,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="65">
-        <v>44312</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3670,7 +3744,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="66">
-        <v>44318</v>
+        <v>44325</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3727,7 +3801,7 @@
     <row r="8" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="107" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>22</v>
@@ -4115,7 +4189,7 @@
     <row r="23" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="165" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
@@ -4187,7 +4261,7 @@
     <row r="27" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>28</v>
@@ -4210,7 +4284,7 @@
     <row r="28" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>22</v>
@@ -4233,7 +4307,7 @@
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C29" s="35" t="s">
         <v>22</v>
@@ -4256,7 +4330,7 @@
     <row r="30" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C30" s="35" t="s">
         <v>22</v>
@@ -4336,7 +4410,7 @@
     <row r="34" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C34" s="36" t="s">
         <v>28</v>
@@ -4359,7 +4433,7 @@
     <row r="35" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="98" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C35" s="36" t="s">
         <v>22</v>
@@ -4382,7 +4456,7 @@
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C36" s="36" t="s">
         <v>22</v>
@@ -4405,7 +4479,7 @@
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="107" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C37" s="36" t="s">
         <v>22</v>
@@ -4431,7 +4505,7 @@
     <row r="38" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C38" s="36" t="s">
         <v>22</v>
@@ -4454,7 +4528,7 @@
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C39" s="36" t="s">
         <v>22</v>
@@ -4477,7 +4551,7 @@
     <row r="40" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C40" s="111" t="s">
         <v>38</v>
@@ -4614,6 +4688,1118 @@
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB18F1A6-A401-4F95-ACF9-4D2A8A43B6C2}">
+  <dimension ref="A1:K68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+    </row>
+    <row r="2" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="166"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="65">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="99">
+        <f>E5</f>
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="66">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="98" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="35">
+        <v>15</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="99">
+        <f>G5+E6</f>
+        <v>15.75</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="35">
+        <v>5</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="99">
+        <f>G6+E7</f>
+        <v>20.75</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="50"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="98" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="35">
+        <v>3</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="99">
+        <f>G7+E8</f>
+        <v>23.75</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="51"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="107" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="35">
+        <v>10</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="99">
+        <f>G8+E9</f>
+        <v>33.75</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="99">
+        <f>E12</f>
+        <v>0.75</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="I12" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="98" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="35">
+        <v>4</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="99">
+        <f>G12+E13</f>
+        <v>4.75</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="35">
+        <v>3</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="99">
+        <f t="shared" ref="G14:G18" si="0">G13+E14</f>
+        <v>7.75</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="35">
+        <v>10</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="99">
+        <f t="shared" si="0"/>
+        <v>17.75</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="35">
+        <v>3</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="99">
+        <f t="shared" si="0"/>
+        <v>20.75</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="68"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="98" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="35">
+        <v>1</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="99">
+        <f t="shared" si="0"/>
+        <v>21.75</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="98" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="35">
+        <v>17</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="99">
+        <f t="shared" si="0"/>
+        <v>38.75</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="83">
+        <f>SUM(G9,G18,G22,G37,G30,G44)</f>
+        <v>170.5</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="73">
+        <f>J18/5</f>
+        <v>34.1</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="44"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="99">
+        <f>E21</f>
+        <v>0.75</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="35">
+        <v>35</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="99">
+        <f>G21+E22</f>
+        <v>35.75</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="99">
+        <f>E25</f>
+        <v>0.75</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="35">
+        <v>2</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="99">
+        <f>G25+E26</f>
+        <v>2.75</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="35">
+        <v>2</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="99">
+        <f>G26+E27</f>
+        <v>4.75</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="35">
+        <v>5</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="99">
+        <f>G27+E28</f>
+        <v>9.75</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="35">
+        <v>5</v>
+      </c>
+      <c r="F29" s="36"/>
+      <c r="G29" s="99">
+        <f>G28+E29</f>
+        <v>14.75</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="167" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="35">
+        <v>4</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="99">
+        <f>G29+E30</f>
+        <v>18.75</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="99">
+        <f>E33</f>
+        <v>0.75</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="35">
+        <v>3</v>
+      </c>
+      <c r="F34" s="36"/>
+      <c r="G34" s="99">
+        <f>G33+E34</f>
+        <v>3.75</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="35">
+        <v>8</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="G35" s="99">
+        <f t="shared" ref="G35:G37" si="1">G34+E35</f>
+        <v>11.75</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="35">
+        <v>5</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="99">
+        <f t="shared" si="1"/>
+        <v>16.75</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="35">
+        <v>5</v>
+      </c>
+      <c r="F37" s="36"/>
+      <c r="G37" s="99">
+        <f t="shared" si="1"/>
+        <v>21.75</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="99">
+        <f>E40</f>
+        <v>0.75</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="98" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="35">
+        <v>6</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="99">
+        <f>G40+E41</f>
+        <v>6.75</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="J41" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="98" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="35">
+        <v>6</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="99">
+        <f t="shared" ref="G42:G44" si="2">G41+E42</f>
+        <v>12.75</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="35">
+        <v>5</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="99">
+        <f t="shared" si="2"/>
+        <v>17.75</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="107" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="35">
+        <v>4</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="99">
+        <f t="shared" si="2"/>
+        <v>21.75</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="86"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="86"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="86"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="86"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="86"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="86"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="86"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="86"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="86"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="86"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="86"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="86"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="86"/>
+      <c r="H58" s="87"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="86"/>
+      <c r="H59" s="87"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="86"/>
+      <c r="H60" s="87"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="86"/>
+      <c r="H61" s="87"/>
+    </row>
+    <row r="62" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="86"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="86"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="86"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="86"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="86"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="86"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15984,14 +17170,14 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F9D30A-50A2-408B-B3F0-EDB4CF8C0B75}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9261f3b7-eb37-44bc-ab49-41e0f5c5a530"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
